--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="416">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -868,6 +868,9 @@
     <t>['18', '56', '61']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1153,9 +1156,6 @@
     <t>['15', '64']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['27', '40', '78']</t>
   </si>
   <si>
@@ -1259,6 +1259,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['33', '84', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP321"/>
+  <dimension ref="A1:BP324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,7 +1882,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2497,7 +2500,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2703,7 +2706,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2990,7 +2993,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3321,7 +3324,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3527,7 +3530,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>2.06</v>
@@ -3814,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4351,7 +4354,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4429,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -5381,7 +5384,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5459,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ19">
         <v>0.88</v>
@@ -5668,7 +5671,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5793,7 +5796,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5999,7 +6002,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6411,7 +6414,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6695,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
         <v>0.6899999999999999</v>
@@ -6823,7 +6826,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7029,7 +7032,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7235,7 +7238,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7441,7 +7444,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7522,7 +7525,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7934,7 +7937,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR31">
         <v>0.95</v>
@@ -8059,7 +8062,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8883,7 +8886,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9295,7 +9298,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9376,7 +9379,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9501,7 +9504,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9579,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9707,7 +9710,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9913,7 +9916,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9994,7 +9997,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -10119,7 +10122,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10325,7 +10328,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10818,7 +10821,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10943,7 +10946,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11021,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
         <v>0.6899999999999999</v>
@@ -11149,7 +11152,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11355,7 +11358,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11433,7 +11436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11639,7 +11642,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
         <v>1.06</v>
@@ -11767,7 +11770,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11973,7 +11976,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12054,7 +12057,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -12385,7 +12388,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12591,7 +12594,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12797,7 +12800,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13003,7 +13006,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13209,7 +13212,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13290,7 +13293,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.29</v>
@@ -13493,7 +13496,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ58">
         <v>0.44</v>
@@ -14033,7 +14036,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14320,7 +14323,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ62">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14857,7 +14860,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15063,7 +15066,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15269,7 +15272,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15965,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
@@ -16505,7 +16508,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -17123,7 +17126,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17204,7 +17207,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ76">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -17329,7 +17332,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17407,7 +17410,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77">
         <v>1.27</v>
@@ -17535,7 +17538,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17741,7 +17744,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18025,7 +18028,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -18153,7 +18156,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18646,7 +18649,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18977,7 +18980,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19058,7 +19061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -19595,7 +19598,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19673,7 +19676,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ88">
         <v>0.44</v>
@@ -19801,7 +19804,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20007,7 +20010,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20213,7 +20216,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20497,10 +20500,10 @@
         <v>0.75</v>
       </c>
       <c r="AP92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ92">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20625,7 +20628,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20706,7 +20709,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20831,7 +20834,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21037,7 +21040,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21449,7 +21452,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21861,7 +21864,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22145,7 +22148,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ100">
         <v>1.12</v>
@@ -22479,7 +22482,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22763,7 +22766,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ103">
         <v>1.44</v>
@@ -22891,7 +22894,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23097,7 +23100,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23303,7 +23306,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23796,7 +23799,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ108">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108">
         <v>0.82</v>
@@ -24127,7 +24130,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24333,7 +24336,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24414,7 +24417,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24539,7 +24542,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24617,7 +24620,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ112">
         <v>0.88</v>
@@ -24745,7 +24748,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24951,7 +24954,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25363,7 +25366,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25569,7 +25572,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25647,7 +25650,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25856,7 +25859,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.7</v>
@@ -26059,7 +26062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -26268,7 +26271,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ120">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -26393,7 +26396,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26805,7 +26808,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27011,7 +27014,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27217,7 +27220,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27423,7 +27426,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -28041,7 +28044,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28534,7 +28537,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -29277,7 +29280,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29483,7 +29486,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29564,7 +29567,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ136">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR136">
         <v>1.14</v>
@@ -29895,7 +29898,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29973,7 +29976,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
         <v>1.67</v>
@@ -30101,7 +30104,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30179,7 +30182,7 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139">
         <v>2.06</v>
@@ -30925,7 +30928,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31131,7 +31134,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31209,7 +31212,7 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ144">
         <v>0.6899999999999999</v>
@@ -31543,7 +31546,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31749,7 +31752,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31830,7 +31833,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ147">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -32161,7 +32164,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32239,7 +32242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ149">
         <v>1.06</v>
@@ -32573,7 +32576,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32779,7 +32782,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32860,7 +32863,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR152">
         <v>1.05</v>
@@ -32985,7 +32988,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33269,7 +33272,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
         <v>0.44</v>
@@ -33397,7 +33400,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -33478,7 +33481,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ155">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.24</v>
@@ -34221,7 +34224,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34633,7 +34636,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34839,7 +34842,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34920,7 +34923,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ162">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR162">
         <v>1.24</v>
@@ -35045,7 +35048,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35123,7 +35126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ163">
         <v>1.75</v>
@@ -35329,7 +35332,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ164">
         <v>0.6899999999999999</v>
@@ -35457,7 +35460,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35663,7 +35666,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35869,7 +35872,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35947,7 +35950,7 @@
         <v>1.86</v>
       </c>
       <c r="AP167">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ167">
         <v>1.67</v>
@@ -36075,7 +36078,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36362,7 +36365,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ169">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.57</v>
@@ -36693,7 +36696,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36899,7 +36902,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37105,7 +37108,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37311,7 +37314,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37723,7 +37726,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38341,7 +38344,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38422,7 +38425,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ179">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.61</v>
@@ -38753,7 +38756,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38834,7 +38837,7 @@
         <v>2</v>
       </c>
       <c r="AQ181">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR181">
         <v>1.57</v>
@@ -39165,7 +39168,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39243,7 +39246,7 @@
         <v>0.63</v>
       </c>
       <c r="AP183">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ183">
         <v>0.6899999999999999</v>
@@ -39449,7 +39452,7 @@
         <v>1.63</v>
       </c>
       <c r="AP184">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ184">
         <v>1.06</v>
@@ -39861,7 +39864,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -40070,7 +40073,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ187">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR187">
         <v>1.47</v>
@@ -40401,7 +40404,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40813,7 +40816,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -41431,7 +41434,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41718,7 +41721,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ195">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR195">
         <v>1.59</v>
@@ -41921,7 +41924,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ196">
         <v>1.27</v>
@@ -42049,7 +42052,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42461,7 +42464,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42667,7 +42670,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42745,7 +42748,7 @@
         <v>1.56</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
         <v>1.06</v>
@@ -42873,7 +42876,7 @@
         <v>220</v>
       </c>
       <c r="P201" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="Q201">
         <v>2.25</v>
@@ -43366,7 +43369,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ203">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR203">
         <v>1.78</v>
@@ -43697,7 +43700,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -45551,7 +45554,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -46041,7 +46044,7 @@
         <v>2.56</v>
       </c>
       <c r="AP216">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ216">
         <v>2</v>
@@ -46375,7 +46378,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46456,7 +46459,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.35</v>
@@ -47277,10 +47280,10 @@
         <v>0.91</v>
       </c>
       <c r="AP222">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ222">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR222">
         <v>1.17</v>
@@ -47405,7 +47408,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47692,7 +47695,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ224">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR224">
         <v>1.75</v>
@@ -47817,7 +47820,7 @@
         <v>236</v>
       </c>
       <c r="P225" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -48023,7 +48026,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48513,10 +48516,10 @@
         <v>2.36</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR228">
         <v>1.58</v>
@@ -49671,7 +49674,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50289,7 +50292,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50573,7 +50576,7 @@
         <v>1.55</v>
       </c>
       <c r="AP238">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ238">
         <v>1.5</v>
@@ -50701,7 +50704,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51606,7 +51609,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ243">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR243">
         <v>1.63</v>
@@ -51812,7 +51815,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ244">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR244">
         <v>1.7</v>
@@ -52018,7 +52021,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR245">
         <v>1.56</v>
@@ -52221,7 +52224,7 @@
         <v>0.83</v>
       </c>
       <c r="AP246">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ246">
         <v>0.6899999999999999</v>
@@ -52555,7 +52558,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -53251,7 +53254,7 @@
         <v>1.08</v>
       </c>
       <c r="AP251">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ251">
         <v>1.06</v>
@@ -54203,7 +54206,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54284,7 +54287,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ256">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR256">
         <v>1.57</v>
@@ -55105,7 +55108,7 @@
         <v>0.58</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ260">
         <v>0.44</v>
@@ -56341,7 +56344,7 @@
         <v>1.08</v>
       </c>
       <c r="AP266">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ266">
         <v>1.12</v>
@@ -56959,10 +56962,10 @@
         <v>0.77</v>
       </c>
       <c r="AP269">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ269">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57374,7 +57377,7 @@
         <v>2</v>
       </c>
       <c r="AQ271">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR271">
         <v>1.6</v>
@@ -58195,7 +58198,7 @@
         <v>1.31</v>
       </c>
       <c r="AP275">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ275">
         <v>1.44</v>
@@ -58735,7 +58738,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -59559,7 +59562,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59846,7 +59849,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ283">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR283">
         <v>1.25</v>
@@ -60049,7 +60052,7 @@
         <v>0.62</v>
       </c>
       <c r="AP284">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ284">
         <v>0.6899999999999999</v>
@@ -60177,7 +60180,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60258,7 +60261,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ285">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR285">
         <v>1.72</v>
@@ -60670,7 +60673,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ287">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR287">
         <v>1.33</v>
@@ -61079,7 +61082,7 @@
         <v>0.77</v>
       </c>
       <c r="AP289">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ289">
         <v>0.6899999999999999</v>
@@ -62315,7 +62318,7 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ295">
         <v>1.38</v>
@@ -63963,10 +63966,10 @@
         <v>0.67</v>
       </c>
       <c r="AP303">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ303">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR303">
         <v>1.2</v>
@@ -64581,7 +64584,7 @@
         <v>0.4</v>
       </c>
       <c r="AP306">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ306">
         <v>0.44</v>
@@ -64790,7 +64793,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ307">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR307">
         <v>1.17</v>
@@ -65327,7 +65330,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65405,7 +65408,7 @@
         <v>1.71</v>
       </c>
       <c r="AP310">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ310">
         <v>1.67</v>
@@ -65614,7 +65617,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ311">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR311">
         <v>1.79</v>
@@ -67750,6 +67753,624 @@
       </c>
       <c r="BP321">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:68">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>7492472</v>
+      </c>
+      <c r="C322" t="s">
+        <v>68</v>
+      </c>
+      <c r="D322" t="s">
+        <v>69</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F322">
+        <v>33</v>
+      </c>
+      <c r="G322" t="s">
+        <v>78</v>
+      </c>
+      <c r="H322" t="s">
+        <v>88</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>3</v>
+      </c>
+      <c r="N322">
+        <v>3</v>
+      </c>
+      <c r="O322" t="s">
+        <v>92</v>
+      </c>
+      <c r="P322" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q322">
+        <v>4.33</v>
+      </c>
+      <c r="R322">
+        <v>2.1</v>
+      </c>
+      <c r="S322">
+        <v>2.75</v>
+      </c>
+      <c r="T322">
+        <v>1.44</v>
+      </c>
+      <c r="U322">
+        <v>2.63</v>
+      </c>
+      <c r="V322">
+        <v>3.25</v>
+      </c>
+      <c r="W322">
+        <v>1.33</v>
+      </c>
+      <c r="X322">
+        <v>9</v>
+      </c>
+      <c r="Y322">
+        <v>1.07</v>
+      </c>
+      <c r="Z322">
+        <v>3.45</v>
+      </c>
+      <c r="AA322">
+        <v>3.45</v>
+      </c>
+      <c r="AB322">
+        <v>2.2</v>
+      </c>
+      <c r="AC322">
+        <v>0</v>
+      </c>
+      <c r="AD322">
+        <v>0</v>
+      </c>
+      <c r="AE322">
+        <v>1.98</v>
+      </c>
+      <c r="AF322">
+        <v>1.9</v>
+      </c>
+      <c r="AG322">
+        <v>2.05</v>
+      </c>
+      <c r="AH322">
+        <v>1.7</v>
+      </c>
+      <c r="AI322">
+        <v>1.91</v>
+      </c>
+      <c r="AJ322">
+        <v>1.91</v>
+      </c>
+      <c r="AK322">
+        <v>0</v>
+      </c>
+      <c r="AL322">
+        <v>0</v>
+      </c>
+      <c r="AM322">
+        <v>0</v>
+      </c>
+      <c r="AN322">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO322">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP322">
+        <v>0.88</v>
+      </c>
+      <c r="AQ322">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR322">
+        <v>1.38</v>
+      </c>
+      <c r="AS322">
+        <v>1.35</v>
+      </c>
+      <c r="AT322">
+        <v>2.73</v>
+      </c>
+      <c r="AU322">
+        <v>8</v>
+      </c>
+      <c r="AV322">
+        <v>6</v>
+      </c>
+      <c r="AW322">
+        <v>7</v>
+      </c>
+      <c r="AX322">
+        <v>5</v>
+      </c>
+      <c r="AY322">
+        <v>18</v>
+      </c>
+      <c r="AZ322">
+        <v>11</v>
+      </c>
+      <c r="BA322">
+        <v>9</v>
+      </c>
+      <c r="BB322">
+        <v>4</v>
+      </c>
+      <c r="BC322">
+        <v>13</v>
+      </c>
+      <c r="BD322">
+        <v>0</v>
+      </c>
+      <c r="BE322">
+        <v>0</v>
+      </c>
+      <c r="BF322">
+        <v>0</v>
+      </c>
+      <c r="BG322">
+        <v>0</v>
+      </c>
+      <c r="BH322">
+        <v>0</v>
+      </c>
+      <c r="BI322">
+        <v>0</v>
+      </c>
+      <c r="BJ322">
+        <v>0</v>
+      </c>
+      <c r="BK322">
+        <v>0</v>
+      </c>
+      <c r="BL322">
+        <v>0</v>
+      </c>
+      <c r="BM322">
+        <v>0</v>
+      </c>
+      <c r="BN322">
+        <v>0</v>
+      </c>
+      <c r="BO322">
+        <v>0</v>
+      </c>
+      <c r="BP322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:68">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>7492474</v>
+      </c>
+      <c r="C323" t="s">
+        <v>68</v>
+      </c>
+      <c r="D323" t="s">
+        <v>69</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F323">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
+        <v>81</v>
+      </c>
+      <c r="H323" t="s">
+        <v>85</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>1</v>
+      </c>
+      <c r="N323">
+        <v>1</v>
+      </c>
+      <c r="O323" t="s">
+        <v>92</v>
+      </c>
+      <c r="P323" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q323">
+        <v>10</v>
+      </c>
+      <c r="R323">
+        <v>2.4</v>
+      </c>
+      <c r="S323">
+        <v>1.73</v>
+      </c>
+      <c r="T323">
+        <v>1.36</v>
+      </c>
+      <c r="U323">
+        <v>3</v>
+      </c>
+      <c r="V323">
+        <v>2.63</v>
+      </c>
+      <c r="W323">
+        <v>1.44</v>
+      </c>
+      <c r="X323">
+        <v>7</v>
+      </c>
+      <c r="Y323">
+        <v>1.1</v>
+      </c>
+      <c r="Z323">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AA323">
+        <v>5.2</v>
+      </c>
+      <c r="AB323">
+        <v>1.35</v>
+      </c>
+      <c r="AC323">
+        <v>0</v>
+      </c>
+      <c r="AD323">
+        <v>0</v>
+      </c>
+      <c r="AE323">
+        <v>2.44</v>
+      </c>
+      <c r="AF323">
+        <v>1.59</v>
+      </c>
+      <c r="AG323">
+        <v>1.85</v>
+      </c>
+      <c r="AH323">
+        <v>1.96</v>
+      </c>
+      <c r="AI323">
+        <v>2.38</v>
+      </c>
+      <c r="AJ323">
+        <v>1.53</v>
+      </c>
+      <c r="AK323">
+        <v>0</v>
+      </c>
+      <c r="AL323">
+        <v>0</v>
+      </c>
+      <c r="AM323">
+        <v>0</v>
+      </c>
+      <c r="AN323">
+        <v>0.5</v>
+      </c>
+      <c r="AO323">
+        <v>1.88</v>
+      </c>
+      <c r="AP323">
+        <v>0.47</v>
+      </c>
+      <c r="AQ323">
+        <v>1.94</v>
+      </c>
+      <c r="AR323">
+        <v>1.18</v>
+      </c>
+      <c r="AS323">
+        <v>1.21</v>
+      </c>
+      <c r="AT323">
+        <v>2.39</v>
+      </c>
+      <c r="AU323">
+        <v>0</v>
+      </c>
+      <c r="AV323">
+        <v>6</v>
+      </c>
+      <c r="AW323">
+        <v>9</v>
+      </c>
+      <c r="AX323">
+        <v>11</v>
+      </c>
+      <c r="AY323">
+        <v>12</v>
+      </c>
+      <c r="AZ323">
+        <v>23</v>
+      </c>
+      <c r="BA323">
+        <v>6</v>
+      </c>
+      <c r="BB323">
+        <v>7</v>
+      </c>
+      <c r="BC323">
+        <v>13</v>
+      </c>
+      <c r="BD323">
+        <v>0</v>
+      </c>
+      <c r="BE323">
+        <v>0</v>
+      </c>
+      <c r="BF323">
+        <v>0</v>
+      </c>
+      <c r="BG323">
+        <v>0</v>
+      </c>
+      <c r="BH323">
+        <v>0</v>
+      </c>
+      <c r="BI323">
+        <v>0</v>
+      </c>
+      <c r="BJ323">
+        <v>0</v>
+      </c>
+      <c r="BK323">
+        <v>0</v>
+      </c>
+      <c r="BL323">
+        <v>0</v>
+      </c>
+      <c r="BM323">
+        <v>0</v>
+      </c>
+      <c r="BN323">
+        <v>0</v>
+      </c>
+      <c r="BO323">
+        <v>0</v>
+      </c>
+      <c r="BP323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:68">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>7492476</v>
+      </c>
+      <c r="C324" t="s">
+        <v>68</v>
+      </c>
+      <c r="D324" t="s">
+        <v>69</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45766.65625</v>
+      </c>
+      <c r="F324">
+        <v>33</v>
+      </c>
+      <c r="G324" t="s">
+        <v>86</v>
+      </c>
+      <c r="H324" t="s">
+        <v>75</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>1</v>
+      </c>
+      <c r="O324" t="s">
+        <v>284</v>
+      </c>
+      <c r="P324" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q324">
+        <v>1.91</v>
+      </c>
+      <c r="R324">
+        <v>2.3</v>
+      </c>
+      <c r="S324">
+        <v>8</v>
+      </c>
+      <c r="T324">
+        <v>1.4</v>
+      </c>
+      <c r="U324">
+        <v>2.75</v>
+      </c>
+      <c r="V324">
+        <v>3</v>
+      </c>
+      <c r="W324">
+        <v>1.36</v>
+      </c>
+      <c r="X324">
+        <v>8</v>
+      </c>
+      <c r="Y324">
+        <v>1.08</v>
+      </c>
+      <c r="Z324">
+        <v>1.43</v>
+      </c>
+      <c r="AA324">
+        <v>4.7</v>
+      </c>
+      <c r="AB324">
+        <v>8.1</v>
+      </c>
+      <c r="AC324">
+        <v>1.07</v>
+      </c>
+      <c r="AD324">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AE324">
+        <v>3.42</v>
+      </c>
+      <c r="AF324">
+        <v>1.34</v>
+      </c>
+      <c r="AG324">
+        <v>2</v>
+      </c>
+      <c r="AH324">
+        <v>1.82</v>
+      </c>
+      <c r="AI324">
+        <v>2.2</v>
+      </c>
+      <c r="AJ324">
+        <v>1.62</v>
+      </c>
+      <c r="AK324">
+        <v>1.11</v>
+      </c>
+      <c r="AL324">
+        <v>1.2</v>
+      </c>
+      <c r="AM324">
+        <v>2.38</v>
+      </c>
+      <c r="AN324">
+        <v>2</v>
+      </c>
+      <c r="AO324">
+        <v>1.06</v>
+      </c>
+      <c r="AP324">
+        <v>2.06</v>
+      </c>
+      <c r="AQ324">
+        <v>1</v>
+      </c>
+      <c r="AR324">
+        <v>1.57</v>
+      </c>
+      <c r="AS324">
+        <v>1.07</v>
+      </c>
+      <c r="AT324">
+        <v>2.64</v>
+      </c>
+      <c r="AU324">
+        <v>4</v>
+      </c>
+      <c r="AV324">
+        <v>3</v>
+      </c>
+      <c r="AW324">
+        <v>3</v>
+      </c>
+      <c r="AX324">
+        <v>6</v>
+      </c>
+      <c r="AY324">
+        <v>7</v>
+      </c>
+      <c r="AZ324">
+        <v>10</v>
+      </c>
+      <c r="BA324">
+        <v>4</v>
+      </c>
+      <c r="BB324">
+        <v>6</v>
+      </c>
+      <c r="BC324">
+        <v>10</v>
+      </c>
+      <c r="BD324">
+        <v>0</v>
+      </c>
+      <c r="BE324">
+        <v>0</v>
+      </c>
+      <c r="BF324">
+        <v>0</v>
+      </c>
+      <c r="BG324">
+        <v>0</v>
+      </c>
+      <c r="BH324">
+        <v>0</v>
+      </c>
+      <c r="BI324">
+        <v>0</v>
+      </c>
+      <c r="BJ324">
+        <v>0</v>
+      </c>
+      <c r="BK324">
+        <v>0</v>
+      </c>
+      <c r="BL324">
+        <v>0</v>
+      </c>
+      <c r="BM324">
+        <v>0</v>
+      </c>
+      <c r="BN324">
+        <v>0</v>
+      </c>
+      <c r="BO324">
+        <v>0</v>
+      </c>
+      <c r="BP324">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,12 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['59', '87']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1263,6 +1269,9 @@
   <si>
     <t>['33', '84', '90+1']</t>
   </si>
+  <si>
+    <t>['67', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -1623,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP324"/>
+  <dimension ref="A1:BP327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1891,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1963,7 +1972,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2372,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ4">
         <v>0.44</v>
@@ -2500,7 +2509,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2578,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ5">
         <v>1.12</v>
@@ -2706,7 +2715,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2784,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ6">
         <v>1.06</v>
@@ -3324,7 +3333,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3405,7 +3414,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3530,7 +3539,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3611,7 +3620,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4148,7 +4157,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4354,7 +4363,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4847,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5053,7 +5062,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5384,7 +5393,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5796,7 +5805,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -6002,7 +6011,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6289,7 +6298,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ23">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6414,7 +6423,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6492,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6826,7 +6835,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7032,7 +7041,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7238,7 +7247,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7444,7 +7453,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -8062,7 +8071,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8346,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -8552,10 +8561,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ34">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8886,7 +8895,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9298,7 +9307,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9504,7 +9513,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9585,7 +9594,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9710,7 +9719,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9916,7 +9925,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -10122,7 +10131,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10328,7 +10337,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10946,7 +10955,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11152,7 +11161,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11358,7 +11367,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11770,7 +11779,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11976,7 +11985,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12260,7 +12269,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ52">
         <v>0.6899999999999999</v>
@@ -12388,7 +12397,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12469,7 +12478,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12594,7 +12603,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12800,7 +12809,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12878,10 +12887,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ55">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -13006,7 +13015,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13212,7 +13221,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13499,7 +13508,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ58">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -13702,7 +13711,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1.27</v>
@@ -14036,7 +14045,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14529,7 +14538,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ63">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14860,7 +14869,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15066,7 +15075,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15272,7 +15281,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15762,7 +15771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ69">
         <v>0.6899999999999999</v>
@@ -16508,7 +16517,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16792,7 +16801,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
         <v>1.06</v>
@@ -17126,7 +17135,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17204,7 +17213,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ76">
         <v>1.94</v>
@@ -17332,7 +17341,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17538,7 +17547,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17619,7 +17628,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ78">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17744,7 +17753,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18031,7 +18040,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -18156,7 +18165,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18980,7 +18989,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19598,7 +19607,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19679,7 +19688,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ88">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -19804,7 +19813,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20010,7 +20019,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20216,7 +20225,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20628,7 +20637,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20706,7 +20715,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ93">
         <v>1.94</v>
@@ -20834,7 +20843,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21040,7 +21049,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21118,10 +21127,10 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR95">
         <v>0.91</v>
@@ -21452,7 +21461,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21864,7 +21873,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22354,7 +22363,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22482,7 +22491,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22894,7 +22903,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22975,7 +22984,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -23100,7 +23109,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23306,7 +23315,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23593,7 +23602,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ107">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23796,7 +23805,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -24130,7 +24139,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24336,7 +24345,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24542,7 +24551,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24748,7 +24757,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24954,7 +24963,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25366,7 +25375,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25572,7 +25581,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26396,7 +26405,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26477,7 +26486,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26680,7 +26689,7 @@
         <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ122">
         <v>1.67</v>
@@ -26808,7 +26817,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26889,7 +26898,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ123">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27014,7 +27023,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27220,7 +27229,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27426,7 +27435,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -28044,7 +28053,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28122,7 +28131,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ129">
         <v>1.06</v>
@@ -28946,7 +28955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ133">
         <v>0.88</v>
@@ -29152,10 +29161,10 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29280,7 +29289,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29486,7 +29495,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29898,7 +29907,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30104,7 +30113,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30185,7 +30194,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30928,7 +30937,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31134,7 +31143,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31546,7 +31555,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31752,7 +31761,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32164,7 +32173,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32448,7 +32457,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ150">
         <v>1.12</v>
@@ -32576,7 +32585,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32657,7 +32666,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ151">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32782,7 +32791,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32988,7 +32997,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33069,7 +33078,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33400,7 +33409,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -33684,7 +33693,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ156">
         <v>1.27</v>
@@ -34096,7 +34105,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34224,7 +34233,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34305,7 +34314,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34636,7 +34645,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34842,7 +34851,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35048,7 +35057,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35460,7 +35469,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35666,7 +35675,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35872,7 +35881,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36078,7 +36087,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36696,7 +36705,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36774,7 +36783,7 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -36902,7 +36911,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -36983,7 +36992,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ172">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
         <v>1.46</v>
@@ -37108,7 +37117,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37189,7 +37198,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ173">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37314,7 +37323,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37601,7 +37610,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ175">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37726,7 +37735,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38010,7 +38019,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
         <v>1.38</v>
@@ -38344,7 +38353,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38422,7 +38431,7 @@
         <v>0.75</v>
       </c>
       <c r="AP179">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38756,7 +38765,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39168,7 +39177,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -40279,7 +40288,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ188">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR188">
         <v>1.04</v>
@@ -40404,7 +40413,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40482,7 +40491,7 @@
         <v>0.44</v>
       </c>
       <c r="AP189">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ189">
         <v>0.6899999999999999</v>
@@ -40816,7 +40825,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -40894,7 +40903,7 @@
         <v>0.89</v>
       </c>
       <c r="AP191">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ191">
         <v>0.6899999999999999</v>
@@ -41309,7 +41318,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ193">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR193">
         <v>1.41</v>
@@ -41434,7 +41443,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41512,7 +41521,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ194">
         <v>1.38</v>
@@ -42052,7 +42061,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42464,7 +42473,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42670,7 +42679,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42954,7 +42963,7 @@
         <v>0.78</v>
       </c>
       <c r="AP201">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ201">
         <v>0.44</v>
@@ -43288,7 +43297,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43700,7 +43709,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43987,7 +43996,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ206">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR206">
         <v>1.29</v>
@@ -44112,7 +44121,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44318,7 +44327,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44936,7 +44945,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45017,7 +45026,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ211">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR211">
         <v>1.53</v>
@@ -45426,7 +45435,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ213">
         <v>1.5</v>
@@ -45554,7 +45563,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45632,7 +45641,7 @@
         <v>0.8</v>
       </c>
       <c r="AP214">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ214">
         <v>0.6899999999999999</v>
@@ -45760,7 +45769,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45966,7 +45975,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46047,7 +46056,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ216">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR216">
         <v>1.3</v>
@@ -46172,7 +46181,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46378,7 +46387,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46790,7 +46799,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -46996,7 +47005,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47077,7 +47086,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ221">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR221">
         <v>1.06</v>
@@ -47408,7 +47417,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47692,7 +47701,7 @@
         <v>0.64</v>
       </c>
       <c r="AP224">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ224">
         <v>0.9399999999999999</v>
@@ -48026,7 +48035,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48310,10 +48319,10 @@
         <v>2.6</v>
       </c>
       <c r="AP227">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ227">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR227">
         <v>1.73</v>
@@ -48438,7 +48447,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48644,7 +48653,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48931,7 +48940,7 @@
         <v>2</v>
       </c>
       <c r="AQ230">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR230">
         <v>1.55</v>
@@ -49056,7 +49065,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49262,7 +49271,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49343,7 +49352,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ232">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49468,7 +49477,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49546,7 +49555,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ233">
         <v>1.44</v>
@@ -49674,7 +49683,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50292,7 +50301,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50704,7 +50713,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51116,7 +51125,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51194,7 +51203,7 @@
         <v>1.17</v>
       </c>
       <c r="AP241">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ241">
         <v>1.12</v>
@@ -51528,7 +51537,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51812,7 +51821,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ244">
         <v>1</v>
@@ -51940,7 +51949,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52558,7 +52567,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -52845,7 +52854,7 @@
         <v>2</v>
       </c>
       <c r="AQ249">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR249">
         <v>1.57</v>
@@ -53051,7 +53060,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ250">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR250">
         <v>1.32</v>
@@ -54206,7 +54215,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54618,7 +54627,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54696,10 +54705,10 @@
         <v>2.08</v>
       </c>
       <c r="AP258">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ258">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR258">
         <v>0.97</v>
@@ -54824,7 +54833,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55314,7 +55323,7 @@
         <v>1.42</v>
       </c>
       <c r="AP261">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ261">
         <v>1.44</v>
@@ -55729,7 +55738,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ263">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR263">
         <v>1.84</v>
@@ -55935,7 +55944,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ264">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR264">
         <v>1.6</v>
@@ -56266,7 +56275,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -56550,7 +56559,7 @@
         <v>0.83</v>
       </c>
       <c r="AP267">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ267">
         <v>0.6899999999999999</v>
@@ -57090,7 +57099,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57168,7 +57177,7 @@
         <v>1.69</v>
       </c>
       <c r="AP270">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ270">
         <v>1.75</v>
@@ -57708,7 +57717,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -57995,7 +58004,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ274">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR274">
         <v>1.53</v>
@@ -58120,7 +58129,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58326,7 +58335,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58532,7 +58541,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58738,7 +58747,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58944,7 +58953,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59022,7 +59031,7 @@
         <v>1.15</v>
       </c>
       <c r="AP279">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ279">
         <v>1.38</v>
@@ -59150,7 +59159,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59231,7 +59240,7 @@
         <v>2</v>
       </c>
       <c r="AQ280">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR280">
         <v>1.71</v>
@@ -59562,7 +59571,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59974,7 +59983,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60180,7 +60189,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60258,7 +60267,7 @@
         <v>0.71</v>
       </c>
       <c r="AP285">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ285">
         <v>0.9399999999999999</v>
@@ -60876,7 +60885,7 @@
         <v>1.79</v>
       </c>
       <c r="AP288">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ288">
         <v>1.75</v>
@@ -61416,7 +61425,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61497,7 +61506,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ291">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR291">
         <v>1.86</v>
@@ -62733,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="AQ297">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR297">
         <v>1.47</v>
@@ -62858,7 +62867,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63064,7 +63073,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63476,7 +63485,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63888,7 +63897,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64094,7 +64103,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64175,7 +64184,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ304">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR304">
         <v>1.35</v>
@@ -64300,7 +64309,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -64378,7 +64387,7 @@
         <v>1.29</v>
       </c>
       <c r="AP305">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ305">
         <v>1.27</v>
@@ -64587,7 +64596,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ306">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR306">
         <v>1.32</v>
@@ -64996,7 +65005,7 @@
         <v>0.71</v>
       </c>
       <c r="AP308">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ308">
         <v>0.6899999999999999</v>
@@ -65330,7 +65339,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65614,7 +65623,7 @@
         <v>1.93</v>
       </c>
       <c r="AP311">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ311">
         <v>1.94</v>
@@ -65742,7 +65751,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66154,7 +66163,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -67390,7 +67399,7 @@
         <v>163</v>
       </c>
       <c r="P320" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q320">
         <v>3.4</v>
@@ -67802,7 +67811,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68370,6 +68379,624 @@
         <v>0</v>
       </c>
       <c r="BP324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:68">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>7492470</v>
+      </c>
+      <c r="C325" t="s">
+        <v>68</v>
+      </c>
+      <c r="D325" t="s">
+        <v>69</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F325">
+        <v>33</v>
+      </c>
+      <c r="G325" t="s">
+        <v>72</v>
+      </c>
+      <c r="H325" t="s">
+        <v>87</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>2</v>
+      </c>
+      <c r="N325">
+        <v>4</v>
+      </c>
+      <c r="O325" t="s">
+        <v>285</v>
+      </c>
+      <c r="P325" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q325">
+        <v>3</v>
+      </c>
+      <c r="R325">
+        <v>2</v>
+      </c>
+      <c r="S325">
+        <v>4</v>
+      </c>
+      <c r="T325">
+        <v>1.5</v>
+      </c>
+      <c r="U325">
+        <v>2.5</v>
+      </c>
+      <c r="V325">
+        <v>3.5</v>
+      </c>
+      <c r="W325">
+        <v>1.29</v>
+      </c>
+      <c r="X325">
+        <v>11</v>
+      </c>
+      <c r="Y325">
+        <v>1.05</v>
+      </c>
+      <c r="Z325">
+        <v>2.32</v>
+      </c>
+      <c r="AA325">
+        <v>3.25</v>
+      </c>
+      <c r="AB325">
+        <v>3.39</v>
+      </c>
+      <c r="AC325">
+        <v>1.09</v>
+      </c>
+      <c r="AD325">
+        <v>7</v>
+      </c>
+      <c r="AE325">
+        <v>1.44</v>
+      </c>
+      <c r="AF325">
+        <v>2.75</v>
+      </c>
+      <c r="AG325">
+        <v>2.25</v>
+      </c>
+      <c r="AH325">
+        <v>1.6</v>
+      </c>
+      <c r="AI325">
+        <v>1.95</v>
+      </c>
+      <c r="AJ325">
+        <v>1.8</v>
+      </c>
+      <c r="AK325">
+        <v>1.3</v>
+      </c>
+      <c r="AL325">
+        <v>1.33</v>
+      </c>
+      <c r="AM325">
+        <v>1.62</v>
+      </c>
+      <c r="AN325">
+        <v>0.6</v>
+      </c>
+      <c r="AO325">
+        <v>0.44</v>
+      </c>
+      <c r="AP325">
+        <v>0.63</v>
+      </c>
+      <c r="AQ325">
+        <v>0.47</v>
+      </c>
+      <c r="AR325">
+        <v>0.95</v>
+      </c>
+      <c r="AS325">
+        <v>1.02</v>
+      </c>
+      <c r="AT325">
+        <v>1.97</v>
+      </c>
+      <c r="AU325">
+        <v>5</v>
+      </c>
+      <c r="AV325">
+        <v>8</v>
+      </c>
+      <c r="AW325">
+        <v>7</v>
+      </c>
+      <c r="AX325">
+        <v>6</v>
+      </c>
+      <c r="AY325">
+        <v>14</v>
+      </c>
+      <c r="AZ325">
+        <v>17</v>
+      </c>
+      <c r="BA325">
+        <v>2</v>
+      </c>
+      <c r="BB325">
+        <v>5</v>
+      </c>
+      <c r="BC325">
+        <v>7</v>
+      </c>
+      <c r="BD325">
+        <v>0</v>
+      </c>
+      <c r="BE325">
+        <v>0</v>
+      </c>
+      <c r="BF325">
+        <v>0</v>
+      </c>
+      <c r="BG325">
+        <v>0</v>
+      </c>
+      <c r="BH325">
+        <v>0</v>
+      </c>
+      <c r="BI325">
+        <v>0</v>
+      </c>
+      <c r="BJ325">
+        <v>0</v>
+      </c>
+      <c r="BK325">
+        <v>0</v>
+      </c>
+      <c r="BL325">
+        <v>0</v>
+      </c>
+      <c r="BM325">
+        <v>0</v>
+      </c>
+      <c r="BN325">
+        <v>0</v>
+      </c>
+      <c r="BO325">
+        <v>0</v>
+      </c>
+      <c r="BP325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:68">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>7492468</v>
+      </c>
+      <c r="C326" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" t="s">
+        <v>69</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45767.54166666666</v>
+      </c>
+      <c r="F326">
+        <v>33</v>
+      </c>
+      <c r="G326" t="s">
+        <v>74</v>
+      </c>
+      <c r="H326" t="s">
+        <v>82</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
+        <v>286</v>
+      </c>
+      <c r="P326" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q326">
+        <v>3.75</v>
+      </c>
+      <c r="R326">
+        <v>2.05</v>
+      </c>
+      <c r="S326">
+        <v>3</v>
+      </c>
+      <c r="T326">
+        <v>1.5</v>
+      </c>
+      <c r="U326">
+        <v>2.5</v>
+      </c>
+      <c r="V326">
+        <v>3.4</v>
+      </c>
+      <c r="W326">
+        <v>1.3</v>
+      </c>
+      <c r="X326">
+        <v>10</v>
+      </c>
+      <c r="Y326">
+        <v>1.06</v>
+      </c>
+      <c r="Z326">
+        <v>3.41</v>
+      </c>
+      <c r="AA326">
+        <v>3.21</v>
+      </c>
+      <c r="AB326">
+        <v>2.32</v>
+      </c>
+      <c r="AC326">
+        <v>1.08</v>
+      </c>
+      <c r="AD326">
+        <v>7.5</v>
+      </c>
+      <c r="AE326">
+        <v>1.38</v>
+      </c>
+      <c r="AF326">
+        <v>2.95</v>
+      </c>
+      <c r="AG326">
+        <v>2.1</v>
+      </c>
+      <c r="AH326">
+        <v>1.7</v>
+      </c>
+      <c r="AI326">
+        <v>1.91</v>
+      </c>
+      <c r="AJ326">
+        <v>1.91</v>
+      </c>
+      <c r="AK326">
+        <v>1.57</v>
+      </c>
+      <c r="AL326">
+        <v>1.3</v>
+      </c>
+      <c r="AM326">
+        <v>1.35</v>
+      </c>
+      <c r="AN326">
+        <v>2.06</v>
+      </c>
+      <c r="AO326">
+        <v>2</v>
+      </c>
+      <c r="AP326">
+        <v>2.12</v>
+      </c>
+      <c r="AQ326">
+        <v>1.88</v>
+      </c>
+      <c r="AR326">
+        <v>1.79</v>
+      </c>
+      <c r="AS326">
+        <v>1.57</v>
+      </c>
+      <c r="AT326">
+        <v>3.36</v>
+      </c>
+      <c r="AU326">
+        <v>4</v>
+      </c>
+      <c r="AV326">
+        <v>2</v>
+      </c>
+      <c r="AW326">
+        <v>9</v>
+      </c>
+      <c r="AX326">
+        <v>7</v>
+      </c>
+      <c r="AY326">
+        <v>15</v>
+      </c>
+      <c r="AZ326">
+        <v>9</v>
+      </c>
+      <c r="BA326">
+        <v>5</v>
+      </c>
+      <c r="BB326">
+        <v>6</v>
+      </c>
+      <c r="BC326">
+        <v>11</v>
+      </c>
+      <c r="BD326">
+        <v>0</v>
+      </c>
+      <c r="BE326">
+        <v>0</v>
+      </c>
+      <c r="BF326">
+        <v>0</v>
+      </c>
+      <c r="BG326">
+        <v>0</v>
+      </c>
+      <c r="BH326">
+        <v>0</v>
+      </c>
+      <c r="BI326">
+        <v>0</v>
+      </c>
+      <c r="BJ326">
+        <v>0</v>
+      </c>
+      <c r="BK326">
+        <v>0</v>
+      </c>
+      <c r="BL326">
+        <v>0</v>
+      </c>
+      <c r="BM326">
+        <v>0</v>
+      </c>
+      <c r="BN326">
+        <v>0</v>
+      </c>
+      <c r="BO326">
+        <v>0</v>
+      </c>
+      <c r="BP326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:68">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>7492473</v>
+      </c>
+      <c r="C327" t="s">
+        <v>68</v>
+      </c>
+      <c r="D327" t="s">
+        <v>69</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45767.65625</v>
+      </c>
+      <c r="F327">
+        <v>33</v>
+      </c>
+      <c r="G327" t="s">
+        <v>73</v>
+      </c>
+      <c r="H327" t="s">
+        <v>89</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+      <c r="O327" t="s">
+        <v>92</v>
+      </c>
+      <c r="P327" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q327">
+        <v>3</v>
+      </c>
+      <c r="R327">
+        <v>2.3</v>
+      </c>
+      <c r="S327">
+        <v>3.2</v>
+      </c>
+      <c r="T327">
+        <v>1.33</v>
+      </c>
+      <c r="U327">
+        <v>3.25</v>
+      </c>
+      <c r="V327">
+        <v>2.5</v>
+      </c>
+      <c r="W327">
+        <v>1.5</v>
+      </c>
+      <c r="X327">
+        <v>6.5</v>
+      </c>
+      <c r="Y327">
+        <v>1.11</v>
+      </c>
+      <c r="Z327">
+        <v>2.63</v>
+      </c>
+      <c r="AA327">
+        <v>3.47</v>
+      </c>
+      <c r="AB327">
+        <v>2.73</v>
+      </c>
+      <c r="AC327">
+        <v>1.04</v>
+      </c>
+      <c r="AD327">
+        <v>10</v>
+      </c>
+      <c r="AE327">
+        <v>1.22</v>
+      </c>
+      <c r="AF327">
+        <v>4.2</v>
+      </c>
+      <c r="AG327">
+        <v>1.67</v>
+      </c>
+      <c r="AH327">
+        <v>2.1</v>
+      </c>
+      <c r="AI327">
+        <v>1.53</v>
+      </c>
+      <c r="AJ327">
+        <v>2.38</v>
+      </c>
+      <c r="AK327">
+        <v>1.48</v>
+      </c>
+      <c r="AL327">
+        <v>1.25</v>
+      </c>
+      <c r="AM327">
+        <v>1.5</v>
+      </c>
+      <c r="AN327">
+        <v>1.75</v>
+      </c>
+      <c r="AO327">
+        <v>2.06</v>
+      </c>
+      <c r="AP327">
+        <v>1.65</v>
+      </c>
+      <c r="AQ327">
+        <v>2.12</v>
+      </c>
+      <c r="AR327">
+        <v>1.7</v>
+      </c>
+      <c r="AS327">
+        <v>1.58</v>
+      </c>
+      <c r="AT327">
+        <v>3.28</v>
+      </c>
+      <c r="AU327">
+        <v>2</v>
+      </c>
+      <c r="AV327">
+        <v>3</v>
+      </c>
+      <c r="AW327">
+        <v>11</v>
+      </c>
+      <c r="AX327">
+        <v>9</v>
+      </c>
+      <c r="AY327">
+        <v>16</v>
+      </c>
+      <c r="AZ327">
+        <v>14</v>
+      </c>
+      <c r="BA327">
+        <v>7</v>
+      </c>
+      <c r="BB327">
+        <v>5</v>
+      </c>
+      <c r="BC327">
+        <v>12</v>
+      </c>
+      <c r="BD327">
+        <v>0</v>
+      </c>
+      <c r="BE327">
+        <v>0</v>
+      </c>
+      <c r="BF327">
+        <v>0</v>
+      </c>
+      <c r="BG327">
+        <v>0</v>
+      </c>
+      <c r="BH327">
+        <v>0</v>
+      </c>
+      <c r="BI327">
+        <v>0</v>
+      </c>
+      <c r="BJ327">
+        <v>0</v>
+      </c>
+      <c r="BK327">
+        <v>0</v>
+      </c>
+      <c r="BL327">
+        <v>0</v>
+      </c>
+      <c r="BM327">
+        <v>0</v>
+      </c>
+      <c r="BN327">
+        <v>0</v>
+      </c>
+      <c r="BO327">
+        <v>0</v>
+      </c>
+      <c r="BP327">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -1270,7 +1270,7 @@
     <t>['33', '84', '90+1']</t>
   </si>
   <si>
-    <t>['67', '85']</t>
+    <t>['68', '85']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1281,6 +1281,9 @@
   <si>
     <t>['32', '65']</t>
   </si>
+  <si>
+    <t>['5', '90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1641,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP331"/>
+  <dimension ref="A1:BP333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4247,7 +4250,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -4453,7 +4456,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6098,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.12</v>
@@ -6925,7 +6928,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR26">
         <v>1.67</v>
@@ -8158,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -10630,10 +10633,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -11869,7 +11872,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -13308,7 +13311,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -14959,7 +14962,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -16195,7 +16198,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16398,7 +16401,7 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ72">
         <v>0.6899999999999999</v>
@@ -17634,7 +17637,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>2.12</v>
@@ -19491,7 +19494,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ87">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -20930,7 +20933,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21960,7 +21963,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
         <v>1.82</v>
@@ -22787,7 +22790,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ103">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -24023,7 +24026,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.36</v>
@@ -24844,7 +24847,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>0.6899999999999999</v>
@@ -25053,7 +25056,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -27316,7 +27319,7 @@
         <v>1.83</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ125">
         <v>1.38</v>
@@ -28346,7 +28349,7 @@
         <v>0.17</v>
       </c>
       <c r="AP130">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28758,7 +28761,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
         <v>0.44</v>
@@ -29379,7 +29382,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.11</v>
@@ -30615,7 +30618,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ141">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR141">
         <v>1.73</v>
@@ -31848,7 +31851,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.9399999999999999</v>
@@ -33908,7 +33911,7 @@
         <v>0.57</v>
       </c>
       <c r="AP157">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
@@ -34117,7 +34120,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ158">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.52</v>
@@ -34529,7 +34532,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ160">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR160">
         <v>1.12</v>
@@ -35556,7 +35559,7 @@
         <v>0.71</v>
       </c>
       <c r="AP165">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
         <v>0.6899999999999999</v>
@@ -36795,7 +36798,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>0.88</v>
@@ -38234,7 +38237,7 @@
         <v>0.5</v>
       </c>
       <c r="AP178">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178">
         <v>0.6899999999999999</v>
@@ -38646,7 +38649,7 @@
         <v>1.33</v>
       </c>
       <c r="AP180">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -39473,7 +39476,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ184">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR184">
         <v>1.31</v>
@@ -41324,7 +41327,7 @@
         <v>2.5</v>
       </c>
       <c r="AP193">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ193">
         <v>1.88</v>
@@ -42148,10 +42151,10 @@
         <v>1.38</v>
       </c>
       <c r="AP197">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR197">
         <v>1.54</v>
@@ -42769,7 +42772,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ200">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.55</v>
@@ -43181,7 +43184,7 @@
         <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR202">
         <v>1.44</v>
@@ -44620,7 +44623,7 @@
         <v>1.2</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -45032,7 +45035,7 @@
         <v>1.91</v>
       </c>
       <c r="AP211">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ211">
         <v>2.12</v>
@@ -46474,7 +46477,7 @@
         <v>0.9</v>
       </c>
       <c r="AP218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>1</v>
@@ -48125,7 +48128,7 @@
         <v>2</v>
       </c>
       <c r="AQ226">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR226">
         <v>1.59</v>
@@ -49152,7 +49155,7 @@
         <v>1.64</v>
       </c>
       <c r="AP231">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ231">
         <v>1.56</v>
@@ -49567,7 +49570,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ233">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR233">
         <v>0.99</v>
@@ -49773,7 +49776,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49976,7 +49979,7 @@
         <v>0.82</v>
       </c>
       <c r="AP235">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ235">
         <v>1.38</v>
@@ -53684,7 +53687,7 @@
         <v>1.75</v>
       </c>
       <c r="AP253">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ253">
         <v>1.82</v>
@@ -53893,7 +53896,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ254">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR254">
         <v>1.15</v>
@@ -54099,7 +54102,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ255">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR255">
         <v>1.71</v>
@@ -54302,7 +54305,7 @@
         <v>2.15</v>
       </c>
       <c r="AP256">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ256">
         <v>1.94</v>
@@ -55335,7 +55338,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ261">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR261">
         <v>1.8</v>
@@ -57601,7 +57604,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ272">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR272">
         <v>1.46</v>
@@ -58010,7 +58013,7 @@
         <v>0.36</v>
       </c>
       <c r="AP274">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ274">
         <v>0.47</v>
@@ -58219,7 +58222,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ275">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR275">
         <v>1.29</v>
@@ -60688,7 +60691,7 @@
         <v>2</v>
       </c>
       <c r="AP287">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ287">
         <v>1.94</v>
@@ -61718,7 +61721,7 @@
         <v>0.93</v>
       </c>
       <c r="AP292">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ292">
         <v>0.88</v>
@@ -61924,7 +61927,7 @@
         <v>1.5</v>
       </c>
       <c r="AP293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ293">
         <v>1.5</v>
@@ -62133,7 +62136,7 @@
         <v>2</v>
       </c>
       <c r="AQ294">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR294">
         <v>1.68</v>
@@ -63163,7 +63166,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ299">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
         <v>1.7</v>
@@ -65841,7 +65844,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ312">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR312">
         <v>1.27</v>
@@ -66044,7 +66047,7 @@
         <v>0.47</v>
       </c>
       <c r="AP313">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ313">
         <v>0.44</v>
@@ -67077,7 +67080,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ318">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR318">
         <v>1.17</v>
@@ -67280,7 +67283,7 @@
         <v>1.19</v>
       </c>
       <c r="AP319">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ319">
         <v>1.12</v>
@@ -69831,6 +69834,418 @@
       </c>
       <c r="BP331">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7492479</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45774.3125</v>
+      </c>
+      <c r="F332">
+        <v>34</v>
+      </c>
+      <c r="G332" t="s">
+        <v>88</v>
+      </c>
+      <c r="H332" t="s">
+        <v>70</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>175</v>
+      </c>
+      <c r="P332" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q332">
+        <v>2.6</v>
+      </c>
+      <c r="R332">
+        <v>2</v>
+      </c>
+      <c r="S332">
+        <v>5</v>
+      </c>
+      <c r="T332">
+        <v>1.5</v>
+      </c>
+      <c r="U332">
+        <v>2.5</v>
+      </c>
+      <c r="V332">
+        <v>3.5</v>
+      </c>
+      <c r="W332">
+        <v>1.29</v>
+      </c>
+      <c r="X332">
+        <v>11</v>
+      </c>
+      <c r="Y332">
+        <v>1.05</v>
+      </c>
+      <c r="Z332">
+        <v>1.97</v>
+      </c>
+      <c r="AA332">
+        <v>3.45</v>
+      </c>
+      <c r="AB332">
+        <v>4.2</v>
+      </c>
+      <c r="AC332">
+        <v>0</v>
+      </c>
+      <c r="AD332">
+        <v>0</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
+      <c r="AG332">
+        <v>2.25</v>
+      </c>
+      <c r="AH332">
+        <v>1.6</v>
+      </c>
+      <c r="AI332">
+        <v>2.1</v>
+      </c>
+      <c r="AJ332">
+        <v>1.67</v>
+      </c>
+      <c r="AK332">
+        <v>0</v>
+      </c>
+      <c r="AL332">
+        <v>0</v>
+      </c>
+      <c r="AM332">
+        <v>0</v>
+      </c>
+      <c r="AN332">
+        <v>1.44</v>
+      </c>
+      <c r="AO332">
+        <v>1.06</v>
+      </c>
+      <c r="AP332">
+        <v>1.53</v>
+      </c>
+      <c r="AQ332">
+        <v>1</v>
+      </c>
+      <c r="AR332">
+        <v>1.59</v>
+      </c>
+      <c r="AS332">
+        <v>1.03</v>
+      </c>
+      <c r="AT332">
+        <v>2.62</v>
+      </c>
+      <c r="AU332">
+        <v>4</v>
+      </c>
+      <c r="AV332">
+        <v>3</v>
+      </c>
+      <c r="AW332">
+        <v>11</v>
+      </c>
+      <c r="AX332">
+        <v>3</v>
+      </c>
+      <c r="AY332">
+        <v>18</v>
+      </c>
+      <c r="AZ332">
+        <v>6</v>
+      </c>
+      <c r="BA332">
+        <v>6</v>
+      </c>
+      <c r="BB332">
+        <v>3</v>
+      </c>
+      <c r="BC332">
+        <v>9</v>
+      </c>
+      <c r="BD332">
+        <v>0</v>
+      </c>
+      <c r="BE332">
+        <v>0</v>
+      </c>
+      <c r="BF332">
+        <v>0</v>
+      </c>
+      <c r="BG332">
+        <v>0</v>
+      </c>
+      <c r="BH332">
+        <v>0</v>
+      </c>
+      <c r="BI332">
+        <v>0</v>
+      </c>
+      <c r="BJ332">
+        <v>0</v>
+      </c>
+      <c r="BK332">
+        <v>0</v>
+      </c>
+      <c r="BL332">
+        <v>0</v>
+      </c>
+      <c r="BM332">
+        <v>0</v>
+      </c>
+      <c r="BN332">
+        <v>0</v>
+      </c>
+      <c r="BO332">
+        <v>0</v>
+      </c>
+      <c r="BP332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:68">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>7492487</v>
+      </c>
+      <c r="C333" t="s">
+        <v>68</v>
+      </c>
+      <c r="D333" t="s">
+        <v>69</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45774.3125</v>
+      </c>
+      <c r="F333">
+        <v>34</v>
+      </c>
+      <c r="G333" t="s">
+        <v>87</v>
+      </c>
+      <c r="H333" t="s">
+        <v>73</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>2</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333" t="s">
+        <v>92</v>
+      </c>
+      <c r="P333" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q333">
+        <v>4.75</v>
+      </c>
+      <c r="R333">
+        <v>2.3</v>
+      </c>
+      <c r="S333">
+        <v>2.3</v>
+      </c>
+      <c r="T333">
+        <v>1.33</v>
+      </c>
+      <c r="U333">
+        <v>3.25</v>
+      </c>
+      <c r="V333">
+        <v>2.63</v>
+      </c>
+      <c r="W333">
+        <v>1.44</v>
+      </c>
+      <c r="X333">
+        <v>6.5</v>
+      </c>
+      <c r="Y333">
+        <v>1.11</v>
+      </c>
+      <c r="Z333">
+        <v>4.9</v>
+      </c>
+      <c r="AA333">
+        <v>4.2</v>
+      </c>
+      <c r="AB333">
+        <v>1.69</v>
+      </c>
+      <c r="AC333">
+        <v>0</v>
+      </c>
+      <c r="AD333">
+        <v>0</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
+      <c r="AG333">
+        <v>1.65</v>
+      </c>
+      <c r="AH333">
+        <v>2.15</v>
+      </c>
+      <c r="AI333">
+        <v>1.75</v>
+      </c>
+      <c r="AJ333">
+        <v>2</v>
+      </c>
+      <c r="AK333">
+        <v>0</v>
+      </c>
+      <c r="AL333">
+        <v>0</v>
+      </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
+      <c r="AN333">
+        <v>1.06</v>
+      </c>
+      <c r="AO333">
+        <v>1.44</v>
+      </c>
+      <c r="AP333">
+        <v>1</v>
+      </c>
+      <c r="AQ333">
+        <v>1.53</v>
+      </c>
+      <c r="AR333">
+        <v>1.33</v>
+      </c>
+      <c r="AS333">
+        <v>1.64</v>
+      </c>
+      <c r="AT333">
+        <v>2.97</v>
+      </c>
+      <c r="AU333">
+        <v>3</v>
+      </c>
+      <c r="AV333">
+        <v>3</v>
+      </c>
+      <c r="AW333">
+        <v>13</v>
+      </c>
+      <c r="AX333">
+        <v>10</v>
+      </c>
+      <c r="AY333">
+        <v>18</v>
+      </c>
+      <c r="AZ333">
+        <v>16</v>
+      </c>
+      <c r="BA333">
+        <v>7</v>
+      </c>
+      <c r="BB333">
+        <v>2</v>
+      </c>
+      <c r="BC333">
+        <v>9</v>
+      </c>
+      <c r="BD333">
+        <v>0</v>
+      </c>
+      <c r="BE333">
+        <v>0</v>
+      </c>
+      <c r="BF333">
+        <v>0</v>
+      </c>
+      <c r="BG333">
+        <v>0</v>
+      </c>
+      <c r="BH333">
+        <v>0</v>
+      </c>
+      <c r="BI333">
+        <v>0</v>
+      </c>
+      <c r="BJ333">
+        <v>0</v>
+      </c>
+      <c r="BK333">
+        <v>0</v>
+      </c>
+      <c r="BL333">
+        <v>0</v>
+      </c>
+      <c r="BM333">
+        <v>0</v>
+      </c>
+      <c r="BN333">
+        <v>0</v>
+      </c>
+      <c r="BO333">
+        <v>0</v>
+      </c>
+      <c r="BP333">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="429">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,6 +889,15 @@
     <t>['11', '33']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['7', '41']</t>
+  </si>
+  <si>
+    <t>['79', '84']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1273,9 +1282,6 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['69']</t>
-  </si>
-  <si>
     <t>['33', '84', '90+1']</t>
   </si>
   <si>
@@ -1289,6 +1295,12 @@
   </si>
   <si>
     <t>['5', '90+6']</t>
+  </si>
+  <si>
+    <t>['3', '46']</t>
+  </si>
+  <si>
+    <t>['30', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP336"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,7 +1921,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2527,7 +2539,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2608,7 +2620,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ5">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2733,7 +2745,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3017,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
         <v>1.94</v>
@@ -3351,7 +3363,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3429,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
         <v>0.47</v>
@@ -3557,7 +3569,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4047,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ12">
         <v>1.82</v>
@@ -4175,7 +4187,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4381,7 +4393,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4668,7 +4680,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5283,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5411,7 +5423,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5823,7 +5835,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5901,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>1.56</v>
@@ -6029,7 +6041,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6110,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6441,7 +6453,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6728,7 +6740,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6853,7 +6865,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6931,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26">
         <v>1.53</v>
@@ -7059,7 +7071,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7137,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ27">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>1.28</v>
@@ -7265,7 +7277,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7471,7 +7483,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7961,7 +7973,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ31">
         <v>0.9399999999999999</v>
@@ -8089,7 +8101,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8170,7 +8182,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8913,7 +8925,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8991,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -9200,7 +9212,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.46</v>
@@ -9325,7 +9337,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9531,7 +9543,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9737,7 +9749,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10021,7 +10033,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -10149,7 +10161,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10355,7 +10367,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10433,10 +10445,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10973,7 +10985,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11054,7 +11066,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -11179,7 +11191,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11385,7 +11397,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11466,7 +11478,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11797,7 +11809,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12003,7 +12015,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12081,7 +12093,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -12290,7 +12302,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -12415,7 +12427,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12493,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -12621,7 +12633,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12827,7 +12839,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13033,7 +13045,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13239,7 +13251,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13935,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ60">
         <v>0.41</v>
@@ -14063,7 +14075,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14144,7 +14156,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14347,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ62">
         <v>0.9399999999999999</v>
@@ -14553,7 +14565,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ63">
         <v>0.47</v>
@@ -14759,10 +14771,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ64">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14887,7 +14899,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14965,7 +14977,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15093,7 +15105,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15174,7 +15186,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -15299,7 +15311,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15380,7 +15392,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ67">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15583,7 +15595,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15792,7 +15804,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -16410,7 +16422,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16535,7 +16547,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16616,7 +16628,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -17153,7 +17165,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17359,7 +17371,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17565,7 +17577,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17771,7 +17783,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17852,7 +17864,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ79">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -18183,7 +18195,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18261,7 +18273,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81">
         <v>0.41</v>
@@ -18467,10 +18479,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18879,10 +18891,10 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ84">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -19007,7 +19019,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19085,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19497,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19625,7 +19637,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19831,7 +19843,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20037,7 +20049,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20243,7 +20255,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20324,7 +20336,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20655,7 +20667,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20861,7 +20873,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21067,7 +21079,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21351,7 +21363,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>0.41</v>
@@ -21479,7 +21491,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21560,7 +21572,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ97">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.44</v>
@@ -21891,7 +21903,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22178,7 +22190,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ100">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22384,7 +22396,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22509,7 +22521,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22587,7 +22599,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22921,7 +22933,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22999,7 +23011,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ104">
         <v>2.12</v>
@@ -23127,7 +23139,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23333,7 +23345,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23411,7 +23423,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ106">
         <v>1.47</v>
@@ -24157,7 +24169,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24235,10 +24247,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24363,7 +24375,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24569,7 +24581,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24775,7 +24787,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24856,7 +24868,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24981,7 +24993,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25268,7 +25280,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ115">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25393,7 +25405,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25471,7 +25483,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25599,7 +25611,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25680,7 +25692,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -26423,7 +26435,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26501,7 +26513,7 @@
         <v>2.2</v>
       </c>
       <c r="AP121">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ121">
         <v>1.88</v>
@@ -26835,7 +26847,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27041,7 +27053,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27122,7 +27134,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ124">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27247,7 +27259,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27453,7 +27465,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27737,7 +27749,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -27943,10 +27955,10 @@
         <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -28071,7 +28083,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28358,7 +28370,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -29307,7 +29319,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29385,7 +29397,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29513,7 +29525,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29925,7 +29937,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30131,7 +30143,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30418,7 +30430,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30621,7 +30633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ141">
         <v>1.53</v>
@@ -30830,7 +30842,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ142">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>1.3</v>
@@ -30955,7 +30967,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31036,7 +31048,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ143">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR143">
         <v>1.47</v>
@@ -31161,7 +31173,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31242,7 +31254,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ144">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31448,7 +31460,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ145">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>1.69</v>
@@ -31573,7 +31585,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31651,7 +31663,7 @@
         <v>1.29</v>
       </c>
       <c r="AP146">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -31779,7 +31791,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32063,7 +32075,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ148">
         <v>1.82</v>
@@ -32191,7 +32203,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32478,7 +32490,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ150">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>0.84</v>
@@ -32603,7 +32615,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32809,7 +32821,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32887,7 +32899,7 @@
         <v>2</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ152">
         <v>1.94</v>
@@ -33015,7 +33027,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33427,7 +33439,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -34251,7 +34263,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34329,7 +34341,7 @@
         <v>2.33</v>
       </c>
       <c r="AP159">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
         <v>1.88</v>
@@ -34535,7 +34547,7 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ160">
         <v>1.53</v>
@@ -34663,7 +34675,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34744,7 +34756,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR161">
         <v>1.07</v>
@@ -34869,7 +34881,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35075,7 +35087,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35362,7 +35374,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ164">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR164">
         <v>1.54</v>
@@ -35487,7 +35499,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35568,7 +35580,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR165">
         <v>1.48</v>
@@ -35693,7 +35705,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35771,7 +35783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ166">
         <v>0.83</v>
@@ -35899,7 +35911,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36105,7 +36117,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36723,7 +36735,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36929,7 +36941,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37135,7 +37147,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37213,7 +37225,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ173">
         <v>2.12</v>
@@ -37341,7 +37353,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37419,10 +37431,10 @@
         <v>1.22</v>
       </c>
       <c r="AP174">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ174">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR174">
         <v>1.03</v>
@@ -37625,7 +37637,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ175">
         <v>0.47</v>
@@ -37753,7 +37765,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38246,7 +38258,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR178">
         <v>1.5</v>
@@ -38371,7 +38383,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38783,7 +38795,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39067,7 +39079,7 @@
         <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39195,7 +39207,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39276,7 +39288,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR183">
         <v>1.19</v>
@@ -39688,7 +39700,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR185">
         <v>1</v>
@@ -40097,7 +40109,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187">
         <v>0.9399999999999999</v>
@@ -40303,7 +40315,7 @@
         <v>2</v>
       </c>
       <c r="AP188">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ188">
         <v>2.12</v>
@@ -40431,7 +40443,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40512,7 +40524,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ189">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR189">
         <v>0.97</v>
@@ -40843,7 +40855,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -40924,7 +40936,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ191">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR191">
         <v>1.6</v>
@@ -41130,7 +41142,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ192">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41461,7 +41473,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41745,7 +41757,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -42079,7 +42091,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42363,7 +42375,7 @@
         <v>1.89</v>
       </c>
       <c r="AP198">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ198">
         <v>1.56</v>
@@ -42491,7 +42503,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42572,7 +42584,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ199">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42697,7 +42709,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43315,7 +43327,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43393,7 +43405,7 @@
         <v>2.3</v>
       </c>
       <c r="AP203">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ203">
         <v>1.94</v>
@@ -43602,7 +43614,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ204">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR204">
         <v>1.51</v>
@@ -43727,7 +43739,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43808,7 +43820,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ205">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR205">
         <v>1.37</v>
@@ -44139,7 +44151,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44217,7 +44229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP207">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ207">
         <v>1.82</v>
@@ -44345,7 +44357,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44838,7 +44850,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ210">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR210">
         <v>1.04</v>
@@ -44963,7 +44975,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45247,7 +45259,7 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ212">
         <v>1.56</v>
@@ -45456,7 +45468,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ213">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR213">
         <v>1.04</v>
@@ -45581,7 +45593,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45662,7 +45674,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ214">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR214">
         <v>1.72</v>
@@ -45787,7 +45799,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45865,7 +45877,7 @@
         <v>0.6</v>
       </c>
       <c r="AP215">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ215">
         <v>1.47</v>
@@ -45993,7 +46005,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46199,7 +46211,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46277,7 +46289,7 @@
         <v>1.5</v>
       </c>
       <c r="AP217">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ217">
         <v>1.38</v>
@@ -46405,7 +46417,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46817,7 +46829,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -46898,7 +46910,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ220">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR220">
         <v>1.37</v>
@@ -47023,7 +47035,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47101,7 +47113,7 @@
         <v>0.36</v>
       </c>
       <c r="AP221">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ221">
         <v>0.47</v>
@@ -47435,7 +47447,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47513,10 +47525,10 @@
         <v>1.18</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ223">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -48053,7 +48065,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48465,7 +48477,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48671,7 +48683,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49083,7 +49095,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49289,7 +49301,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49367,7 +49379,7 @@
         <v>2</v>
       </c>
       <c r="AP232">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ232">
         <v>2.12</v>
@@ -49495,7 +49507,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49701,7 +49713,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50194,7 +50206,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ236">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR236">
         <v>1.47</v>
@@ -50319,7 +50331,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50397,7 +50409,7 @@
         <v>0.64</v>
       </c>
       <c r="AP237">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ237">
         <v>0.41</v>
@@ -50606,7 +50618,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ238">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR238">
         <v>1.34</v>
@@ -50731,7 +50743,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -50809,7 +50821,7 @@
         <v>1.09</v>
       </c>
       <c r="AP239">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -51143,7 +51155,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51224,7 +51236,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ241">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR241">
         <v>1.74</v>
@@ -51427,10 +51439,10 @@
         <v>0.82</v>
       </c>
       <c r="AP242">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ242">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR242">
         <v>1.88</v>
@@ -51555,7 +51567,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51633,7 +51645,7 @@
         <v>2.25</v>
       </c>
       <c r="AP243">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ243">
         <v>1.94</v>
@@ -51967,7 +51979,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52254,7 +52266,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ246">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR246">
         <v>1.18</v>
@@ -52457,7 +52469,7 @@
         <v>1.08</v>
       </c>
       <c r="AP247">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ247">
         <v>0.83</v>
@@ -52585,7 +52597,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -53490,7 +53502,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ252">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR252">
         <v>1.39</v>
@@ -54233,7 +54245,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54517,7 +54529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP257">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ257">
         <v>1.38</v>
@@ -54645,7 +54657,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54851,7 +54863,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55550,7 +55562,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ262">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR262">
         <v>1.51</v>
@@ -55753,7 +55765,7 @@
         <v>0.31</v>
       </c>
       <c r="AP263">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ263">
         <v>0.47</v>
@@ -55959,7 +55971,7 @@
         <v>2.08</v>
       </c>
       <c r="AP264">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ264">
         <v>1.88</v>
@@ -56165,10 +56177,10 @@
         <v>0.67</v>
       </c>
       <c r="AP265">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ265">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR265">
         <v>1.18</v>
@@ -56293,7 +56305,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -56374,7 +56386,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ266">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR266">
         <v>1.18</v>
@@ -56580,7 +56592,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ267">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR267">
         <v>1.79</v>
@@ -57117,7 +57129,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57735,7 +57747,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -57816,7 +57828,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ273">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR273">
         <v>1.34</v>
@@ -58147,7 +58159,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58353,7 +58365,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58559,7 +58571,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58637,10 +58649,10 @@
         <v>1.38</v>
       </c>
       <c r="AP277">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ277">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR277">
         <v>1.23</v>
@@ -58765,7 +58777,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58843,7 +58855,7 @@
         <v>1.38</v>
       </c>
       <c r="AP278">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ278">
         <v>1.38</v>
@@ -58971,7 +58983,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59177,7 +59189,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59461,7 +59473,7 @@
         <v>1.23</v>
       </c>
       <c r="AP281">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ281">
         <v>1</v>
@@ -59589,7 +59601,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59670,7 +59682,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ282">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR282">
         <v>1.31</v>
@@ -59873,7 +59885,7 @@
         <v>0.93</v>
       </c>
       <c r="AP283">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ283">
         <v>1</v>
@@ -60001,7 +60013,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60082,7 +60094,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ284">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR284">
         <v>1.17</v>
@@ -60207,7 +60219,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -61112,7 +61124,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ289">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR289">
         <v>1.61</v>
@@ -61443,7 +61455,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61521,7 +61533,7 @@
         <v>2</v>
       </c>
       <c r="AP291">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ291">
         <v>1.88</v>
@@ -61936,7 +61948,7 @@
         <v>1</v>
       </c>
       <c r="AQ293">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR293">
         <v>1.36</v>
@@ -62885,7 +62897,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63091,7 +63103,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63169,7 +63181,7 @@
         <v>1.43</v>
       </c>
       <c r="AP299">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ299">
         <v>1.53</v>
@@ -63375,10 +63387,10 @@
         <v>0.64</v>
       </c>
       <c r="AP300">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ300">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR300">
         <v>1.21</v>
@@ -63503,7 +63515,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63581,10 +63593,10 @@
         <v>1.2</v>
       </c>
       <c r="AP301">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ301">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR301">
         <v>1.61</v>
@@ -63915,7 +63927,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64121,7 +64133,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64327,7 +64339,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -65026,7 +65038,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ308">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR308">
         <v>0.96</v>
@@ -65229,7 +65241,7 @@
         <v>1.67</v>
       </c>
       <c r="AP309">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ309">
         <v>1.82</v>
@@ -65357,7 +65369,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65769,7 +65781,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65847,7 +65859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP312">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ312">
         <v>1.53</v>
@@ -66181,7 +66193,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -66262,7 +66274,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ314">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR314">
         <v>1.85</v>
@@ -66468,7 +66480,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ315">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR315">
         <v>1.67</v>
@@ -66671,10 +66683,10 @@
         <v>1.6</v>
       </c>
       <c r="AP316">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ316">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR316">
         <v>1.82</v>
@@ -66880,7 +66892,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ317">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR317">
         <v>1.46</v>
@@ -67083,7 +67095,7 @@
         <v>1.07</v>
       </c>
       <c r="AP318">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ318">
         <v>1</v>
@@ -67292,7 +67304,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ319">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR319">
         <v>1.57</v>
@@ -67417,7 +67429,7 @@
         <v>163</v>
       </c>
       <c r="P320" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="Q320">
         <v>3.4</v>
@@ -67495,7 +67507,7 @@
         <v>1.4</v>
       </c>
       <c r="AP320">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -67701,7 +67713,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP321">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ321">
         <v>0.83</v>
@@ -67829,7 +67841,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68447,7 +68459,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -69065,7 +69077,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69477,7 +69489,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70095,7 +70107,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -70869,6 +70881,1036 @@
         <v>0</v>
       </c>
       <c r="BP336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7492478</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45774.65625</v>
+      </c>
+      <c r="F337">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
+        <v>89</v>
+      </c>
+      <c r="H337" t="s">
+        <v>78</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337" t="s">
+        <v>291</v>
+      </c>
+      <c r="P337" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q337">
+        <v>1.73</v>
+      </c>
+      <c r="R337">
+        <v>2.63</v>
+      </c>
+      <c r="S337">
+        <v>8.5</v>
+      </c>
+      <c r="T337">
+        <v>1.29</v>
+      </c>
+      <c r="U337">
+        <v>3.5</v>
+      </c>
+      <c r="V337">
+        <v>2.38</v>
+      </c>
+      <c r="W337">
+        <v>1.53</v>
+      </c>
+      <c r="X337">
+        <v>5.5</v>
+      </c>
+      <c r="Y337">
+        <v>1.14</v>
+      </c>
+      <c r="Z337">
+        <v>1.26</v>
+      </c>
+      <c r="AA337">
+        <v>6.5</v>
+      </c>
+      <c r="AB337">
+        <v>12</v>
+      </c>
+      <c r="AC337">
+        <v>0</v>
+      </c>
+      <c r="AD337">
+        <v>0</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>1.57</v>
+      </c>
+      <c r="AH337">
+        <v>2.25</v>
+      </c>
+      <c r="AI337">
+        <v>2</v>
+      </c>
+      <c r="AJ337">
+        <v>1.75</v>
+      </c>
+      <c r="AK337">
+        <v>0</v>
+      </c>
+      <c r="AL337">
+        <v>0</v>
+      </c>
+      <c r="AM337">
+        <v>0</v>
+      </c>
+      <c r="AN337">
+        <v>1.75</v>
+      </c>
+      <c r="AO337">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP337">
+        <v>1.71</v>
+      </c>
+      <c r="AQ337">
+        <v>0.71</v>
+      </c>
+      <c r="AR337">
+        <v>1.75</v>
+      </c>
+      <c r="AS337">
+        <v>1.21</v>
+      </c>
+      <c r="AT337">
+        <v>2.96</v>
+      </c>
+      <c r="AU337">
+        <v>7</v>
+      </c>
+      <c r="AV337">
+        <v>4</v>
+      </c>
+      <c r="AW337">
+        <v>16</v>
+      </c>
+      <c r="AX337">
+        <v>7</v>
+      </c>
+      <c r="AY337">
+        <v>24</v>
+      </c>
+      <c r="AZ337">
+        <v>11</v>
+      </c>
+      <c r="BA337">
+        <v>12</v>
+      </c>
+      <c r="BB337">
+        <v>3</v>
+      </c>
+      <c r="BC337">
+        <v>15</v>
+      </c>
+      <c r="BD337">
+        <v>0</v>
+      </c>
+      <c r="BE337">
+        <v>0</v>
+      </c>
+      <c r="BF337">
+        <v>0</v>
+      </c>
+      <c r="BG337">
+        <v>0</v>
+      </c>
+      <c r="BH337">
+        <v>0</v>
+      </c>
+      <c r="BI337">
+        <v>0</v>
+      </c>
+      <c r="BJ337">
+        <v>0</v>
+      </c>
+      <c r="BK337">
+        <v>0</v>
+      </c>
+      <c r="BL337">
+        <v>0</v>
+      </c>
+      <c r="BM337">
+        <v>0</v>
+      </c>
+      <c r="BN337">
+        <v>0</v>
+      </c>
+      <c r="BO337">
+        <v>0</v>
+      </c>
+      <c r="BP337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7492485</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45774.65625</v>
+      </c>
+      <c r="F338">
+        <v>34</v>
+      </c>
+      <c r="G338" t="s">
+        <v>85</v>
+      </c>
+      <c r="H338" t="s">
+        <v>84</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338" t="s">
+        <v>292</v>
+      </c>
+      <c r="P338" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q338">
+        <v>2</v>
+      </c>
+      <c r="R338">
+        <v>2.25</v>
+      </c>
+      <c r="S338">
+        <v>7.5</v>
+      </c>
+      <c r="T338">
+        <v>1.4</v>
+      </c>
+      <c r="U338">
+        <v>2.75</v>
+      </c>
+      <c r="V338">
+        <v>3</v>
+      </c>
+      <c r="W338">
+        <v>1.36</v>
+      </c>
+      <c r="X338">
+        <v>8</v>
+      </c>
+      <c r="Y338">
+        <v>1.08</v>
+      </c>
+      <c r="Z338">
+        <v>1.49</v>
+      </c>
+      <c r="AA338">
+        <v>4.4</v>
+      </c>
+      <c r="AB338">
+        <v>7.4</v>
+      </c>
+      <c r="AC338">
+        <v>0</v>
+      </c>
+      <c r="AD338">
+        <v>0</v>
+      </c>
+      <c r="AE338">
+        <v>0</v>
+      </c>
+      <c r="AF338">
+        <v>0</v>
+      </c>
+      <c r="AG338">
+        <v>2.02</v>
+      </c>
+      <c r="AH338">
+        <v>1.8</v>
+      </c>
+      <c r="AI338">
+        <v>2.2</v>
+      </c>
+      <c r="AJ338">
+        <v>1.62</v>
+      </c>
+      <c r="AK338">
+        <v>0</v>
+      </c>
+      <c r="AL338">
+        <v>0</v>
+      </c>
+      <c r="AM338">
+        <v>0</v>
+      </c>
+      <c r="AN338">
+        <v>2.38</v>
+      </c>
+      <c r="AO338">
+        <v>1.12</v>
+      </c>
+      <c r="AP338">
+        <v>2.41</v>
+      </c>
+      <c r="AQ338">
+        <v>1.06</v>
+      </c>
+      <c r="AR338">
+        <v>1.67</v>
+      </c>
+      <c r="AS338">
+        <v>1.11</v>
+      </c>
+      <c r="AT338">
+        <v>2.78</v>
+      </c>
+      <c r="AU338">
+        <v>3</v>
+      </c>
+      <c r="AV338">
+        <v>0</v>
+      </c>
+      <c r="AW338">
+        <v>6</v>
+      </c>
+      <c r="AX338">
+        <v>10</v>
+      </c>
+      <c r="AY338">
+        <v>11</v>
+      </c>
+      <c r="AZ338">
+        <v>15</v>
+      </c>
+      <c r="BA338">
+        <v>2</v>
+      </c>
+      <c r="BB338">
+        <v>5</v>
+      </c>
+      <c r="BC338">
+        <v>7</v>
+      </c>
+      <c r="BD338">
+        <v>0</v>
+      </c>
+      <c r="BE338">
+        <v>0</v>
+      </c>
+      <c r="BF338">
+        <v>0</v>
+      </c>
+      <c r="BG338">
+        <v>0</v>
+      </c>
+      <c r="BH338">
+        <v>0</v>
+      </c>
+      <c r="BI338">
+        <v>0</v>
+      </c>
+      <c r="BJ338">
+        <v>0</v>
+      </c>
+      <c r="BK338">
+        <v>0</v>
+      </c>
+      <c r="BL338">
+        <v>0</v>
+      </c>
+      <c r="BM338">
+        <v>0</v>
+      </c>
+      <c r="BN338">
+        <v>0</v>
+      </c>
+      <c r="BO338">
+        <v>0</v>
+      </c>
+      <c r="BP338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7492486</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45775.5625</v>
+      </c>
+      <c r="F339">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>80</v>
+      </c>
+      <c r="H339" t="s">
+        <v>74</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339" t="s">
+        <v>92</v>
+      </c>
+      <c r="P339" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q339">
+        <v>5</v>
+      </c>
+      <c r="R339">
+        <v>2.05</v>
+      </c>
+      <c r="S339">
+        <v>2.6</v>
+      </c>
+      <c r="T339">
+        <v>1.5</v>
+      </c>
+      <c r="U339">
+        <v>2.5</v>
+      </c>
+      <c r="V339">
+        <v>3.4</v>
+      </c>
+      <c r="W339">
+        <v>1.3</v>
+      </c>
+      <c r="X339">
+        <v>10</v>
+      </c>
+      <c r="Y339">
+        <v>1.06</v>
+      </c>
+      <c r="Z339">
+        <v>4.5</v>
+      </c>
+      <c r="AA339">
+        <v>3.41</v>
+      </c>
+      <c r="AB339">
+        <v>1.93</v>
+      </c>
+      <c r="AC339">
+        <v>2.75</v>
+      </c>
+      <c r="AD339">
+        <v>1.48</v>
+      </c>
+      <c r="AE339">
+        <v>0</v>
+      </c>
+      <c r="AF339">
+        <v>0</v>
+      </c>
+      <c r="AG339">
+        <v>2.3</v>
+      </c>
+      <c r="AH339">
+        <v>1.57</v>
+      </c>
+      <c r="AI339">
+        <v>2.05</v>
+      </c>
+      <c r="AJ339">
+        <v>1.7</v>
+      </c>
+      <c r="AK339">
+        <v>0</v>
+      </c>
+      <c r="AL339">
+        <v>0</v>
+      </c>
+      <c r="AM339">
+        <v>0</v>
+      </c>
+      <c r="AN339">
+        <v>1.44</v>
+      </c>
+      <c r="AO339">
+        <v>1.5</v>
+      </c>
+      <c r="AP339">
+        <v>1.41</v>
+      </c>
+      <c r="AQ339">
+        <v>1.47</v>
+      </c>
+      <c r="AR339">
+        <v>1.29</v>
+      </c>
+      <c r="AS339">
+        <v>1.35</v>
+      </c>
+      <c r="AT339">
+        <v>2.64</v>
+      </c>
+      <c r="AU339">
+        <v>5</v>
+      </c>
+      <c r="AV339">
+        <v>2</v>
+      </c>
+      <c r="AW339">
+        <v>9</v>
+      </c>
+      <c r="AX339">
+        <v>11</v>
+      </c>
+      <c r="AY339">
+        <v>16</v>
+      </c>
+      <c r="AZ339">
+        <v>15</v>
+      </c>
+      <c r="BA339">
+        <v>5</v>
+      </c>
+      <c r="BB339">
+        <v>6</v>
+      </c>
+      <c r="BC339">
+        <v>11</v>
+      </c>
+      <c r="BD339">
+        <v>0</v>
+      </c>
+      <c r="BE339">
+        <v>0</v>
+      </c>
+      <c r="BF339">
+        <v>0</v>
+      </c>
+      <c r="BG339">
+        <v>0</v>
+      </c>
+      <c r="BH339">
+        <v>0</v>
+      </c>
+      <c r="BI339">
+        <v>0</v>
+      </c>
+      <c r="BJ339">
+        <v>0</v>
+      </c>
+      <c r="BK339">
+        <v>0</v>
+      </c>
+      <c r="BL339">
+        <v>0</v>
+      </c>
+      <c r="BM339">
+        <v>0</v>
+      </c>
+      <c r="BN339">
+        <v>0</v>
+      </c>
+      <c r="BO339">
+        <v>0</v>
+      </c>
+      <c r="BP339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7492484</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45775.65625</v>
+      </c>
+      <c r="F340">
+        <v>34</v>
+      </c>
+      <c r="G340" t="s">
+        <v>77</v>
+      </c>
+      <c r="H340" t="s">
+        <v>71</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>2</v>
+      </c>
+      <c r="N340">
+        <v>4</v>
+      </c>
+      <c r="O340" t="s">
+        <v>293</v>
+      </c>
+      <c r="P340" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q340">
+        <v>2.05</v>
+      </c>
+      <c r="R340">
+        <v>2.38</v>
+      </c>
+      <c r="S340">
+        <v>6</v>
+      </c>
+      <c r="T340">
+        <v>1.33</v>
+      </c>
+      <c r="U340">
+        <v>3.25</v>
+      </c>
+      <c r="V340">
+        <v>2.63</v>
+      </c>
+      <c r="W340">
+        <v>1.44</v>
+      </c>
+      <c r="X340">
+        <v>6.5</v>
+      </c>
+      <c r="Y340">
+        <v>1.11</v>
+      </c>
+      <c r="Z340">
+        <v>1.53</v>
+      </c>
+      <c r="AA340">
+        <v>4.6</v>
+      </c>
+      <c r="AB340">
+        <v>6</v>
+      </c>
+      <c r="AC340">
+        <v>0</v>
+      </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
+      <c r="AE340">
+        <v>0</v>
+      </c>
+      <c r="AF340">
+        <v>0</v>
+      </c>
+      <c r="AG340">
+        <v>1.7</v>
+      </c>
+      <c r="AH340">
+        <v>2.05</v>
+      </c>
+      <c r="AI340">
+        <v>1.91</v>
+      </c>
+      <c r="AJ340">
+        <v>1.91</v>
+      </c>
+      <c r="AK340">
+        <v>0</v>
+      </c>
+      <c r="AL340">
+        <v>0</v>
+      </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
+      <c r="AN340">
+        <v>1.75</v>
+      </c>
+      <c r="AO340">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP340">
+        <v>1.71</v>
+      </c>
+      <c r="AQ340">
+        <v>0.71</v>
+      </c>
+      <c r="AR340">
+        <v>1.63</v>
+      </c>
+      <c r="AS340">
+        <v>1.23</v>
+      </c>
+      <c r="AT340">
+        <v>2.86</v>
+      </c>
+      <c r="AU340">
+        <v>8</v>
+      </c>
+      <c r="AV340">
+        <v>6</v>
+      </c>
+      <c r="AW340">
+        <v>8</v>
+      </c>
+      <c r="AX340">
+        <v>2</v>
+      </c>
+      <c r="AY340">
+        <v>18</v>
+      </c>
+      <c r="AZ340">
+        <v>10</v>
+      </c>
+      <c r="BA340">
+        <v>5</v>
+      </c>
+      <c r="BB340">
+        <v>1</v>
+      </c>
+      <c r="BC340">
+        <v>6</v>
+      </c>
+      <c r="BD340">
+        <v>0</v>
+      </c>
+      <c r="BE340">
+        <v>0</v>
+      </c>
+      <c r="BF340">
+        <v>0</v>
+      </c>
+      <c r="BG340">
+        <v>0</v>
+      </c>
+      <c r="BH340">
+        <v>0</v>
+      </c>
+      <c r="BI340">
+        <v>0</v>
+      </c>
+      <c r="BJ340">
+        <v>0</v>
+      </c>
+      <c r="BK340">
+        <v>0</v>
+      </c>
+      <c r="BL340">
+        <v>0</v>
+      </c>
+      <c r="BM340">
+        <v>0</v>
+      </c>
+      <c r="BN340">
+        <v>0</v>
+      </c>
+      <c r="BO340">
+        <v>0</v>
+      </c>
+      <c r="BP340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7492481</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45775.65625</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>75</v>
+      </c>
+      <c r="H341" t="s">
+        <v>76</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>2</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" t="s">
+        <v>92</v>
+      </c>
+      <c r="P341" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q341">
+        <v>3.25</v>
+      </c>
+      <c r="R341">
+        <v>1.95</v>
+      </c>
+      <c r="S341">
+        <v>3.75</v>
+      </c>
+      <c r="T341">
+        <v>1.53</v>
+      </c>
+      <c r="U341">
+        <v>2.38</v>
+      </c>
+      <c r="V341">
+        <v>3.5</v>
+      </c>
+      <c r="W341">
+        <v>1.29</v>
+      </c>
+      <c r="X341">
+        <v>11</v>
+      </c>
+      <c r="Y341">
+        <v>1.05</v>
+      </c>
+      <c r="Z341">
+        <v>2.88</v>
+      </c>
+      <c r="AA341">
+        <v>2.89</v>
+      </c>
+      <c r="AB341">
+        <v>2.93</v>
+      </c>
+      <c r="AC341">
+        <v>0</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>1.48</v>
+      </c>
+      <c r="AF341">
+        <v>2.6</v>
+      </c>
+      <c r="AG341">
+        <v>2.3</v>
+      </c>
+      <c r="AH341">
+        <v>1.55</v>
+      </c>
+      <c r="AI341">
+        <v>2</v>
+      </c>
+      <c r="AJ341">
+        <v>1.75</v>
+      </c>
+      <c r="AK341">
+        <v>0</v>
+      </c>
+      <c r="AL341">
+        <v>0</v>
+      </c>
+      <c r="AM341">
+        <v>0</v>
+      </c>
+      <c r="AN341">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO341">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP341">
+        <v>0.88</v>
+      </c>
+      <c r="AQ341">
+        <v>0.82</v>
+      </c>
+      <c r="AR341">
+        <v>1.19</v>
+      </c>
+      <c r="AS341">
+        <v>1</v>
+      </c>
+      <c r="AT341">
+        <v>2.19</v>
+      </c>
+      <c r="AU341">
+        <v>3</v>
+      </c>
+      <c r="AV341">
+        <v>5</v>
+      </c>
+      <c r="AW341">
+        <v>3</v>
+      </c>
+      <c r="AX341">
+        <v>2</v>
+      </c>
+      <c r="AY341">
+        <v>7</v>
+      </c>
+      <c r="AZ341">
+        <v>7</v>
+      </c>
+      <c r="BA341">
+        <v>2</v>
+      </c>
+      <c r="BB341">
+        <v>3</v>
+      </c>
+      <c r="BC341">
+        <v>5</v>
+      </c>
+      <c r="BD341">
+        <v>0</v>
+      </c>
+      <c r="BE341">
+        <v>0</v>
+      </c>
+      <c r="BF341">
+        <v>0</v>
+      </c>
+      <c r="BG341">
+        <v>0</v>
+      </c>
+      <c r="BH341">
+        <v>0</v>
+      </c>
+      <c r="BI341">
+        <v>0</v>
+      </c>
+      <c r="BJ341">
+        <v>0</v>
+      </c>
+      <c r="BK341">
+        <v>0</v>
+      </c>
+      <c r="BL341">
+        <v>0</v>
+      </c>
+      <c r="BM341">
+        <v>0</v>
+      </c>
+      <c r="BN341">
+        <v>0</v>
+      </c>
+      <c r="BO341">
+        <v>0</v>
+      </c>
+      <c r="BP341">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="429">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1662,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3444,7 +3444,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ16">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>2.12</v>
@@ -8594,7 +8594,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ34">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
         <v>0.71</v>
@@ -13123,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
         <v>1.82</v>
@@ -13538,7 +13538,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ58">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -14568,7 +14568,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ63">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -18685,7 +18685,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ83">
         <v>0.9399999999999999</v>
@@ -19718,7 +19718,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ88">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -23217,7 +23217,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
         <v>1.38</v>
@@ -23632,7 +23632,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ107">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -27543,7 +27543,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126">
         <v>0.41</v>
@@ -29194,7 +29194,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29603,7 +29603,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
         <v>1.94</v>
@@ -33108,7 +33108,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ153">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -34753,7 +34753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ161">
         <v>1.47</v>
@@ -37640,7 +37640,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ175">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -39697,7 +39697,7 @@
         <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ185">
         <v>0.71</v>
@@ -40727,7 +40727,7 @@
         <v>2</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
         <v>1.56</v>
@@ -44026,7 +44026,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ206">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR206">
         <v>1.29</v>
@@ -44847,7 +44847,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
         <v>0.82</v>
@@ -47116,7 +47116,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ221">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR221">
         <v>1.06</v>
@@ -49791,7 +49791,7 @@
         <v>1.27</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ234">
         <v>1</v>
@@ -53090,7 +53090,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ250">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR250">
         <v>1.32</v>
@@ -53911,7 +53911,7 @@
         <v>1.55</v>
       </c>
       <c r="AP254">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254">
         <v>1.53</v>
@@ -55768,7 +55768,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ263">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR263">
         <v>1.84</v>
@@ -58034,7 +58034,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ274">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR274">
         <v>1.53</v>
@@ -60503,7 +60503,7 @@
         <v>1</v>
       </c>
       <c r="AP286">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ286">
         <v>0.83</v>
@@ -64626,7 +64626,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ306">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR306">
         <v>1.32</v>
@@ -64829,7 +64829,7 @@
         <v>1.07</v>
       </c>
       <c r="AP307">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ307">
         <v>1</v>
@@ -68540,7 +68540,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ325">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR325">
         <v>0.95</v>
@@ -69773,7 +69773,7 @@
         <v>1.06</v>
       </c>
       <c r="AP331">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ331">
         <v>1</v>
@@ -71911,6 +71911,212 @@
         <v>0</v>
       </c>
       <c r="BP341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7492497</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>84</v>
+      </c>
+      <c r="H342" t="s">
+        <v>87</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>166</v>
+      </c>
+      <c r="P342" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q342">
+        <v>2.75</v>
+      </c>
+      <c r="R342">
+        <v>2</v>
+      </c>
+      <c r="S342">
+        <v>4.33</v>
+      </c>
+      <c r="T342">
+        <v>1.5</v>
+      </c>
+      <c r="U342">
+        <v>2.5</v>
+      </c>
+      <c r="V342">
+        <v>3.4</v>
+      </c>
+      <c r="W342">
+        <v>1.3</v>
+      </c>
+      <c r="X342">
+        <v>10</v>
+      </c>
+      <c r="Y342">
+        <v>1.06</v>
+      </c>
+      <c r="Z342">
+        <v>2.03</v>
+      </c>
+      <c r="AA342">
+        <v>3.17</v>
+      </c>
+      <c r="AB342">
+        <v>4.4</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
+      <c r="AG342">
+        <v>2.25</v>
+      </c>
+      <c r="AH342">
+        <v>1.6</v>
+      </c>
+      <c r="AI342">
+        <v>2</v>
+      </c>
+      <c r="AJ342">
+        <v>1.75</v>
+      </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AN342">
+        <v>1.5</v>
+      </c>
+      <c r="AO342">
+        <v>0.47</v>
+      </c>
+      <c r="AP342">
+        <v>1.47</v>
+      </c>
+      <c r="AQ342">
+        <v>0.5</v>
+      </c>
+      <c r="AR342">
+        <v>1.17</v>
+      </c>
+      <c r="AS342">
+        <v>1.06</v>
+      </c>
+      <c r="AT342">
+        <v>2.23</v>
+      </c>
+      <c r="AU342">
+        <v>5</v>
+      </c>
+      <c r="AV342">
+        <v>4</v>
+      </c>
+      <c r="AW342">
+        <v>15</v>
+      </c>
+      <c r="AX342">
+        <v>4</v>
+      </c>
+      <c r="AY342">
+        <v>25</v>
+      </c>
+      <c r="AZ342">
+        <v>9</v>
+      </c>
+      <c r="BA342">
+        <v>5</v>
+      </c>
+      <c r="BB342">
+        <v>1</v>
+      </c>
+      <c r="BC342">
+        <v>6</v>
+      </c>
+      <c r="BD342">
+        <v>0</v>
+      </c>
+      <c r="BE342">
+        <v>0</v>
+      </c>
+      <c r="BF342">
+        <v>0</v>
+      </c>
+      <c r="BG342">
+        <v>0</v>
+      </c>
+      <c r="BH342">
+        <v>0</v>
+      </c>
+      <c r="BI342">
+        <v>0</v>
+      </c>
+      <c r="BJ342">
+        <v>0</v>
+      </c>
+      <c r="BK342">
+        <v>0</v>
+      </c>
+      <c r="BL342">
+        <v>0</v>
+      </c>
+      <c r="BM342">
+        <v>0</v>
+      </c>
+      <c r="BN342">
+        <v>0</v>
+      </c>
+      <c r="BO342">
+        <v>0</v>
+      </c>
+      <c r="BP342">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1302,6 +1302,9 @@
   <si>
     <t>['30', '90+3']</t>
   </si>
+  <si>
+    <t>['27', '67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1662,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP342"/>
+  <dimension ref="A1:BP346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2205,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -2826,7 +2829,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3032,7 +3035,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ8">
         <v>1.47</v>
@@ -3647,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ10">
         <v>2.12</v>
@@ -3856,7 +3859,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4265,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>1.53</v>
@@ -4677,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -5707,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ20">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -6325,7 +6328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>2.12</v>
@@ -6737,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ25">
         <v>0.82</v>
@@ -7564,7 +7567,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7976,7 +7979,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ31">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR31">
         <v>0.95</v>
@@ -9415,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ38">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9827,10 +9830,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -10036,7 +10039,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -10239,7 +10242,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -10860,7 +10863,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ45">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -11063,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ46">
         <v>0.71</v>
@@ -11684,7 +11687,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11887,7 +11890,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>1.53</v>
@@ -12096,7 +12099,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -13332,7 +13335,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.29</v>
@@ -14153,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14362,7 +14365,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ62">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -15183,7 +15186,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -16834,7 +16837,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -17246,7 +17249,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -17449,7 +17452,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17861,7 +17864,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -18688,7 +18691,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ83">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -19100,7 +19103,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -19303,7 +19306,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>0.83</v>
@@ -19921,7 +19924,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89">
         <v>1.56</v>
@@ -20333,7 +20336,7 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91">
         <v>1.47</v>
@@ -20539,10 +20542,10 @@
         <v>0.75</v>
       </c>
       <c r="AP92">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20748,7 +20751,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ93">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20954,7 +20957,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -23629,7 +23632,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -23838,7 +23841,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ108">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>0.82</v>
@@ -24041,7 +24044,7 @@
         <v>0.75</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -24456,7 +24459,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24659,7 +24662,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ112">
         <v>0.83</v>
@@ -25071,7 +25074,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ114">
         <v>1.53</v>
@@ -25486,7 +25489,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25898,7 +25901,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>1.7</v>
@@ -26307,10 +26310,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ120">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -26925,7 +26928,7 @@
         <v>1.67</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
         <v>2.12</v>
@@ -28164,7 +28167,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR129">
         <v>0.88</v>
@@ -28573,10 +28576,10 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -29606,7 +29609,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.14</v>
@@ -29809,7 +29812,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
         <v>1.82</v>
@@ -30015,7 +30018,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ138">
         <v>1.56</v>
@@ -30427,7 +30430,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.71</v>
@@ -31872,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -32284,7 +32287,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
         <v>1</v>
@@ -32693,7 +32696,7 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ151">
         <v>2.12</v>
@@ -32902,7 +32905,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ152">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR152">
         <v>1.05</v>
@@ -33311,7 +33314,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ154">
         <v>0.41</v>
@@ -33517,10 +33520,10 @@
         <v>0.43</v>
       </c>
       <c r="AP155">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.24</v>
@@ -34962,7 +34965,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.24</v>
@@ -35165,7 +35168,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ163">
         <v>1.82</v>
@@ -36198,7 +36201,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR168">
         <v>1.6</v>
@@ -36401,10 +36404,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR169">
         <v>1.57</v>
@@ -36607,7 +36610,7 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170">
         <v>0.41</v>
@@ -37019,7 +37022,7 @@
         <v>2.43</v>
       </c>
       <c r="AP172">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ172">
         <v>1.88</v>
@@ -38464,7 +38467,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.61</v>
@@ -38876,7 +38879,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR181">
         <v>1.57</v>
@@ -39082,7 +39085,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ182">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR182">
         <v>1.12</v>
@@ -39491,7 +39494,7 @@
         <v>1.63</v>
       </c>
       <c r="AP184">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ184">
         <v>1</v>
@@ -40112,7 +40115,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ187">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR187">
         <v>1.47</v>
@@ -41760,7 +41763,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR195">
         <v>1.59</v>
@@ -42581,7 +42584,7 @@
         <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ199">
         <v>1.47</v>
@@ -43408,7 +43411,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ203">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR203">
         <v>1.78</v>
@@ -43817,7 +43820,7 @@
         <v>0.7</v>
       </c>
       <c r="AP205">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ205">
         <v>0.71</v>
@@ -44023,7 +44026,7 @@
         <v>0.3</v>
       </c>
       <c r="AP206">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ206">
         <v>0.5</v>
@@ -44435,7 +44438,7 @@
         <v>1.3</v>
       </c>
       <c r="AP208">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ208">
         <v>0.83</v>
@@ -44644,7 +44647,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -46083,7 +46086,7 @@
         <v>2.56</v>
       </c>
       <c r="AP216">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ216">
         <v>1.88</v>
@@ -46498,7 +46501,7 @@
         <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR218">
         <v>1.35</v>
@@ -46907,7 +46910,7 @@
         <v>0.64</v>
       </c>
       <c r="AP220">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ220">
         <v>0.71</v>
@@ -47322,7 +47325,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ222">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR222">
         <v>1.17</v>
@@ -47734,7 +47737,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ224">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
         <v>1.75</v>
@@ -48558,7 +48561,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR228">
         <v>1.58</v>
@@ -48761,7 +48764,7 @@
         <v>1.64</v>
       </c>
       <c r="AP229">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ229">
         <v>1.82</v>
@@ -50203,7 +50206,7 @@
         <v>0.73</v>
       </c>
       <c r="AP236">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ236">
         <v>0.71</v>
@@ -50615,7 +50618,7 @@
         <v>1.55</v>
       </c>
       <c r="AP238">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ238">
         <v>1.47</v>
@@ -50824,7 +50827,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ239">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR239">
         <v>1.57</v>
@@ -51027,7 +51030,7 @@
         <v>1.64</v>
       </c>
       <c r="AP240">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ240">
         <v>1.38</v>
@@ -51648,7 +51651,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ243">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR243">
         <v>1.63</v>
@@ -51854,7 +51857,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR244">
         <v>1.7</v>
@@ -52060,7 +52063,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ245">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR245">
         <v>1.56</v>
@@ -52675,7 +52678,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ248">
         <v>1.47</v>
@@ -53293,10 +53296,10 @@
         <v>1.08</v>
       </c>
       <c r="AP251">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ251">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR251">
         <v>1.3</v>
@@ -53499,7 +53502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP252">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ252">
         <v>1.47</v>
@@ -54117,7 +54120,7 @@
         <v>1.25</v>
       </c>
       <c r="AP255">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ255">
         <v>1</v>
@@ -54326,7 +54329,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ256">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR256">
         <v>1.57</v>
@@ -54941,7 +54944,7 @@
         <v>1.75</v>
       </c>
       <c r="AP259">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ259">
         <v>1.56</v>
@@ -57004,7 +57007,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ269">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57416,7 +57419,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ271">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR271">
         <v>1.6</v>
@@ -57619,7 +57622,7 @@
         <v>1.15</v>
       </c>
       <c r="AP272">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ272">
         <v>1</v>
@@ -57825,7 +57828,7 @@
         <v>1.21</v>
       </c>
       <c r="AP273">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ273">
         <v>1.06</v>
@@ -58237,7 +58240,7 @@
         <v>1.31</v>
       </c>
       <c r="AP275">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ275">
         <v>1.53</v>
@@ -58443,7 +58446,7 @@
         <v>0.54</v>
       </c>
       <c r="AP276">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ276">
         <v>0.41</v>
@@ -59476,7 +59479,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ281">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR281">
         <v>1.63</v>
@@ -59888,7 +59891,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ283">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR283">
         <v>1.25</v>
@@ -60300,7 +60303,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ285">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR285">
         <v>1.72</v>
@@ -60712,7 +60715,7 @@
         <v>1</v>
       </c>
       <c r="AQ287">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR287">
         <v>1.33</v>
@@ -62357,7 +62360,7 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ295">
         <v>1.47</v>
@@ -62563,7 +62566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP296">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ296">
         <v>0.41</v>
@@ -62975,10 +62978,10 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ298">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR298">
         <v>1.87</v>
@@ -63802,7 +63805,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ302">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR302">
         <v>1.29</v>
@@ -64008,7 +64011,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ303">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR303">
         <v>1.2</v>
@@ -64211,7 +64214,7 @@
         <v>2.07</v>
       </c>
       <c r="AP304">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ304">
         <v>1.88</v>
@@ -64623,7 +64626,7 @@
         <v>0.4</v>
       </c>
       <c r="AP306">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ306">
         <v>0.5</v>
@@ -64832,7 +64835,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ307">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR307">
         <v>1.17</v>
@@ -65656,7 +65659,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ311">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR311">
         <v>1.79</v>
@@ -66271,7 +66274,7 @@
         <v>0.73</v>
       </c>
       <c r="AP314">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ314">
         <v>0.82</v>
@@ -67919,10 +67922,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP322">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ322">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR322">
         <v>1.38</v>
@@ -68128,7 +68131,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ323">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR323">
         <v>1.18</v>
@@ -68334,7 +68337,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ324">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR324">
         <v>1.57</v>
@@ -69155,7 +69158,7 @@
         <v>1.27</v>
       </c>
       <c r="AP328">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ328">
         <v>1.38</v>
@@ -69361,7 +69364,7 @@
         <v>1.67</v>
       </c>
       <c r="AP329">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ329">
         <v>1.56</v>
@@ -69776,7 +69779,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ331">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR331">
         <v>1.16</v>
@@ -70597,7 +70600,7 @@
         <v>1.38</v>
       </c>
       <c r="AP335">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ335">
         <v>1.47</v>
@@ -71961,7 +71964,7 @@
         <v>166</v>
       </c>
       <c r="P342" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="Q342">
         <v>2.75</v>
@@ -72117,6 +72120,830 @@
         <v>0</v>
       </c>
       <c r="BP342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7492489</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>76</v>
+      </c>
+      <c r="H343" t="s">
+        <v>80</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343">
+        <v>2</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>3</v>
+      </c>
+      <c r="O343" t="s">
+        <v>189</v>
+      </c>
+      <c r="P343" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q343">
+        <v>2.88</v>
+      </c>
+      <c r="R343">
+        <v>2.05</v>
+      </c>
+      <c r="S343">
+        <v>4</v>
+      </c>
+      <c r="T343">
+        <v>1.5</v>
+      </c>
+      <c r="U343">
+        <v>2.5</v>
+      </c>
+      <c r="V343">
+        <v>3.4</v>
+      </c>
+      <c r="W343">
+        <v>1.3</v>
+      </c>
+      <c r="X343">
+        <v>10</v>
+      </c>
+      <c r="Y343">
+        <v>1.06</v>
+      </c>
+      <c r="Z343">
+        <v>2.29</v>
+      </c>
+      <c r="AA343">
+        <v>3.18</v>
+      </c>
+      <c r="AB343">
+        <v>3.52</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>1.5</v>
+      </c>
+      <c r="AF343">
+        <v>2.5</v>
+      </c>
+      <c r="AG343">
+        <v>2.3</v>
+      </c>
+      <c r="AH343">
+        <v>1.57</v>
+      </c>
+      <c r="AI343">
+        <v>1.95</v>
+      </c>
+      <c r="AJ343">
+        <v>1.8</v>
+      </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>1.12</v>
+      </c>
+      <c r="AO343">
+        <v>1</v>
+      </c>
+      <c r="AP343">
+        <v>1.06</v>
+      </c>
+      <c r="AQ343">
+        <v>1.11</v>
+      </c>
+      <c r="AR343">
+        <v>1.41</v>
+      </c>
+      <c r="AS343">
+        <v>1.35</v>
+      </c>
+      <c r="AT343">
+        <v>2.76</v>
+      </c>
+      <c r="AU343">
+        <v>3</v>
+      </c>
+      <c r="AV343">
+        <v>4</v>
+      </c>
+      <c r="AW343">
+        <v>6</v>
+      </c>
+      <c r="AX343">
+        <v>8</v>
+      </c>
+      <c r="AY343">
+        <v>9</v>
+      </c>
+      <c r="AZ343">
+        <v>13</v>
+      </c>
+      <c r="BA343">
+        <v>5</v>
+      </c>
+      <c r="BB343">
+        <v>4</v>
+      </c>
+      <c r="BC343">
+        <v>9</v>
+      </c>
+      <c r="BD343">
+        <v>0</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>0</v>
+      </c>
+      <c r="BG343">
+        <v>0</v>
+      </c>
+      <c r="BH343">
+        <v>0</v>
+      </c>
+      <c r="BI343">
+        <v>0</v>
+      </c>
+      <c r="BJ343">
+        <v>0</v>
+      </c>
+      <c r="BK343">
+        <v>0</v>
+      </c>
+      <c r="BL343">
+        <v>0</v>
+      </c>
+      <c r="BM343">
+        <v>0</v>
+      </c>
+      <c r="BN343">
+        <v>0</v>
+      </c>
+      <c r="BO343">
+        <v>0</v>
+      </c>
+      <c r="BP343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7492495</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>71</v>
+      </c>
+      <c r="H344" t="s">
+        <v>88</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>92</v>
+      </c>
+      <c r="P344" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q344">
+        <v>3.5</v>
+      </c>
+      <c r="R344">
+        <v>2.2</v>
+      </c>
+      <c r="S344">
+        <v>3</v>
+      </c>
+      <c r="T344">
+        <v>1.36</v>
+      </c>
+      <c r="U344">
+        <v>3</v>
+      </c>
+      <c r="V344">
+        <v>2.75</v>
+      </c>
+      <c r="W344">
+        <v>1.4</v>
+      </c>
+      <c r="X344">
+        <v>7</v>
+      </c>
+      <c r="Y344">
+        <v>1.1</v>
+      </c>
+      <c r="Z344">
+        <v>3.09</v>
+      </c>
+      <c r="AA344">
+        <v>3.41</v>
+      </c>
+      <c r="AB344">
+        <v>2.39</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>3.07</v>
+      </c>
+      <c r="AF344">
+        <v>1.4</v>
+      </c>
+      <c r="AG344">
+        <v>1.88</v>
+      </c>
+      <c r="AH344">
+        <v>1.93</v>
+      </c>
+      <c r="AI344">
+        <v>1.7</v>
+      </c>
+      <c r="AJ344">
+        <v>2.05</v>
+      </c>
+      <c r="AK344">
+        <v>0</v>
+      </c>
+      <c r="AL344">
+        <v>0</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AN344">
+        <v>1.18</v>
+      </c>
+      <c r="AO344">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP344">
+        <v>1.11</v>
+      </c>
+      <c r="AQ344">
+        <v>1.06</v>
+      </c>
+      <c r="AR344">
+        <v>1.31</v>
+      </c>
+      <c r="AS344">
+        <v>1.35</v>
+      </c>
+      <c r="AT344">
+        <v>2.66</v>
+      </c>
+      <c r="AU344">
+        <v>4</v>
+      </c>
+      <c r="AV344">
+        <v>5</v>
+      </c>
+      <c r="AW344">
+        <v>10</v>
+      </c>
+      <c r="AX344">
+        <v>10</v>
+      </c>
+      <c r="AY344">
+        <v>17</v>
+      </c>
+      <c r="AZ344">
+        <v>16</v>
+      </c>
+      <c r="BA344">
+        <v>5</v>
+      </c>
+      <c r="BB344">
+        <v>5</v>
+      </c>
+      <c r="BC344">
+        <v>10</v>
+      </c>
+      <c r="BD344">
+        <v>0</v>
+      </c>
+      <c r="BE344">
+        <v>0</v>
+      </c>
+      <c r="BF344">
+        <v>0</v>
+      </c>
+      <c r="BG344">
+        <v>0</v>
+      </c>
+      <c r="BH344">
+        <v>0</v>
+      </c>
+      <c r="BI344">
+        <v>0</v>
+      </c>
+      <c r="BJ344">
+        <v>0</v>
+      </c>
+      <c r="BK344">
+        <v>0</v>
+      </c>
+      <c r="BL344">
+        <v>0</v>
+      </c>
+      <c r="BM344">
+        <v>0</v>
+      </c>
+      <c r="BN344">
+        <v>0</v>
+      </c>
+      <c r="BO344">
+        <v>0</v>
+      </c>
+      <c r="BP344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7492493</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>78</v>
+      </c>
+      <c r="H345" t="s">
+        <v>85</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
+        <v>92</v>
+      </c>
+      <c r="P345" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q345">
+        <v>6.5</v>
+      </c>
+      <c r="R345">
+        <v>2.25</v>
+      </c>
+      <c r="S345">
+        <v>2.05</v>
+      </c>
+      <c r="T345">
+        <v>1.4</v>
+      </c>
+      <c r="U345">
+        <v>2.75</v>
+      </c>
+      <c r="V345">
+        <v>2.75</v>
+      </c>
+      <c r="W345">
+        <v>1.4</v>
+      </c>
+      <c r="X345">
+        <v>8</v>
+      </c>
+      <c r="Y345">
+        <v>1.08</v>
+      </c>
+      <c r="Z345">
+        <v>6.3</v>
+      </c>
+      <c r="AA345">
+        <v>4.1</v>
+      </c>
+      <c r="AB345">
+        <v>1.58</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>2.29</v>
+      </c>
+      <c r="AF345">
+        <v>1.66</v>
+      </c>
+      <c r="AG345">
+        <v>2.02</v>
+      </c>
+      <c r="AH345">
+        <v>1.8</v>
+      </c>
+      <c r="AI345">
+        <v>2.05</v>
+      </c>
+      <c r="AJ345">
+        <v>1.7</v>
+      </c>
+      <c r="AK345">
+        <v>0</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>0.88</v>
+      </c>
+      <c r="AO345">
+        <v>1.94</v>
+      </c>
+      <c r="AP345">
+        <v>0.83</v>
+      </c>
+      <c r="AQ345">
+        <v>2</v>
+      </c>
+      <c r="AR345">
+        <v>1.41</v>
+      </c>
+      <c r="AS345">
+        <v>1.25</v>
+      </c>
+      <c r="AT345">
+        <v>2.66</v>
+      </c>
+      <c r="AU345">
+        <v>2</v>
+      </c>
+      <c r="AV345">
+        <v>3</v>
+      </c>
+      <c r="AW345">
+        <v>8</v>
+      </c>
+      <c r="AX345">
+        <v>6</v>
+      </c>
+      <c r="AY345">
+        <v>12</v>
+      </c>
+      <c r="AZ345">
+        <v>12</v>
+      </c>
+      <c r="BA345">
+        <v>5</v>
+      </c>
+      <c r="BB345">
+        <v>2</v>
+      </c>
+      <c r="BC345">
+        <v>7</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>0</v>
+      </c>
+      <c r="BG345">
+        <v>0</v>
+      </c>
+      <c r="BH345">
+        <v>0</v>
+      </c>
+      <c r="BI345">
+        <v>0</v>
+      </c>
+      <c r="BJ345">
+        <v>0</v>
+      </c>
+      <c r="BK345">
+        <v>0</v>
+      </c>
+      <c r="BL345">
+        <v>0</v>
+      </c>
+      <c r="BM345">
+        <v>0</v>
+      </c>
+      <c r="BN345">
+        <v>0</v>
+      </c>
+      <c r="BO345">
+        <v>0</v>
+      </c>
+      <c r="BP345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7492492</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45780.65625</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>82</v>
+      </c>
+      <c r="H346" t="s">
+        <v>75</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>254</v>
+      </c>
+      <c r="P346" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q346">
+        <v>1.73</v>
+      </c>
+      <c r="R346">
+        <v>2.5</v>
+      </c>
+      <c r="S346">
+        <v>9.5</v>
+      </c>
+      <c r="T346">
+        <v>1.33</v>
+      </c>
+      <c r="U346">
+        <v>3.25</v>
+      </c>
+      <c r="V346">
+        <v>2.63</v>
+      </c>
+      <c r="W346">
+        <v>1.44</v>
+      </c>
+      <c r="X346">
+        <v>6.5</v>
+      </c>
+      <c r="Y346">
+        <v>1.11</v>
+      </c>
+      <c r="Z346">
+        <v>1.38</v>
+      </c>
+      <c r="AA346">
+        <v>4.9</v>
+      </c>
+      <c r="AB346">
+        <v>9.1</v>
+      </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>2.79</v>
+      </c>
+      <c r="AF346">
+        <v>1.47</v>
+      </c>
+      <c r="AG346">
+        <v>1.95</v>
+      </c>
+      <c r="AH346">
+        <v>1.86</v>
+      </c>
+      <c r="AI346">
+        <v>2.25</v>
+      </c>
+      <c r="AJ346">
+        <v>1.57</v>
+      </c>
+      <c r="AK346">
+        <v>0</v>
+      </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AN346">
+        <v>2.29</v>
+      </c>
+      <c r="AO346">
+        <v>1</v>
+      </c>
+      <c r="AP346">
+        <v>2.33</v>
+      </c>
+      <c r="AQ346">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR346">
+        <v>1.83</v>
+      </c>
+      <c r="AS346">
+        <v>1.07</v>
+      </c>
+      <c r="AT346">
+        <v>2.9</v>
+      </c>
+      <c r="AU346">
+        <v>3</v>
+      </c>
+      <c r="AV346">
+        <v>2</v>
+      </c>
+      <c r="AW346">
+        <v>7</v>
+      </c>
+      <c r="AX346">
+        <v>5</v>
+      </c>
+      <c r="AY346">
+        <v>12</v>
+      </c>
+      <c r="AZ346">
+        <v>10</v>
+      </c>
+      <c r="BA346">
+        <v>4</v>
+      </c>
+      <c r="BB346">
+        <v>3</v>
+      </c>
+      <c r="BC346">
+        <v>7</v>
+      </c>
+      <c r="BD346">
+        <v>0</v>
+      </c>
+      <c r="BE346">
+        <v>0</v>
+      </c>
+      <c r="BF346">
+        <v>0</v>
+      </c>
+      <c r="BG346">
+        <v>0</v>
+      </c>
+      <c r="BH346">
+        <v>0</v>
+      </c>
+      <c r="BI346">
+        <v>0</v>
+      </c>
+      <c r="BJ346">
+        <v>0</v>
+      </c>
+      <c r="BK346">
+        <v>0</v>
+      </c>
+      <c r="BL346">
+        <v>0</v>
+      </c>
+      <c r="BM346">
+        <v>0</v>
+      </c>
+      <c r="BN346">
+        <v>0</v>
+      </c>
+      <c r="BO346">
+        <v>0</v>
+      </c>
+      <c r="BP346">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="432">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -898,6 +898,9 @@
     <t>['79', '84']</t>
   </si>
   <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1305,6 +1308,9 @@
   <si>
     <t>['27', '67']</t>
   </si>
+  <si>
+    <t>['12', '23', '47', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1665,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2211,7 +2217,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ4">
         <v>0.41</v>
@@ -2542,7 +2548,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2748,7 +2754,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>1.11</v>
@@ -3366,7 +3372,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3572,7 +3578,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3653,7 +3659,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4065,7 +4071,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ12">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4190,7 +4196,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4396,7 +4402,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4474,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -5095,7 +5101,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5426,7 +5432,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5504,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5838,7 +5844,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5919,7 +5925,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -6044,7 +6050,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6331,7 +6337,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6456,7 +6462,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6534,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ24">
         <v>0.83</v>
@@ -6868,7 +6874,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7074,7 +7080,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7280,7 +7286,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7486,7 +7492,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -8104,7 +8110,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8388,10 +8394,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ33">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8928,7 +8934,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9009,7 +9015,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9340,7 +9346,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9546,7 +9552,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9624,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ39">
         <v>1.88</v>
@@ -9752,7 +9758,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10164,7 +10170,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10370,7 +10376,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10988,7 +10994,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11194,7 +11200,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11275,7 +11281,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ47">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -11400,7 +11406,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11478,7 +11484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ48">
         <v>1.47</v>
@@ -11684,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11812,7 +11818,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12018,7 +12024,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12430,7 +12436,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12636,7 +12642,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12717,7 +12723,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12842,7 +12848,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12920,10 +12926,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -13048,7 +13054,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13129,7 +13135,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ56">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -13254,7 +13260,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13538,7 +13544,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13744,10 +13750,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -14078,7 +14084,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14902,7 +14908,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15108,7 +15114,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15314,7 +15320,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15804,7 +15810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -16010,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ70">
         <v>1.47</v>
@@ -16550,7 +16556,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -17043,7 +17049,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ75">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -17168,7 +17174,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17246,7 +17252,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17374,7 +17380,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17455,7 +17461,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17580,7 +17586,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17661,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17786,7 +17792,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18070,7 +18076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -18198,7 +18204,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -19022,7 +19028,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19640,7 +19646,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19718,7 +19724,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -19846,7 +19852,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19927,7 +19933,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20052,7 +20058,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20258,7 +20264,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20670,7 +20676,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20876,7 +20882,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21082,7 +21088,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21160,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ95">
         <v>1.88</v>
@@ -21494,7 +21500,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21781,7 +21787,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.23</v>
@@ -21906,7 +21912,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21987,7 +21993,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -22190,7 +22196,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -22396,7 +22402,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ101">
         <v>0.71</v>
@@ -22524,7 +22530,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22605,7 +22611,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22808,7 +22814,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ103">
         <v>1.53</v>
@@ -22936,7 +22942,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23017,7 +23023,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ104">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -23142,7 +23148,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23223,7 +23229,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR105">
         <v>1.14</v>
@@ -23348,7 +23354,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23838,7 +23844,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ108">
         <v>1.06</v>
@@ -24172,7 +24178,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24378,7 +24384,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24584,7 +24590,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24790,7 +24796,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24996,7 +25002,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25408,7 +25414,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25614,7 +25620,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25692,7 +25698,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ117">
         <v>1.47</v>
@@ -26104,10 +26110,10 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ119">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -26438,7 +26444,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26725,7 +26731,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ122">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26850,7 +26856,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26931,7 +26937,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27056,7 +27062,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27262,7 +27268,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27343,7 +27349,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -27468,7 +27474,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -28086,7 +28092,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28164,7 +28170,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ129">
         <v>1.11</v>
@@ -29194,7 +29200,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134">
         <v>0.5</v>
@@ -29322,7 +29328,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29528,7 +29534,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29815,7 +29821,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29940,7 +29946,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30021,7 +30027,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ138">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR138">
         <v>1.39</v>
@@ -30146,7 +30152,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30224,10 +30230,10 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ139">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30970,7 +30976,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31176,7 +31182,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31254,7 +31260,7 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.71</v>
@@ -31588,7 +31594,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31794,7 +31800,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32081,7 +32087,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ148">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -32206,7 +32212,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32284,7 +32290,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ149">
         <v>1.11</v>
@@ -32490,7 +32496,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32618,7 +32624,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32699,7 +32705,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ151">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32824,7 +32830,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -33030,7 +33036,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33442,7 +33448,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -33726,10 +33732,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR156">
         <v>1.61</v>
@@ -34266,7 +34272,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34678,7 +34684,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34884,7 +34890,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35090,7 +35096,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35171,7 +35177,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ163">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35374,7 +35380,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ164">
         <v>0.71</v>
@@ -35502,7 +35508,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35708,7 +35714,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35914,7 +35920,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35992,10 +35998,10 @@
         <v>1.86</v>
       </c>
       <c r="AP167">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR167">
         <v>1.14</v>
@@ -36120,7 +36126,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36738,7 +36744,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36816,7 +36822,7 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36944,7 +36950,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37150,7 +37156,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37231,7 +37237,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ173">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37356,7 +37362,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37768,7 +37774,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -37849,7 +37855,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR176">
         <v>1.42</v>
@@ -38386,7 +38392,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38464,7 +38470,7 @@
         <v>0.75</v>
       </c>
       <c r="AP179">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38798,7 +38804,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39210,7 +39216,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39288,7 +39294,7 @@
         <v>0.63</v>
       </c>
       <c r="AP183">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ183">
         <v>0.82</v>
@@ -39906,10 +39912,10 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ186">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR186">
         <v>1.62</v>
@@ -40321,7 +40327,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ188">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR188">
         <v>1.04</v>
@@ -40446,7 +40452,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40524,7 +40530,7 @@
         <v>0.44</v>
       </c>
       <c r="AP189">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ189">
         <v>0.71</v>
@@ -40733,7 +40739,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR190">
         <v>1.04</v>
@@ -40858,7 +40864,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -41476,7 +41482,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41554,7 +41560,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ194">
         <v>1.47</v>
@@ -41966,10 +41972,10 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ196">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR196">
         <v>1.17</v>
@@ -42094,7 +42100,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42381,7 +42387,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR198">
         <v>1.78</v>
@@ -42506,7 +42512,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42712,7 +42718,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42790,7 +42796,7 @@
         <v>1.56</v>
       </c>
       <c r="AP200">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ200">
         <v>1</v>
@@ -42996,7 +43002,7 @@
         <v>0.78</v>
       </c>
       <c r="AP201">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ201">
         <v>0.41</v>
@@ -43330,7 +43336,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43742,7 +43748,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44154,7 +44160,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44235,7 +44241,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ207">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR207">
         <v>1.12</v>
@@ -44360,7 +44366,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44978,7 +44984,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45059,7 +45065,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ211">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR211">
         <v>1.53</v>
@@ -45265,7 +45271,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ212">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45468,7 +45474,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ213">
         <v>1.47</v>
@@ -45596,7 +45602,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45802,7 +45808,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46008,7 +46014,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46214,7 +46220,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46295,7 +46301,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ217">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46420,7 +46426,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46832,7 +46838,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47038,7 +47044,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47322,7 +47328,7 @@
         <v>0.91</v>
       </c>
       <c r="AP222">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ222">
         <v>0.9399999999999999</v>
@@ -47450,7 +47456,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47734,7 +47740,7 @@
         <v>0.64</v>
       </c>
       <c r="AP224">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ224">
         <v>1.06</v>
@@ -48068,7 +48074,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48480,7 +48486,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48558,7 +48564,7 @@
         <v>2.36</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
         <v>2</v>
@@ -48686,7 +48692,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48767,7 +48773,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ229">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR229">
         <v>1.45</v>
@@ -49098,7 +49104,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49179,7 +49185,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ231">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49304,7 +49310,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49385,7 +49391,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49510,7 +49516,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49588,7 +49594,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ233">
         <v>1.53</v>
@@ -49716,7 +49722,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50334,7 +50340,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50746,7 +50752,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51033,7 +51039,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ240">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR240">
         <v>1.63</v>
@@ -51158,7 +51164,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51236,7 +51242,7 @@
         <v>1.17</v>
       </c>
       <c r="AP241">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ241">
         <v>1.06</v>
@@ -51570,7 +51576,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51982,7 +51988,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52266,7 +52272,7 @@
         <v>0.83</v>
       </c>
       <c r="AP246">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ246">
         <v>0.71</v>
@@ -52600,7 +52606,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -53711,7 +53717,7 @@
         <v>1</v>
       </c>
       <c r="AQ253">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR253">
         <v>1.35</v>
@@ -54248,7 +54254,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54535,7 +54541,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ257">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR257">
         <v>1.24</v>
@@ -54660,7 +54666,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54738,10 +54744,10 @@
         <v>2.08</v>
       </c>
       <c r="AP258">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ258">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR258">
         <v>0.97</v>
@@ -54866,7 +54872,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54947,7 +54953,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ259">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR259">
         <v>1.48</v>
@@ -55150,7 +55156,7 @@
         <v>0.58</v>
       </c>
       <c r="AP260">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ260">
         <v>0.41</v>
@@ -55356,7 +55362,7 @@
         <v>1.42</v>
       </c>
       <c r="AP261">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ261">
         <v>1.53</v>
@@ -56308,7 +56314,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -56386,7 +56392,7 @@
         <v>1.08</v>
       </c>
       <c r="AP266">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ266">
         <v>1.06</v>
@@ -56592,7 +56598,7 @@
         <v>0.83</v>
       </c>
       <c r="AP267">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ267">
         <v>0.82</v>
@@ -57004,7 +57010,7 @@
         <v>0.77</v>
       </c>
       <c r="AP269">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ269">
         <v>1.06</v>
@@ -57132,7 +57138,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57213,7 +57219,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ270">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR270">
         <v>1.71</v>
@@ -57750,7 +57756,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -58162,7 +58168,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58368,7 +58374,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58574,7 +58580,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58780,7 +58786,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58861,7 +58867,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ278">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR278">
         <v>1.64</v>
@@ -58986,7 +58992,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59064,7 +59070,7 @@
         <v>1.15</v>
       </c>
       <c r="AP279">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ279">
         <v>1.47</v>
@@ -59192,7 +59198,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59273,7 +59279,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ280">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR280">
         <v>1.71</v>
@@ -59604,7 +59610,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -60016,7 +60022,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60094,7 +60100,7 @@
         <v>0.62</v>
       </c>
       <c r="AP284">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ284">
         <v>0.71</v>
@@ -60222,7 +60228,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60918,10 +60924,10 @@
         <v>1.79</v>
       </c>
       <c r="AP288">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ288">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR288">
         <v>1.79</v>
@@ -61124,7 +61130,7 @@
         <v>0.77</v>
       </c>
       <c r="AP289">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ289">
         <v>0.82</v>
@@ -61333,7 +61339,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ290">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR290">
         <v>1.49</v>
@@ -61458,7 +61464,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -62775,7 +62781,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ297">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR297">
         <v>1.47</v>
@@ -62900,7 +62906,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63106,7 +63112,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63518,7 +63524,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63930,7 +63936,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64008,7 +64014,7 @@
         <v>0.67</v>
       </c>
       <c r="AP303">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ303">
         <v>1.06</v>
@@ -64136,7 +64142,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64342,7 +64348,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -64423,7 +64429,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ305">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR305">
         <v>1.68</v>
@@ -65038,7 +65044,7 @@
         <v>0.71</v>
       </c>
       <c r="AP308">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ308">
         <v>0.82</v>
@@ -65247,7 +65253,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ309">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR309">
         <v>1.84</v>
@@ -65372,7 +65378,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65450,10 +65456,10 @@
         <v>1.71</v>
       </c>
       <c r="AP310">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ310">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR310">
         <v>1.59</v>
@@ -65656,7 +65662,7 @@
         <v>1.93</v>
       </c>
       <c r="AP311">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ311">
         <v>2</v>
@@ -65784,7 +65790,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66196,7 +66202,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -67844,7 +67850,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68128,7 +68134,7 @@
         <v>1.88</v>
       </c>
       <c r="AP323">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ323">
         <v>2</v>
@@ -68334,7 +68340,7 @@
         <v>1.06</v>
       </c>
       <c r="AP324">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ324">
         <v>0.9399999999999999</v>
@@ -68462,7 +68468,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -68540,7 +68546,7 @@
         <v>0.44</v>
       </c>
       <c r="AP325">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ325">
         <v>0.5</v>
@@ -68746,7 +68752,7 @@
         <v>2</v>
       </c>
       <c r="AP326">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ326">
         <v>1.88</v>
@@ -68955,7 +68961,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ327">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR327">
         <v>1.7</v>
@@ -69080,7 +69086,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69161,7 +69167,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ328">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR328">
         <v>1.43</v>
@@ -69367,7 +69373,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ329">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR329">
         <v>1.33</v>
@@ -69492,7 +69498,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69573,7 +69579,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ330">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR330">
         <v>1.32</v>
@@ -70110,7 +70116,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -70934,7 +70940,7 @@
         <v>291</v>
       </c>
       <c r="P337" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71552,7 +71558,7 @@
         <v>293</v>
       </c>
       <c r="P340" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q340">
         <v>2.05</v>
@@ -71758,7 +71764,7 @@
         <v>92</v>
       </c>
       <c r="P341" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q341">
         <v>3.25</v>
@@ -72170,7 +72176,7 @@
         <v>189</v>
       </c>
       <c r="P343" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q343">
         <v>2.88</v>
@@ -72944,6 +72950,830 @@
         <v>0</v>
       </c>
       <c r="BP346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7492490</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45781.3125</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>72</v>
+      </c>
+      <c r="H347" t="s">
+        <v>77</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>92</v>
+      </c>
+      <c r="P347" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q347">
+        <v>4.75</v>
+      </c>
+      <c r="R347">
+        <v>2.2</v>
+      </c>
+      <c r="S347">
+        <v>2.4</v>
+      </c>
+      <c r="T347">
+        <v>1.4</v>
+      </c>
+      <c r="U347">
+        <v>2.75</v>
+      </c>
+      <c r="V347">
+        <v>2.75</v>
+      </c>
+      <c r="W347">
+        <v>1.4</v>
+      </c>
+      <c r="X347">
+        <v>8</v>
+      </c>
+      <c r="Y347">
+        <v>1.08</v>
+      </c>
+      <c r="Z347">
+        <v>4.3</v>
+      </c>
+      <c r="AA347">
+        <v>3.69</v>
+      </c>
+      <c r="AB347">
+        <v>1.88</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+      <c r="AD347">
+        <v>0</v>
+      </c>
+      <c r="AE347">
+        <v>2.37</v>
+      </c>
+      <c r="AF347">
+        <v>1.61</v>
+      </c>
+      <c r="AG347">
+        <v>1.98</v>
+      </c>
+      <c r="AH347">
+        <v>1.78</v>
+      </c>
+      <c r="AI347">
+        <v>1.91</v>
+      </c>
+      <c r="AJ347">
+        <v>1.91</v>
+      </c>
+      <c r="AK347">
+        <v>0</v>
+      </c>
+      <c r="AL347">
+        <v>0</v>
+      </c>
+      <c r="AM347">
+        <v>0</v>
+      </c>
+      <c r="AN347">
+        <v>0.63</v>
+      </c>
+      <c r="AO347">
+        <v>1.82</v>
+      </c>
+      <c r="AP347">
+        <v>0.59</v>
+      </c>
+      <c r="AQ347">
+        <v>1.89</v>
+      </c>
+      <c r="AR347">
+        <v>0.98</v>
+      </c>
+      <c r="AS347">
+        <v>1.55</v>
+      </c>
+      <c r="AT347">
+        <v>2.53</v>
+      </c>
+      <c r="AU347">
+        <v>3</v>
+      </c>
+      <c r="AV347">
+        <v>3</v>
+      </c>
+      <c r="AW347">
+        <v>6</v>
+      </c>
+      <c r="AX347">
+        <v>6</v>
+      </c>
+      <c r="AY347">
+        <v>9</v>
+      </c>
+      <c r="AZ347">
+        <v>9</v>
+      </c>
+      <c r="BA347">
+        <v>2</v>
+      </c>
+      <c r="BB347">
+        <v>7</v>
+      </c>
+      <c r="BC347">
+        <v>9</v>
+      </c>
+      <c r="BD347">
+        <v>0</v>
+      </c>
+      <c r="BE347">
+        <v>0</v>
+      </c>
+      <c r="BF347">
+        <v>0</v>
+      </c>
+      <c r="BG347">
+        <v>0</v>
+      </c>
+      <c r="BH347">
+        <v>0</v>
+      </c>
+      <c r="BI347">
+        <v>0</v>
+      </c>
+      <c r="BJ347">
+        <v>0</v>
+      </c>
+      <c r="BK347">
+        <v>0</v>
+      </c>
+      <c r="BL347">
+        <v>0</v>
+      </c>
+      <c r="BM347">
+        <v>0</v>
+      </c>
+      <c r="BN347">
+        <v>0</v>
+      </c>
+      <c r="BO347">
+        <v>0</v>
+      </c>
+      <c r="BP347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7492494</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>81</v>
+      </c>
+      <c r="H348" t="s">
+        <v>89</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>2</v>
+      </c>
+      <c r="K348">
+        <v>2</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>4</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348" t="s">
+        <v>92</v>
+      </c>
+      <c r="P348" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q348">
+        <v>9.5</v>
+      </c>
+      <c r="R348">
+        <v>2.88</v>
+      </c>
+      <c r="S348">
+        <v>1.62</v>
+      </c>
+      <c r="T348">
+        <v>1.25</v>
+      </c>
+      <c r="U348">
+        <v>3.75</v>
+      </c>
+      <c r="V348">
+        <v>2.1</v>
+      </c>
+      <c r="W348">
+        <v>1.67</v>
+      </c>
+      <c r="X348">
+        <v>5</v>
+      </c>
+      <c r="Y348">
+        <v>1.17</v>
+      </c>
+      <c r="Z348">
+        <v>11</v>
+      </c>
+      <c r="AA348">
+        <v>6.2</v>
+      </c>
+      <c r="AB348">
+        <v>1.28</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+      <c r="AD348">
+        <v>0</v>
+      </c>
+      <c r="AE348">
+        <v>0</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>1.58</v>
+      </c>
+      <c r="AH348">
+        <v>2.37</v>
+      </c>
+      <c r="AI348">
+        <v>2</v>
+      </c>
+      <c r="AJ348">
+        <v>1.75</v>
+      </c>
+      <c r="AK348">
+        <v>0</v>
+      </c>
+      <c r="AL348">
+        <v>0</v>
+      </c>
+      <c r="AM348">
+        <v>0</v>
+      </c>
+      <c r="AN348">
+        <v>0.47</v>
+      </c>
+      <c r="AO348">
+        <v>2.12</v>
+      </c>
+      <c r="AP348">
+        <v>0.44</v>
+      </c>
+      <c r="AQ348">
+        <v>2.17</v>
+      </c>
+      <c r="AR348">
+        <v>1.15</v>
+      </c>
+      <c r="AS348">
+        <v>1.56</v>
+      </c>
+      <c r="AT348">
+        <v>2.71</v>
+      </c>
+      <c r="AU348">
+        <v>8</v>
+      </c>
+      <c r="AV348">
+        <v>6</v>
+      </c>
+      <c r="AW348">
+        <v>7</v>
+      </c>
+      <c r="AX348">
+        <v>10</v>
+      </c>
+      <c r="AY348">
+        <v>15</v>
+      </c>
+      <c r="AZ348">
+        <v>17</v>
+      </c>
+      <c r="BA348">
+        <v>3</v>
+      </c>
+      <c r="BB348">
+        <v>7</v>
+      </c>
+      <c r="BC348">
+        <v>10</v>
+      </c>
+      <c r="BD348">
+        <v>0</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>0</v>
+      </c>
+      <c r="BG348">
+        <v>0</v>
+      </c>
+      <c r="BH348">
+        <v>0</v>
+      </c>
+      <c r="BI348">
+        <v>0</v>
+      </c>
+      <c r="BJ348">
+        <v>0</v>
+      </c>
+      <c r="BK348">
+        <v>0</v>
+      </c>
+      <c r="BL348">
+        <v>0</v>
+      </c>
+      <c r="BM348">
+        <v>0</v>
+      </c>
+      <c r="BN348">
+        <v>0</v>
+      </c>
+      <c r="BO348">
+        <v>0</v>
+      </c>
+      <c r="BP348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7492496</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>86</v>
+      </c>
+      <c r="H349" t="s">
+        <v>83</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="O349" t="s">
+        <v>294</v>
+      </c>
+      <c r="P349" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q349">
+        <v>2.2</v>
+      </c>
+      <c r="R349">
+        <v>2.2</v>
+      </c>
+      <c r="S349">
+        <v>5.5</v>
+      </c>
+      <c r="T349">
+        <v>1.4</v>
+      </c>
+      <c r="U349">
+        <v>2.75</v>
+      </c>
+      <c r="V349">
+        <v>2.75</v>
+      </c>
+      <c r="W349">
+        <v>1.4</v>
+      </c>
+      <c r="X349">
+        <v>8</v>
+      </c>
+      <c r="Y349">
+        <v>1.08</v>
+      </c>
+      <c r="Z349">
+        <v>1.74</v>
+      </c>
+      <c r="AA349">
+        <v>3.8</v>
+      </c>
+      <c r="AB349">
+        <v>5.1</v>
+      </c>
+      <c r="AC349">
+        <v>0</v>
+      </c>
+      <c r="AD349">
+        <v>0</v>
+      </c>
+      <c r="AE349">
+        <v>2.55</v>
+      </c>
+      <c r="AF349">
+        <v>1.55</v>
+      </c>
+      <c r="AG349">
+        <v>2.01</v>
+      </c>
+      <c r="AH349">
+        <v>1.81</v>
+      </c>
+      <c r="AI349">
+        <v>1.95</v>
+      </c>
+      <c r="AJ349">
+        <v>1.8</v>
+      </c>
+      <c r="AK349">
+        <v>0</v>
+      </c>
+      <c r="AL349">
+        <v>0</v>
+      </c>
+      <c r="AM349">
+        <v>0</v>
+      </c>
+      <c r="AN349">
+        <v>2.06</v>
+      </c>
+      <c r="AO349">
+        <v>1.38</v>
+      </c>
+      <c r="AP349">
+        <v>2.11</v>
+      </c>
+      <c r="AQ349">
+        <v>1.29</v>
+      </c>
+      <c r="AR349">
+        <v>1.54</v>
+      </c>
+      <c r="AS349">
+        <v>1.23</v>
+      </c>
+      <c r="AT349">
+        <v>2.77</v>
+      </c>
+      <c r="AU349">
+        <v>5</v>
+      </c>
+      <c r="AV349">
+        <v>6</v>
+      </c>
+      <c r="AW349">
+        <v>8</v>
+      </c>
+      <c r="AX349">
+        <v>7</v>
+      </c>
+      <c r="AY349">
+        <v>17</v>
+      </c>
+      <c r="AZ349">
+        <v>16</v>
+      </c>
+      <c r="BA349">
+        <v>7</v>
+      </c>
+      <c r="BB349">
+        <v>4</v>
+      </c>
+      <c r="BC349">
+        <v>11</v>
+      </c>
+      <c r="BD349">
+        <v>0</v>
+      </c>
+      <c r="BE349">
+        <v>0</v>
+      </c>
+      <c r="BF349">
+        <v>0</v>
+      </c>
+      <c r="BG349">
+        <v>0</v>
+      </c>
+      <c r="BH349">
+        <v>0</v>
+      </c>
+      <c r="BI349">
+        <v>0</v>
+      </c>
+      <c r="BJ349">
+        <v>0</v>
+      </c>
+      <c r="BK349">
+        <v>0</v>
+      </c>
+      <c r="BL349">
+        <v>0</v>
+      </c>
+      <c r="BM349">
+        <v>0</v>
+      </c>
+      <c r="BN349">
+        <v>0</v>
+      </c>
+      <c r="BO349">
+        <v>0</v>
+      </c>
+      <c r="BP349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7492488</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45781.65625</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>74</v>
+      </c>
+      <c r="H350" t="s">
+        <v>79</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>2</v>
+      </c>
+      <c r="O350" t="s">
+        <v>176</v>
+      </c>
+      <c r="P350" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q350">
+        <v>3.2</v>
+      </c>
+      <c r="R350">
+        <v>2</v>
+      </c>
+      <c r="S350">
+        <v>3.75</v>
+      </c>
+      <c r="T350">
+        <v>1.5</v>
+      </c>
+      <c r="U350">
+        <v>2.5</v>
+      </c>
+      <c r="V350">
+        <v>3.4</v>
+      </c>
+      <c r="W350">
+        <v>1.3</v>
+      </c>
+      <c r="X350">
+        <v>10</v>
+      </c>
+      <c r="Y350">
+        <v>1.06</v>
+      </c>
+      <c r="Z350">
+        <v>2.52</v>
+      </c>
+      <c r="AA350">
+        <v>3.14</v>
+      </c>
+      <c r="AB350">
+        <v>3.13</v>
+      </c>
+      <c r="AC350">
+        <v>0</v>
+      </c>
+      <c r="AD350">
+        <v>0</v>
+      </c>
+      <c r="AE350">
+        <v>0</v>
+      </c>
+      <c r="AF350">
+        <v>0</v>
+      </c>
+      <c r="AG350">
+        <v>2.3</v>
+      </c>
+      <c r="AH350">
+        <v>1.55</v>
+      </c>
+      <c r="AI350">
+        <v>1.95</v>
+      </c>
+      <c r="AJ350">
+        <v>1.8</v>
+      </c>
+      <c r="AK350">
+        <v>0</v>
+      </c>
+      <c r="AL350">
+        <v>0</v>
+      </c>
+      <c r="AM350">
+        <v>0</v>
+      </c>
+      <c r="AN350">
+        <v>2.12</v>
+      </c>
+      <c r="AO350">
+        <v>1.56</v>
+      </c>
+      <c r="AP350">
+        <v>2.06</v>
+      </c>
+      <c r="AQ350">
+        <v>1.53</v>
+      </c>
+      <c r="AR350">
+        <v>1.77</v>
+      </c>
+      <c r="AS350">
+        <v>1.39</v>
+      </c>
+      <c r="AT350">
+        <v>3.16</v>
+      </c>
+      <c r="AU350">
+        <v>3</v>
+      </c>
+      <c r="AV350">
+        <v>4</v>
+      </c>
+      <c r="AW350">
+        <v>7</v>
+      </c>
+      <c r="AX350">
+        <v>3</v>
+      </c>
+      <c r="AY350">
+        <v>15</v>
+      </c>
+      <c r="AZ350">
+        <v>8</v>
+      </c>
+      <c r="BA350">
+        <v>10</v>
+      </c>
+      <c r="BB350">
+        <v>3</v>
+      </c>
+      <c r="BC350">
+        <v>13</v>
+      </c>
+      <c r="BD350">
+        <v>0</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>0</v>
+      </c>
+      <c r="BG350">
+        <v>0</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>0</v>
+      </c>
+      <c r="BJ350">
+        <v>0</v>
+      </c>
+      <c r="BK350">
+        <v>0</v>
+      </c>
+      <c r="BL350">
+        <v>0</v>
+      </c>
+      <c r="BM350">
+        <v>0</v>
+      </c>
+      <c r="BN350">
+        <v>0</v>
+      </c>
+      <c r="BO350">
+        <v>0</v>
+      </c>
+      <c r="BP350">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="433">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,10 +889,10 @@
     <t>['11', '33']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['7', '41']</t>
   </si>
   <si>
-    <t>['7', '41']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['79', '84']</t>
@@ -1300,16 +1300,19 @@
     <t>['5', '90+6']</t>
   </si>
   <si>
-    <t>['3', '46']</t>
+    <t>['30', '90+3']</t>
   </si>
   <si>
-    <t>['30', '90+3']</t>
+    <t>['3', '46']</t>
   </si>
   <si>
     <t>['27', '67']</t>
   </si>
   <si>
     <t>['12', '23', '47', '88']</t>
+  </si>
+  <si>
+    <t>['76', '77']</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2008,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2">
         <v>1.88</v>
@@ -4277,7 +4280,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -6955,7 +6958,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ26">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR26">
         <v>1.67</v>
@@ -7570,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -8806,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
         <v>1.47</v>
@@ -11899,7 +11902,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -12720,7 +12723,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54">
         <v>1.53</v>
@@ -16225,7 +16228,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16634,7 +16637,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.47</v>
@@ -21784,7 +21787,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>1.29</v>
@@ -22817,7 +22820,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -24462,7 +24465,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111">
         <v>1.06</v>
@@ -25083,7 +25086,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ114">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -27140,7 +27143,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ124">
         <v>0.82</v>
@@ -30645,7 +30648,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ141">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR141">
         <v>1.73</v>
@@ -30848,7 +30851,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -34559,7 +34562,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR160">
         <v>1.12</v>
@@ -34968,7 +34971,7 @@
         <v>2.13</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -41148,7 +41151,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ192">
         <v>0.71</v>
@@ -42181,7 +42184,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR197">
         <v>1.54</v>
@@ -43211,7 +43214,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ202">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR202">
         <v>1.44</v>
@@ -46710,7 +46713,7 @@
         <v>0.7</v>
       </c>
       <c r="AP219">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ219">
         <v>0.41</v>
@@ -49597,7 +49600,7 @@
         <v>0.59</v>
       </c>
       <c r="AQ233">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR233">
         <v>0.99</v>
@@ -53096,7 +53099,7 @@
         <v>0.33</v>
       </c>
       <c r="AP250">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ250">
         <v>0.5</v>
@@ -53923,7 +53926,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ254">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR254">
         <v>1.15</v>
@@ -55365,7 +55368,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ261">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR261">
         <v>1.8</v>
@@ -56804,7 +56807,7 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ268">
         <v>0.83</v>
@@ -58249,7 +58252,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ275">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR275">
         <v>1.29</v>
@@ -59688,7 +59691,7 @@
         <v>0.79</v>
       </c>
       <c r="AP282">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ282">
         <v>0.71</v>
@@ -63193,7 +63196,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ299">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR299">
         <v>1.7</v>
@@ -63808,7 +63811,7 @@
         <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ302">
         <v>1.11</v>
@@ -65871,7 +65874,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ312">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR312">
         <v>1.27</v>
@@ -67438,7 +67441,7 @@
         <v>163</v>
       </c>
       <c r="P320" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q320">
         <v>3.4</v>
@@ -69250,7 +69253,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>7492475</v>
+        <v>7492477</v>
       </c>
       <c r="C329" t="s">
         <v>68</v>
@@ -69265,10 +69268,10 @@
         <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -69280,175 +69283,175 @@
         <v>1</v>
       </c>
       <c r="L329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M329">
         <v>0</v>
       </c>
       <c r="N329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O329" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="P329" t="s">
         <v>92</v>
       </c>
       <c r="Q329">
+        <v>3.2</v>
+      </c>
+      <c r="R329">
+        <v>1.95</v>
+      </c>
+      <c r="S329">
+        <v>4</v>
+      </c>
+      <c r="T329">
+        <v>1.53</v>
+      </c>
+      <c r="U329">
+        <v>2.38</v>
+      </c>
+      <c r="V329">
+        <v>3.75</v>
+      </c>
+      <c r="W329">
+        <v>1.25</v>
+      </c>
+      <c r="X329">
+        <v>11</v>
+      </c>
+      <c r="Y329">
+        <v>1.05</v>
+      </c>
+      <c r="Z329">
+        <v>2.43</v>
+      </c>
+      <c r="AA329">
+        <v>3.11</v>
+      </c>
+      <c r="AB329">
+        <v>3.32</v>
+      </c>
+      <c r="AC329">
+        <v>1.11</v>
+      </c>
+      <c r="AD329">
+        <v>6.25</v>
+      </c>
+      <c r="AE329">
+        <v>1.48</v>
+      </c>
+      <c r="AF329">
+        <v>2.6</v>
+      </c>
+      <c r="AG329">
+        <v>2.3</v>
+      </c>
+      <c r="AH329">
+        <v>1.55</v>
+      </c>
+      <c r="AI329">
+        <v>2</v>
+      </c>
+      <c r="AJ329">
+        <v>1.75</v>
+      </c>
+      <c r="AK329">
+        <v>1.3</v>
+      </c>
+      <c r="AL329">
+        <v>1.35</v>
+      </c>
+      <c r="AM329">
+        <v>1.55</v>
+      </c>
+      <c r="AN329">
+        <v>1.4</v>
+      </c>
+      <c r="AO329">
+        <v>1.06</v>
+      </c>
+      <c r="AP329">
+        <v>1.47</v>
+      </c>
+      <c r="AQ329">
+        <v>1.11</v>
+      </c>
+      <c r="AR329">
+        <v>1.16</v>
+      </c>
+      <c r="AS329">
+        <v>1.34</v>
+      </c>
+      <c r="AT329">
+        <v>2.5</v>
+      </c>
+      <c r="AU329">
         <v>5</v>
       </c>
-      <c r="R329">
-        <v>2.2</v>
-      </c>
-      <c r="S329">
+      <c r="AV329">
+        <v>7</v>
+      </c>
+      <c r="AW329">
+        <v>6</v>
+      </c>
+      <c r="AX329">
+        <v>4</v>
+      </c>
+      <c r="AY329">
+        <v>14</v>
+      </c>
+      <c r="AZ329">
+        <v>12</v>
+      </c>
+      <c r="BA329">
+        <v>8</v>
+      </c>
+      <c r="BB329">
+        <v>7</v>
+      </c>
+      <c r="BC329">
+        <v>15</v>
+      </c>
+      <c r="BD329">
+        <v>1.73</v>
+      </c>
+      <c r="BE329">
+        <v>8</v>
+      </c>
+      <c r="BF329">
         <v>2.38</v>
       </c>
-      <c r="T329">
-        <v>1.4</v>
-      </c>
-      <c r="U329">
-        <v>2.75</v>
-      </c>
-      <c r="V329">
-        <v>3</v>
-      </c>
-      <c r="W329">
-        <v>1.36</v>
-      </c>
-      <c r="X329">
-        <v>8</v>
-      </c>
-      <c r="Y329">
-        <v>1.08</v>
-      </c>
-      <c r="Z329">
-        <v>4.8</v>
-      </c>
-      <c r="AA329">
-        <v>3.77</v>
-      </c>
-      <c r="AB329">
-        <v>1.78</v>
-      </c>
-      <c r="AC329">
-        <v>1.06</v>
-      </c>
-      <c r="AD329">
-        <v>8.5</v>
-      </c>
-      <c r="AE329">
-        <v>1.33</v>
-      </c>
-      <c r="AF329">
-        <v>3.3</v>
-      </c>
-      <c r="AG329">
-        <v>2</v>
-      </c>
-      <c r="AH329">
-        <v>1.82</v>
-      </c>
-      <c r="AI329">
-        <v>1.91</v>
-      </c>
-      <c r="AJ329">
-        <v>1.91</v>
-      </c>
-      <c r="AK329">
-        <v>2.05</v>
-      </c>
-      <c r="AL329">
-        <v>1.22</v>
-      </c>
-      <c r="AM329">
-        <v>1.18</v>
-      </c>
-      <c r="AN329">
-        <v>1.06</v>
-      </c>
-      <c r="AO329">
-        <v>1.67</v>
-      </c>
-      <c r="AP329">
-        <v>1.11</v>
-      </c>
-      <c r="AQ329">
+      <c r="BG329">
+        <v>1.27</v>
+      </c>
+      <c r="BH329">
+        <v>3.14</v>
+      </c>
+      <c r="BI329">
         <v>1.53</v>
       </c>
-      <c r="AR329">
-        <v>1.33</v>
-      </c>
-      <c r="AS329">
-        <v>1.36</v>
-      </c>
-      <c r="AT329">
-        <v>2.69</v>
-      </c>
-      <c r="AU329">
-        <v>4</v>
-      </c>
-      <c r="AV329">
-        <v>3</v>
-      </c>
-      <c r="AW329">
-        <v>3</v>
-      </c>
-      <c r="AX329">
-        <v>14</v>
-      </c>
-      <c r="AY329">
-        <v>8</v>
-      </c>
-      <c r="AZ329">
-        <v>21</v>
-      </c>
-      <c r="BA329">
-        <v>4</v>
-      </c>
-      <c r="BB329">
-        <v>9</v>
-      </c>
-      <c r="BC329">
-        <v>13</v>
-      </c>
-      <c r="BD329">
-        <v>2.6</v>
-      </c>
-      <c r="BE329">
-        <v>8.5</v>
-      </c>
-      <c r="BF329">
-        <v>1.62</v>
-      </c>
-      <c r="BG329">
-        <v>1.26</v>
-      </c>
-      <c r="BH329">
-        <v>3.22</v>
-      </c>
-      <c r="BI329">
-        <v>1.51</v>
-      </c>
       <c r="BJ329">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="BK329">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BL329">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM329">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="BN329">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BO329">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="BP329">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="330" spans="1:68">
@@ -69576,7 +69579,7 @@
         <v>1.75</v>
       </c>
       <c r="AP330">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ330">
         <v>1.89</v>
@@ -69662,7 +69665,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>7492477</v>
+        <v>7492475</v>
       </c>
       <c r="C331" t="s">
         <v>68</v>
@@ -69677,10 +69680,10 @@
         <v>33</v>
       </c>
       <c r="G331" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H331" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -69692,175 +69695,175 @@
         <v>1</v>
       </c>
       <c r="L331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M331">
         <v>0</v>
       </c>
       <c r="N331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O331" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="P331" t="s">
         <v>92</v>
       </c>
       <c r="Q331">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S331">
+        <v>2.38</v>
+      </c>
+      <c r="T331">
+        <v>1.4</v>
+      </c>
+      <c r="U331">
+        <v>2.75</v>
+      </c>
+      <c r="V331">
+        <v>3</v>
+      </c>
+      <c r="W331">
+        <v>1.36</v>
+      </c>
+      <c r="X331">
+        <v>8</v>
+      </c>
+      <c r="Y331">
+        <v>1.08</v>
+      </c>
+      <c r="Z331">
+        <v>4.8</v>
+      </c>
+      <c r="AA331">
+        <v>3.77</v>
+      </c>
+      <c r="AB331">
+        <v>1.78</v>
+      </c>
+      <c r="AC331">
+        <v>1.06</v>
+      </c>
+      <c r="AD331">
+        <v>8.5</v>
+      </c>
+      <c r="AE331">
+        <v>1.33</v>
+      </c>
+      <c r="AF331">
+        <v>3.3</v>
+      </c>
+      <c r="AG331">
+        <v>2</v>
+      </c>
+      <c r="AH331">
+        <v>1.82</v>
+      </c>
+      <c r="AI331">
+        <v>1.91</v>
+      </c>
+      <c r="AJ331">
+        <v>1.91</v>
+      </c>
+      <c r="AK331">
+        <v>2.05</v>
+      </c>
+      <c r="AL331">
+        <v>1.22</v>
+      </c>
+      <c r="AM331">
+        <v>1.18</v>
+      </c>
+      <c r="AN331">
+        <v>1.06</v>
+      </c>
+      <c r="AO331">
+        <v>1.67</v>
+      </c>
+      <c r="AP331">
+        <v>1.11</v>
+      </c>
+      <c r="AQ331">
+        <v>1.53</v>
+      </c>
+      <c r="AR331">
+        <v>1.33</v>
+      </c>
+      <c r="AS331">
+        <v>1.36</v>
+      </c>
+      <c r="AT331">
+        <v>2.69</v>
+      </c>
+      <c r="AU331">
         <v>4</v>
       </c>
-      <c r="T331">
-        <v>1.53</v>
-      </c>
-      <c r="U331">
-        <v>2.38</v>
-      </c>
-      <c r="V331">
-        <v>3.75</v>
-      </c>
-      <c r="W331">
+      <c r="AV331">
+        <v>3</v>
+      </c>
+      <c r="AW331">
+        <v>3</v>
+      </c>
+      <c r="AX331">
+        <v>14</v>
+      </c>
+      <c r="AY331">
+        <v>8</v>
+      </c>
+      <c r="AZ331">
+        <v>21</v>
+      </c>
+      <c r="BA331">
+        <v>4</v>
+      </c>
+      <c r="BB331">
+        <v>9</v>
+      </c>
+      <c r="BC331">
+        <v>13</v>
+      </c>
+      <c r="BD331">
+        <v>2.6</v>
+      </c>
+      <c r="BE331">
+        <v>8.5</v>
+      </c>
+      <c r="BF331">
+        <v>1.62</v>
+      </c>
+      <c r="BG331">
+        <v>1.26</v>
+      </c>
+      <c r="BH331">
+        <v>3.22</v>
+      </c>
+      <c r="BI331">
+        <v>1.51</v>
+      </c>
+      <c r="BJ331">
+        <v>2.32</v>
+      </c>
+      <c r="BK331">
+        <v>1.91</v>
+      </c>
+      <c r="BL331">
+        <v>1.8</v>
+      </c>
+      <c r="BM331">
+        <v>2.42</v>
+      </c>
+      <c r="BN331">
+        <v>1.47</v>
+      </c>
+      <c r="BO331">
+        <v>3.28</v>
+      </c>
+      <c r="BP331">
         <v>1.25</v>
-      </c>
-      <c r="X331">
-        <v>11</v>
-      </c>
-      <c r="Y331">
-        <v>1.05</v>
-      </c>
-      <c r="Z331">
-        <v>2.43</v>
-      </c>
-      <c r="AA331">
-        <v>3.11</v>
-      </c>
-      <c r="AB331">
-        <v>3.32</v>
-      </c>
-      <c r="AC331">
-        <v>1.11</v>
-      </c>
-      <c r="AD331">
-        <v>6.25</v>
-      </c>
-      <c r="AE331">
-        <v>1.48</v>
-      </c>
-      <c r="AF331">
-        <v>2.6</v>
-      </c>
-      <c r="AG331">
-        <v>2.3</v>
-      </c>
-      <c r="AH331">
-        <v>1.55</v>
-      </c>
-      <c r="AI331">
-        <v>2</v>
-      </c>
-      <c r="AJ331">
-        <v>1.75</v>
-      </c>
-      <c r="AK331">
-        <v>1.3</v>
-      </c>
-      <c r="AL331">
-        <v>1.35</v>
-      </c>
-      <c r="AM331">
-        <v>1.55</v>
-      </c>
-      <c r="AN331">
-        <v>1.4</v>
-      </c>
-      <c r="AO331">
-        <v>1.06</v>
-      </c>
-      <c r="AP331">
-        <v>1.47</v>
-      </c>
-      <c r="AQ331">
-        <v>1.11</v>
-      </c>
-      <c r="AR331">
-        <v>1.16</v>
-      </c>
-      <c r="AS331">
-        <v>1.34</v>
-      </c>
-      <c r="AT331">
-        <v>2.5</v>
-      </c>
-      <c r="AU331">
-        <v>5</v>
-      </c>
-      <c r="AV331">
-        <v>7</v>
-      </c>
-      <c r="AW331">
-        <v>6</v>
-      </c>
-      <c r="AX331">
-        <v>4</v>
-      </c>
-      <c r="AY331">
-        <v>14</v>
-      </c>
-      <c r="AZ331">
-        <v>12</v>
-      </c>
-      <c r="BA331">
-        <v>8</v>
-      </c>
-      <c r="BB331">
-        <v>7</v>
-      </c>
-      <c r="BC331">
-        <v>15</v>
-      </c>
-      <c r="BD331">
-        <v>1.73</v>
-      </c>
-      <c r="BE331">
-        <v>8</v>
-      </c>
-      <c r="BF331">
-        <v>2.38</v>
-      </c>
-      <c r="BG331">
-        <v>1.27</v>
-      </c>
-      <c r="BH331">
-        <v>3.14</v>
-      </c>
-      <c r="BI331">
-        <v>1.53</v>
-      </c>
-      <c r="BJ331">
-        <v>2.28</v>
-      </c>
-      <c r="BK331">
-        <v>1.85</v>
-      </c>
-      <c r="BL331">
-        <v>1.85</v>
-      </c>
-      <c r="BM331">
-        <v>2.51</v>
-      </c>
-      <c r="BN331">
-        <v>1.44</v>
-      </c>
-      <c r="BO331">
-        <v>3.34</v>
-      </c>
-      <c r="BP331">
-        <v>1.24</v>
       </c>
     </row>
     <row r="332" spans="1:68">
@@ -70197,7 +70200,7 @@
         <v>1</v>
       </c>
       <c r="AQ333">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR333">
         <v>1.33</v>
@@ -70898,7 +70901,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>7492478</v>
+        <v>7492485</v>
       </c>
       <c r="C337" t="s">
         <v>68</v>
@@ -70913,25 +70916,25 @@
         <v>34</v>
       </c>
       <c r="G337" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H337" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337">
         <v>2</v>
@@ -70940,124 +70943,124 @@
         <v>291</v>
       </c>
       <c r="P337" t="s">
-        <v>398</v>
+        <v>92</v>
       </c>
       <c r="Q337">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R337">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="S337">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="T337">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U337">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V337">
+        <v>3</v>
+      </c>
+      <c r="W337">
+        <v>1.36</v>
+      </c>
+      <c r="X337">
+        <v>8</v>
+      </c>
+      <c r="Y337">
+        <v>1.08</v>
+      </c>
+      <c r="Z337">
+        <v>1.49</v>
+      </c>
+      <c r="AA337">
+        <v>4.4</v>
+      </c>
+      <c r="AB337">
+        <v>7.4</v>
+      </c>
+      <c r="AC337">
+        <v>0</v>
+      </c>
+      <c r="AD337">
+        <v>0</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>2.02</v>
+      </c>
+      <c r="AH337">
+        <v>1.8</v>
+      </c>
+      <c r="AI337">
+        <v>2.2</v>
+      </c>
+      <c r="AJ337">
+        <v>1.62</v>
+      </c>
+      <c r="AK337">
+        <v>0</v>
+      </c>
+      <c r="AL337">
+        <v>0</v>
+      </c>
+      <c r="AM337">
+        <v>0</v>
+      </c>
+      <c r="AN337">
         <v>2.38</v>
       </c>
-      <c r="W337">
-        <v>1.53</v>
-      </c>
-      <c r="X337">
-        <v>5.5</v>
-      </c>
-      <c r="Y337">
-        <v>1.14</v>
-      </c>
-      <c r="Z337">
-        <v>1.26</v>
-      </c>
-      <c r="AA337">
-        <v>6.5</v>
-      </c>
-      <c r="AB337">
-        <v>12</v>
-      </c>
-      <c r="AC337">
-        <v>0</v>
-      </c>
-      <c r="AD337">
-        <v>0</v>
-      </c>
-      <c r="AE337">
-        <v>0</v>
-      </c>
-      <c r="AF337">
-        <v>0</v>
-      </c>
-      <c r="AG337">
-        <v>1.57</v>
-      </c>
-      <c r="AH337">
-        <v>2.25</v>
-      </c>
-      <c r="AI337">
-        <v>2</v>
-      </c>
-      <c r="AJ337">
-        <v>1.75</v>
-      </c>
-      <c r="AK337">
-        <v>0</v>
-      </c>
-      <c r="AL337">
-        <v>0</v>
-      </c>
-      <c r="AM337">
-        <v>0</v>
-      </c>
-      <c r="AN337">
-        <v>1.75</v>
-      </c>
       <c r="AO337">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AP337">
-        <v>1.71</v>
+        <v>2.41</v>
       </c>
       <c r="AQ337">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AR337">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS337">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AT337">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="AU337">
+        <v>3</v>
+      </c>
+      <c r="AV337">
+        <v>0</v>
+      </c>
+      <c r="AW337">
+        <v>6</v>
+      </c>
+      <c r="AX337">
+        <v>10</v>
+      </c>
+      <c r="AY337">
+        <v>11</v>
+      </c>
+      <c r="AZ337">
+        <v>15</v>
+      </c>
+      <c r="BA337">
+        <v>2</v>
+      </c>
+      <c r="BB337">
+        <v>5</v>
+      </c>
+      <c r="BC337">
         <v>7</v>
-      </c>
-      <c r="AV337">
-        <v>4</v>
-      </c>
-      <c r="AW337">
-        <v>16</v>
-      </c>
-      <c r="AX337">
-        <v>7</v>
-      </c>
-      <c r="AY337">
-        <v>24</v>
-      </c>
-      <c r="AZ337">
-        <v>11</v>
-      </c>
-      <c r="BA337">
-        <v>12</v>
-      </c>
-      <c r="BB337">
-        <v>3</v>
-      </c>
-      <c r="BC337">
-        <v>15</v>
       </c>
       <c r="BD337">
         <v>0</v>
@@ -71104,7 +71107,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>7492485</v>
+        <v>7492478</v>
       </c>
       <c r="C338" t="s">
         <v>68</v>
@@ -71119,25 +71122,25 @@
         <v>34</v>
       </c>
       <c r="G338" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H338" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N338">
         <v>2</v>
@@ -71146,124 +71149,124 @@
         <v>292</v>
       </c>
       <c r="P338" t="s">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="Q338">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="R338">
+        <v>2.63</v>
+      </c>
+      <c r="S338">
+        <v>8.5</v>
+      </c>
+      <c r="T338">
+        <v>1.29</v>
+      </c>
+      <c r="U338">
+        <v>3.5</v>
+      </c>
+      <c r="V338">
+        <v>2.38</v>
+      </c>
+      <c r="W338">
+        <v>1.53</v>
+      </c>
+      <c r="X338">
+        <v>5.5</v>
+      </c>
+      <c r="Y338">
+        <v>1.14</v>
+      </c>
+      <c r="Z338">
+        <v>1.26</v>
+      </c>
+      <c r="AA338">
+        <v>6.5</v>
+      </c>
+      <c r="AB338">
+        <v>12</v>
+      </c>
+      <c r="AC338">
+        <v>0</v>
+      </c>
+      <c r="AD338">
+        <v>0</v>
+      </c>
+      <c r="AE338">
+        <v>0</v>
+      </c>
+      <c r="AF338">
+        <v>0</v>
+      </c>
+      <c r="AG338">
+        <v>1.57</v>
+      </c>
+      <c r="AH338">
         <v>2.25</v>
       </c>
-      <c r="S338">
-        <v>7.5</v>
-      </c>
-      <c r="T338">
-        <v>1.4</v>
-      </c>
-      <c r="U338">
-        <v>2.75</v>
-      </c>
-      <c r="V338">
+      <c r="AI338">
+        <v>2</v>
+      </c>
+      <c r="AJ338">
+        <v>1.75</v>
+      </c>
+      <c r="AK338">
+        <v>0</v>
+      </c>
+      <c r="AL338">
+        <v>0</v>
+      </c>
+      <c r="AM338">
+        <v>0</v>
+      </c>
+      <c r="AN338">
+        <v>1.75</v>
+      </c>
+      <c r="AO338">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP338">
+        <v>1.71</v>
+      </c>
+      <c r="AQ338">
+        <v>0.71</v>
+      </c>
+      <c r="AR338">
+        <v>1.75</v>
+      </c>
+      <c r="AS338">
+        <v>1.21</v>
+      </c>
+      <c r="AT338">
+        <v>2.96</v>
+      </c>
+      <c r="AU338">
+        <v>7</v>
+      </c>
+      <c r="AV338">
+        <v>4</v>
+      </c>
+      <c r="AW338">
+        <v>16</v>
+      </c>
+      <c r="AX338">
+        <v>7</v>
+      </c>
+      <c r="AY338">
+        <v>24</v>
+      </c>
+      <c r="AZ338">
+        <v>11</v>
+      </c>
+      <c r="BA338">
+        <v>12</v>
+      </c>
+      <c r="BB338">
         <v>3</v>
       </c>
-      <c r="W338">
-        <v>1.36</v>
-      </c>
-      <c r="X338">
-        <v>8</v>
-      </c>
-      <c r="Y338">
-        <v>1.08</v>
-      </c>
-      <c r="Z338">
-        <v>1.49</v>
-      </c>
-      <c r="AA338">
-        <v>4.4</v>
-      </c>
-      <c r="AB338">
-        <v>7.4</v>
-      </c>
-      <c r="AC338">
-        <v>0</v>
-      </c>
-      <c r="AD338">
-        <v>0</v>
-      </c>
-      <c r="AE338">
-        <v>0</v>
-      </c>
-      <c r="AF338">
-        <v>0</v>
-      </c>
-      <c r="AG338">
-        <v>2.02</v>
-      </c>
-      <c r="AH338">
-        <v>1.8</v>
-      </c>
-      <c r="AI338">
-        <v>2.2</v>
-      </c>
-      <c r="AJ338">
-        <v>1.62</v>
-      </c>
-      <c r="AK338">
-        <v>0</v>
-      </c>
-      <c r="AL338">
-        <v>0</v>
-      </c>
-      <c r="AM338">
-        <v>0</v>
-      </c>
-      <c r="AN338">
-        <v>2.38</v>
-      </c>
-      <c r="AO338">
-        <v>1.12</v>
-      </c>
-      <c r="AP338">
-        <v>2.41</v>
-      </c>
-      <c r="AQ338">
-        <v>1.06</v>
-      </c>
-      <c r="AR338">
-        <v>1.67</v>
-      </c>
-      <c r="AS338">
-        <v>1.11</v>
-      </c>
-      <c r="AT338">
-        <v>2.78</v>
-      </c>
-      <c r="AU338">
-        <v>3</v>
-      </c>
-      <c r="AV338">
-        <v>0</v>
-      </c>
-      <c r="AW338">
-        <v>6</v>
-      </c>
-      <c r="AX338">
-        <v>10</v>
-      </c>
-      <c r="AY338">
-        <v>11</v>
-      </c>
-      <c r="AZ338">
+      <c r="BC338">
         <v>15</v>
-      </c>
-      <c r="BA338">
-        <v>2</v>
-      </c>
-      <c r="BB338">
-        <v>5</v>
-      </c>
-      <c r="BC338">
-        <v>7</v>
       </c>
       <c r="BD338">
         <v>0</v>
@@ -71516,7 +71519,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>7492484</v>
+        <v>7492481</v>
       </c>
       <c r="C340" t="s">
         <v>68</v>
@@ -71531,10 +71534,10 @@
         <v>34</v>
       </c>
       <c r="G340" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H340" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -71546,55 +71549,55 @@
         <v>1</v>
       </c>
       <c r="L340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M340">
         <v>2</v>
       </c>
       <c r="N340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O340" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="P340" t="s">
         <v>428</v>
       </c>
       <c r="Q340">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="R340">
+        <v>1.95</v>
+      </c>
+      <c r="S340">
+        <v>3.75</v>
+      </c>
+      <c r="T340">
+        <v>1.53</v>
+      </c>
+      <c r="U340">
         <v>2.38</v>
       </c>
-      <c r="S340">
-        <v>6</v>
-      </c>
-      <c r="T340">
-        <v>1.33</v>
-      </c>
-      <c r="U340">
-        <v>3.25</v>
-      </c>
       <c r="V340">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="W340">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="X340">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y340">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="Z340">
-        <v>1.53</v>
+        <v>2.88</v>
       </c>
       <c r="AA340">
-        <v>4.6</v>
+        <v>2.89</v>
       </c>
       <c r="AB340">
-        <v>6</v>
+        <v>2.93</v>
       </c>
       <c r="AC340">
         <v>0</v>
@@ -71603,22 +71606,22 @@
         <v>0</v>
       </c>
       <c r="AE340">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF340">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AG340">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH340">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="AI340">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AJ340">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AK340">
         <v>0</v>
@@ -71630,52 +71633,52 @@
         <v>0</v>
       </c>
       <c r="AN340">
-        <v>1.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO340">
         <v>0.6899999999999999</v>
       </c>
       <c r="AP340">
-        <v>1.71</v>
+        <v>0.88</v>
       </c>
       <c r="AQ340">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="AR340">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AS340">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AT340">
-        <v>2.86</v>
+        <v>2.19</v>
       </c>
       <c r="AU340">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV340">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW340">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX340">
         <v>2</v>
       </c>
       <c r="AY340">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AZ340">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA340">
+        <v>2</v>
+      </c>
+      <c r="BB340">
+        <v>3</v>
+      </c>
+      <c r="BC340">
         <v>5</v>
-      </c>
-      <c r="BB340">
-        <v>1</v>
-      </c>
-      <c r="BC340">
-        <v>6</v>
       </c>
       <c r="BD340">
         <v>0</v>
@@ -71722,7 +71725,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>7492481</v>
+        <v>7492484</v>
       </c>
       <c r="C341" t="s">
         <v>68</v>
@@ -71737,10 +71740,10 @@
         <v>34</v>
       </c>
       <c r="G341" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H341" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -71752,55 +71755,55 @@
         <v>1</v>
       </c>
       <c r="L341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M341">
         <v>2</v>
       </c>
       <c r="N341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O341" t="s">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="P341" t="s">
         <v>429</v>
       </c>
       <c r="Q341">
+        <v>2.05</v>
+      </c>
+      <c r="R341">
+        <v>2.38</v>
+      </c>
+      <c r="S341">
+        <v>6</v>
+      </c>
+      <c r="T341">
+        <v>1.33</v>
+      </c>
+      <c r="U341">
         <v>3.25</v>
       </c>
-      <c r="R341">
-        <v>1.95</v>
-      </c>
-      <c r="S341">
-        <v>3.75</v>
-      </c>
-      <c r="T341">
+      <c r="V341">
+        <v>2.63</v>
+      </c>
+      <c r="W341">
+        <v>1.44</v>
+      </c>
+      <c r="X341">
+        <v>6.5</v>
+      </c>
+      <c r="Y341">
+        <v>1.11</v>
+      </c>
+      <c r="Z341">
         <v>1.53</v>
       </c>
-      <c r="U341">
-        <v>2.38</v>
-      </c>
-      <c r="V341">
-        <v>3.5</v>
-      </c>
-      <c r="W341">
-        <v>1.29</v>
-      </c>
-      <c r="X341">
-        <v>11</v>
-      </c>
-      <c r="Y341">
-        <v>1.05</v>
-      </c>
-      <c r="Z341">
-        <v>2.88</v>
-      </c>
       <c r="AA341">
-        <v>2.89</v>
+        <v>4.6</v>
       </c>
       <c r="AB341">
-        <v>2.93</v>
+        <v>6</v>
       </c>
       <c r="AC341">
         <v>0</v>
@@ -71809,79 +71812,79 @@
         <v>0</v>
       </c>
       <c r="AE341">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF341">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AG341">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AH341">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="AI341">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ341">
+        <v>1.91</v>
+      </c>
+      <c r="AK341">
+        <v>0</v>
+      </c>
+      <c r="AL341">
+        <v>0</v>
+      </c>
+      <c r="AM341">
+        <v>0</v>
+      </c>
+      <c r="AN341">
         <v>1.75</v>
-      </c>
-      <c r="AK341">
-        <v>0</v>
-      </c>
-      <c r="AL341">
-        <v>0</v>
-      </c>
-      <c r="AM341">
-        <v>0</v>
-      </c>
-      <c r="AN341">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AO341">
         <v>0.6899999999999999</v>
       </c>
       <c r="AP341">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ341">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="AR341">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AS341">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AT341">
-        <v>2.19</v>
+        <v>2.86</v>
       </c>
       <c r="AU341">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV341">
+        <v>6</v>
+      </c>
+      <c r="AW341">
+        <v>8</v>
+      </c>
+      <c r="AX341">
+        <v>2</v>
+      </c>
+      <c r="AY341">
+        <v>18</v>
+      </c>
+      <c r="AZ341">
+        <v>10</v>
+      </c>
+      <c r="BA341">
         <v>5</v>
       </c>
-      <c r="AW341">
-        <v>3</v>
-      </c>
-      <c r="AX341">
-        <v>2</v>
-      </c>
-      <c r="AY341">
-        <v>7</v>
-      </c>
-      <c r="AZ341">
-        <v>7</v>
-      </c>
-      <c r="BA341">
-        <v>2</v>
-      </c>
       <c r="BB341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC341">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD341">
         <v>0</v>
@@ -72134,7 +72137,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>7492489</v>
+        <v>7492495</v>
       </c>
       <c r="C343" t="s">
         <v>68</v>
@@ -72149,151 +72152,151 @@
         <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H343" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>92</v>
+      </c>
+      <c r="P343" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q343">
+        <v>3.5</v>
+      </c>
+      <c r="R343">
+        <v>2.2</v>
+      </c>
+      <c r="S343">
         <v>3</v>
       </c>
-      <c r="O343" t="s">
-        <v>189</v>
-      </c>
-      <c r="P343" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q343">
-        <v>2.88</v>
-      </c>
-      <c r="R343">
+      <c r="T343">
+        <v>1.36</v>
+      </c>
+      <c r="U343">
+        <v>3</v>
+      </c>
+      <c r="V343">
+        <v>2.75</v>
+      </c>
+      <c r="W343">
+        <v>1.4</v>
+      </c>
+      <c r="X343">
+        <v>7</v>
+      </c>
+      <c r="Y343">
+        <v>1.1</v>
+      </c>
+      <c r="Z343">
+        <v>3.09</v>
+      </c>
+      <c r="AA343">
+        <v>3.41</v>
+      </c>
+      <c r="AB343">
+        <v>2.39</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>3.07</v>
+      </c>
+      <c r="AF343">
+        <v>1.4</v>
+      </c>
+      <c r="AG343">
+        <v>1.88</v>
+      </c>
+      <c r="AH343">
+        <v>1.93</v>
+      </c>
+      <c r="AI343">
+        <v>1.7</v>
+      </c>
+      <c r="AJ343">
         <v>2.05</v>
       </c>
-      <c r="S343">
-        <v>4</v>
-      </c>
-      <c r="T343">
-        <v>1.5</v>
-      </c>
-      <c r="U343">
-        <v>2.5</v>
-      </c>
-      <c r="V343">
-        <v>3.4</v>
-      </c>
-      <c r="W343">
-        <v>1.3</v>
-      </c>
-      <c r="X343">
-        <v>10</v>
-      </c>
-      <c r="Y343">
+      <c r="AK343">
+        <v>0</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>1.18</v>
+      </c>
+      <c r="AO343">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP343">
+        <v>1.11</v>
+      </c>
+      <c r="AQ343">
         <v>1.06</v>
       </c>
-      <c r="Z343">
-        <v>2.29</v>
-      </c>
-      <c r="AA343">
-        <v>3.18</v>
-      </c>
-      <c r="AB343">
-        <v>3.52</v>
-      </c>
-      <c r="AC343">
-        <v>0</v>
-      </c>
-      <c r="AD343">
-        <v>0</v>
-      </c>
-      <c r="AE343">
-        <v>1.5</v>
-      </c>
-      <c r="AF343">
-        <v>2.5</v>
-      </c>
-      <c r="AG343">
-        <v>2.3</v>
-      </c>
-      <c r="AH343">
-        <v>1.57</v>
-      </c>
-      <c r="AI343">
-        <v>1.95</v>
-      </c>
-      <c r="AJ343">
-        <v>1.8</v>
-      </c>
-      <c r="AK343">
-        <v>0</v>
-      </c>
-      <c r="AL343">
-        <v>0</v>
-      </c>
-      <c r="AM343">
-        <v>0</v>
-      </c>
-      <c r="AN343">
-        <v>1.12</v>
-      </c>
-      <c r="AO343">
-        <v>1</v>
-      </c>
-      <c r="AP343">
-        <v>1.06</v>
-      </c>
-      <c r="AQ343">
-        <v>1.11</v>
-      </c>
       <c r="AR343">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS343">
         <v>1.35</v>
       </c>
       <c r="AT343">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="AU343">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV343">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW343">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX343">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY343">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ343">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA343">
         <v>5</v>
       </c>
       <c r="BB343">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC343">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD343">
         <v>0</v>
@@ -72340,7 +72343,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>7492495</v>
+        <v>7492489</v>
       </c>
       <c r="C344" t="s">
         <v>68</v>
@@ -72355,70 +72358,70 @@
         <v>35</v>
       </c>
       <c r="G344" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H344" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N344">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O344" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="P344" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="Q344">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R344">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S344">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T344">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U344">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V344">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W344">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X344">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y344">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z344">
-        <v>3.09</v>
+        <v>2.29</v>
       </c>
       <c r="AA344">
-        <v>3.41</v>
+        <v>3.18</v>
       </c>
       <c r="AB344">
-        <v>2.39</v>
+        <v>3.52</v>
       </c>
       <c r="AC344">
         <v>0</v>
@@ -72427,22 +72430,22 @@
         <v>0</v>
       </c>
       <c r="AE344">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="AF344">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AG344">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="AH344">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AI344">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ344">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK344">
         <v>0</v>
@@ -72454,52 +72457,52 @@
         <v>0</v>
       </c>
       <c r="AN344">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AO344">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP344">
+        <v>1.06</v>
+      </c>
+      <c r="AQ344">
         <v>1.11</v>
       </c>
-      <c r="AQ344">
-        <v>1.06</v>
-      </c>
       <c r="AR344">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS344">
         <v>1.35</v>
       </c>
       <c r="AT344">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU344">
+        <v>3</v>
+      </c>
+      <c r="AV344">
         <v>4</v>
       </c>
-      <c r="AV344">
-        <v>5</v>
-      </c>
       <c r="AW344">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX344">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY344">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ344">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA344">
         <v>5</v>
       </c>
       <c r="BB344">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC344">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD344">
         <v>0</v>
@@ -73774,6 +73777,212 @@
         <v>0</v>
       </c>
       <c r="BP350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7492491</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45782.65625</v>
+      </c>
+      <c r="F351">
+        <v>35</v>
+      </c>
+      <c r="G351" t="s">
+        <v>70</v>
+      </c>
+      <c r="H351" t="s">
+        <v>73</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>2</v>
+      </c>
+      <c r="N351">
+        <v>3</v>
+      </c>
+      <c r="O351" t="s">
+        <v>270</v>
+      </c>
+      <c r="P351" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q351">
+        <v>4.75</v>
+      </c>
+      <c r="R351">
+        <v>2.2</v>
+      </c>
+      <c r="S351">
+        <v>2.4</v>
+      </c>
+      <c r="T351">
+        <v>1.36</v>
+      </c>
+      <c r="U351">
+        <v>3</v>
+      </c>
+      <c r="V351">
+        <v>2.75</v>
+      </c>
+      <c r="W351">
+        <v>1.4</v>
+      </c>
+      <c r="X351">
+        <v>7</v>
+      </c>
+      <c r="Y351">
+        <v>1.1</v>
+      </c>
+      <c r="Z351">
+        <v>4.3</v>
+      </c>
+      <c r="AA351">
+        <v>3.6</v>
+      </c>
+      <c r="AB351">
+        <v>1.91</v>
+      </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
+      <c r="AD351">
+        <v>0</v>
+      </c>
+      <c r="AE351">
+        <v>0</v>
+      </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
+      <c r="AG351">
+        <v>2.02</v>
+      </c>
+      <c r="AH351">
+        <v>1.8</v>
+      </c>
+      <c r="AI351">
+        <v>1.8</v>
+      </c>
+      <c r="AJ351">
+        <v>1.95</v>
+      </c>
+      <c r="AK351">
+        <v>0</v>
+      </c>
+      <c r="AL351">
+        <v>0</v>
+      </c>
+      <c r="AM351">
+        <v>0</v>
+      </c>
+      <c r="AN351">
+        <v>1.29</v>
+      </c>
+      <c r="AO351">
+        <v>1.53</v>
+      </c>
+      <c r="AP351">
+        <v>1.22</v>
+      </c>
+      <c r="AQ351">
+        <v>1.61</v>
+      </c>
+      <c r="AR351">
+        <v>1.31</v>
+      </c>
+      <c r="AS351">
+        <v>1.62</v>
+      </c>
+      <c r="AT351">
+        <v>2.93</v>
+      </c>
+      <c r="AU351">
+        <v>5</v>
+      </c>
+      <c r="AV351">
+        <v>6</v>
+      </c>
+      <c r="AW351">
+        <v>7</v>
+      </c>
+      <c r="AX351">
+        <v>5</v>
+      </c>
+      <c r="AY351">
+        <v>13</v>
+      </c>
+      <c r="AZ351">
+        <v>12</v>
+      </c>
+      <c r="BA351">
+        <v>8</v>
+      </c>
+      <c r="BB351">
+        <v>7</v>
+      </c>
+      <c r="BC351">
+        <v>15</v>
+      </c>
+      <c r="BD351">
+        <v>0</v>
+      </c>
+      <c r="BE351">
+        <v>0</v>
+      </c>
+      <c r="BF351">
+        <v>0</v>
+      </c>
+      <c r="BG351">
+        <v>0</v>
+      </c>
+      <c r="BH351">
+        <v>0</v>
+      </c>
+      <c r="BI351">
+        <v>0</v>
+      </c>
+      <c r="BJ351">
+        <v>0</v>
+      </c>
+      <c r="BK351">
+        <v>0</v>
+      </c>
+      <c r="BL351">
+        <v>0</v>
+      </c>
+      <c r="BM351">
+        <v>0</v>
+      </c>
+      <c r="BN351">
+        <v>0</v>
+      </c>
+      <c r="BO351">
+        <v>0</v>
+      </c>
+      <c r="BP351">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="434">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -901,6 +901,9 @@
     <t>['45+5']</t>
   </si>
   <si>
+    <t>['73', '79', '90+2']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1674,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1936,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2551,7 +2554,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2629,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ5">
         <v>1.06</v>
@@ -2757,7 +2760,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3375,7 +3378,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3581,7 +3584,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4199,7 +4202,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4405,7 +4408,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -5310,7 +5313,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ18">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5435,7 +5438,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5847,7 +5850,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -6053,7 +6056,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6465,7 +6468,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6877,7 +6880,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7083,7 +7086,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7289,7 +7292,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7495,7 +7498,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -8113,7 +8116,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8194,7 +8197,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8603,7 +8606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8937,7 +8940,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9349,7 +9352,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9555,7 +9558,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9761,7 +9764,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10173,7 +10176,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10379,7 +10382,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10997,7 +11000,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11203,7 +11206,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11409,7 +11412,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11490,7 +11493,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ48">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11821,7 +11824,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12027,7 +12030,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12311,7 +12314,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12439,7 +12442,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12645,7 +12648,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12851,7 +12854,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13057,7 +13060,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13263,7 +13266,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -14087,7 +14090,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14911,7 +14914,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15117,7 +15120,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15323,7 +15326,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -16559,7 +16562,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16640,7 +16643,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16843,7 +16846,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ74">
         <v>1.11</v>
@@ -17177,7 +17180,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17383,7 +17386,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17589,7 +17592,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17795,7 +17798,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18207,7 +18210,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -19031,7 +19034,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19649,7 +19652,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19855,7 +19858,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20061,7 +20064,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20267,7 +20270,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20348,7 +20351,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20679,7 +20682,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20757,7 +20760,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20885,7 +20888,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21091,7 +21094,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21503,7 +21506,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21915,7 +21918,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22533,7 +22536,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22945,7 +22948,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23151,7 +23154,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23357,7 +23360,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -24181,7 +24184,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24387,7 +24390,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24593,7 +24596,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24799,7 +24802,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25005,7 +25008,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25417,7 +25420,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25623,7 +25626,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25704,7 +25707,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ117">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -26447,7 +26450,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26731,7 +26734,7 @@
         <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ122">
         <v>1.53</v>
@@ -26859,7 +26862,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27065,7 +27068,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27271,7 +27274,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27477,7 +27480,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27970,7 +27973,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ128">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -28095,7 +28098,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28997,7 +29000,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ133">
         <v>0.83</v>
@@ -29331,7 +29334,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29537,7 +29540,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29949,7 +29952,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30155,7 +30158,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30979,7 +30982,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31060,7 +31063,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ143">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR143">
         <v>1.47</v>
@@ -31185,7 +31188,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31597,7 +31600,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31803,7 +31806,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32215,7 +32218,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32627,7 +32630,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32833,7 +32836,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -33039,7 +33042,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33451,7 +33454,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -34147,7 +34150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34275,7 +34278,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34687,7 +34690,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34768,7 +34771,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ161">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR161">
         <v>1.07</v>
@@ -34893,7 +34896,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35099,7 +35102,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35511,7 +35514,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35717,7 +35720,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35923,7 +35926,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36129,7 +36132,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36747,7 +36750,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36953,7 +36956,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37159,7 +37162,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37365,7 +37368,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37777,7 +37780,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38061,7 +38064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
         <v>1.47</v>
@@ -38395,7 +38398,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38807,7 +38810,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39219,7 +39222,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -40455,7 +40458,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40867,7 +40870,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -40945,7 +40948,7 @@
         <v>0.89</v>
       </c>
       <c r="AP191">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ191">
         <v>0.82</v>
@@ -41485,7 +41488,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -42103,7 +42106,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42515,7 +42518,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42596,7 +42599,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ199">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42721,7 +42724,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43339,7 +43342,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43751,7 +43754,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44163,7 +44166,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44369,7 +44372,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44987,7 +44990,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45480,7 +45483,7 @@
         <v>0.59</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR213">
         <v>1.04</v>
@@ -45605,7 +45608,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45683,7 +45686,7 @@
         <v>0.8</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ214">
         <v>0.71</v>
@@ -45811,7 +45814,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46017,7 +46020,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46223,7 +46226,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46429,7 +46432,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46841,7 +46844,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47047,7 +47050,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47459,7 +47462,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -48077,7 +48080,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48361,7 +48364,7 @@
         <v>2.6</v>
       </c>
       <c r="AP227">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ227">
         <v>1.88</v>
@@ -48489,7 +48492,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48695,7 +48698,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49107,7 +49110,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49313,7 +49316,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49519,7 +49522,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49725,7 +49728,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50343,7 +50346,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50630,7 +50633,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ238">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR238">
         <v>1.34</v>
@@ -50755,7 +50758,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51167,7 +51170,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51579,7 +51582,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51863,7 +51866,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ244">
         <v>0.9399999999999999</v>
@@ -51991,7 +51994,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52609,7 +52612,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -53514,7 +53517,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ252">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR252">
         <v>1.39</v>
@@ -54257,7 +54260,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54669,7 +54672,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54875,7 +54878,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -56317,7 +56320,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -57141,7 +57144,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57219,7 +57222,7 @@
         <v>1.69</v>
       </c>
       <c r="AP270">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ270">
         <v>1.89</v>
@@ -57759,7 +57762,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -58171,7 +58174,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58377,7 +58380,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58583,7 +58586,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58664,7 +58667,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ277">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR277">
         <v>1.23</v>
@@ -58789,7 +58792,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58995,7 +58998,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59201,7 +59204,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59613,7 +59616,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -60025,7 +60028,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60231,7 +60234,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60309,7 +60312,7 @@
         <v>0.71</v>
       </c>
       <c r="AP285">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ285">
         <v>1.06</v>
@@ -61467,7 +61470,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61960,7 +61963,7 @@
         <v>1</v>
       </c>
       <c r="AQ293">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR293">
         <v>1.36</v>
@@ -62909,7 +62912,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63115,7 +63118,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63527,7 +63530,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63939,7 +63942,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64145,7 +64148,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64351,7 +64354,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -64429,7 +64432,7 @@
         <v>1.29</v>
       </c>
       <c r="AP305">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ305">
         <v>1.29</v>
@@ -65381,7 +65384,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65793,7 +65796,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66205,7 +66208,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -66698,7 +66701,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ316">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR316">
         <v>1.82</v>
@@ -67853,7 +67856,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68471,7 +68474,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -68961,7 +68964,7 @@
         <v>2.06</v>
       </c>
       <c r="AP327">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ327">
         <v>2.17</v>
@@ -69089,7 +69092,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69501,7 +69504,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70119,7 +70122,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -71149,7 +71152,7 @@
         <v>292</v>
       </c>
       <c r="P338" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q338">
         <v>1.73</v>
@@ -71436,7 +71439,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ339">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR339">
         <v>1.29</v>
@@ -71561,7 +71564,7 @@
         <v>92</v>
       </c>
       <c r="P340" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q340">
         <v>3.25</v>
@@ -71767,7 +71770,7 @@
         <v>293</v>
       </c>
       <c r="P341" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q341">
         <v>2.05</v>
@@ -72385,7 +72388,7 @@
         <v>189</v>
       </c>
       <c r="P344" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q344">
         <v>2.88</v>
@@ -73003,7 +73006,7 @@
         <v>92</v>
       </c>
       <c r="P347" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q347">
         <v>4.75</v>
@@ -73209,7 +73212,7 @@
         <v>92</v>
       </c>
       <c r="P348" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q348">
         <v>9.5</v>
@@ -73827,7 +73830,7 @@
         <v>270</v>
       </c>
       <c r="P351" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -73984,6 +73987,212 @@
       </c>
       <c r="BP351">
         <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7492503</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>73</v>
+      </c>
+      <c r="H352" t="s">
+        <v>74</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>3</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>4</v>
+      </c>
+      <c r="O352" t="s">
+        <v>295</v>
+      </c>
+      <c r="P352" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q352">
+        <v>3.1</v>
+      </c>
+      <c r="R352">
+        <v>2.2</v>
+      </c>
+      <c r="S352">
+        <v>3.4</v>
+      </c>
+      <c r="T352">
+        <v>1.4</v>
+      </c>
+      <c r="U352">
+        <v>2.75</v>
+      </c>
+      <c r="V352">
+        <v>2.75</v>
+      </c>
+      <c r="W352">
+        <v>1.4</v>
+      </c>
+      <c r="X352">
+        <v>8</v>
+      </c>
+      <c r="Y352">
+        <v>1.08</v>
+      </c>
+      <c r="Z352">
+        <v>2.26</v>
+      </c>
+      <c r="AA352">
+        <v>3.33</v>
+      </c>
+      <c r="AB352">
+        <v>3.06</v>
+      </c>
+      <c r="AC352">
+        <v>1.06</v>
+      </c>
+      <c r="AD352">
+        <v>8.5</v>
+      </c>
+      <c r="AE352">
+        <v>1.3</v>
+      </c>
+      <c r="AF352">
+        <v>3.4</v>
+      </c>
+      <c r="AG352">
+        <v>1.92</v>
+      </c>
+      <c r="AH352">
+        <v>1.82</v>
+      </c>
+      <c r="AI352">
+        <v>1.75</v>
+      </c>
+      <c r="AJ352">
+        <v>2</v>
+      </c>
+      <c r="AK352">
+        <v>1.38</v>
+      </c>
+      <c r="AL352">
+        <v>1.25</v>
+      </c>
+      <c r="AM352">
+        <v>1.57</v>
+      </c>
+      <c r="AN352">
+        <v>1.65</v>
+      </c>
+      <c r="AO352">
+        <v>1.47</v>
+      </c>
+      <c r="AP352">
+        <v>1.72</v>
+      </c>
+      <c r="AQ352">
+        <v>1.39</v>
+      </c>
+      <c r="AR352">
+        <v>1.67</v>
+      </c>
+      <c r="AS352">
+        <v>1.34</v>
+      </c>
+      <c r="AT352">
+        <v>3.01</v>
+      </c>
+      <c r="AU352">
+        <v>-1</v>
+      </c>
+      <c r="AV352">
+        <v>-1</v>
+      </c>
+      <c r="AW352">
+        <v>-1</v>
+      </c>
+      <c r="AX352">
+        <v>-1</v>
+      </c>
+      <c r="AY352">
+        <v>-1</v>
+      </c>
+      <c r="AZ352">
+        <v>-1</v>
+      </c>
+      <c r="BA352">
+        <v>-1</v>
+      </c>
+      <c r="BB352">
+        <v>-1</v>
+      </c>
+      <c r="BC352">
+        <v>-1</v>
+      </c>
+      <c r="BD352">
+        <v>1.93</v>
+      </c>
+      <c r="BE352">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF352">
+        <v>2.23</v>
+      </c>
+      <c r="BG352">
+        <v>1.31</v>
+      </c>
+      <c r="BH352">
+        <v>2.92</v>
+      </c>
+      <c r="BI352">
+        <v>1.7</v>
+      </c>
+      <c r="BJ352">
+        <v>2.05</v>
+      </c>
+      <c r="BK352">
+        <v>2.04</v>
+      </c>
+      <c r="BL352">
+        <v>1.69</v>
+      </c>
+      <c r="BM352">
+        <v>2.67</v>
+      </c>
+      <c r="BN352">
+        <v>1.39</v>
+      </c>
+      <c r="BO352">
+        <v>3.7</v>
+      </c>
+      <c r="BP352">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -74129,31 +74129,31 @@
         <v>3.01</v>
       </c>
       <c r="AU352">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV352">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW352">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX352">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY352">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ352">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA352">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB352">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC352">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD352">
         <v>1.93</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -904,6 +904,12 @@
     <t>['73', '79', '90+2']</t>
   </si>
   <si>
+    <t>['40', '45+2', '77']</t>
+  </si>
+  <si>
+    <t>['11', '86']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1677,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP352"/>
+  <dimension ref="A1:BP355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,7 +1942,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2426,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ4">
         <v>0.41</v>
@@ -2554,7 +2560,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2760,7 +2766,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3378,7 +3384,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3456,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3584,7 +3590,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4202,7 +4208,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4408,7 +4414,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -5438,7 +5444,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5850,7 +5856,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5931,7 +5937,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -6056,7 +6062,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6468,7 +6474,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6755,7 +6761,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ25">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6880,7 +6886,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6958,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.61</v>
@@ -7086,7 +7092,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7167,7 +7173,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.28</v>
@@ -7292,7 +7298,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7498,7 +7504,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -8116,7 +8122,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8194,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ32">
         <v>1.39</v>
@@ -8400,10 +8406,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ33">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8940,7 +8946,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9352,7 +9358,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9558,7 +9564,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9764,7 +9770,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10048,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.9399999999999999</v>
@@ -10176,7 +10182,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10382,7 +10388,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11000,7 +11006,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11081,7 +11087,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -11206,7 +11212,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11412,7 +11418,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11824,7 +11830,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12030,7 +12036,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12442,7 +12448,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12648,7 +12654,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12729,7 +12735,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12854,7 +12860,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13060,7 +13066,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13266,7 +13272,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13344,7 +13350,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13756,7 +13762,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -14090,7 +14096,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14171,7 +14177,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14914,7 +14920,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15120,7 +15126,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15326,7 +15332,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15407,7 +15413,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ67">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15610,7 +15616,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15819,7 +15825,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -16434,10 +16440,10 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16562,7 +16568,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -17180,7 +17186,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17258,7 +17264,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17386,7 +17392,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17592,7 +17598,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17798,7 +17804,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18210,7 +18216,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18497,7 +18503,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ82">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -19034,7 +19040,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19524,7 +19530,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19652,7 +19658,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19858,7 +19864,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19939,7 +19945,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20064,7 +20070,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20270,7 +20276,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20682,7 +20688,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20888,7 +20894,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21094,7 +21100,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21172,7 +21178,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ95">
         <v>1.88</v>
@@ -21506,7 +21512,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21587,7 +21593,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.44</v>
@@ -21918,7 +21924,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21996,7 +22002,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ99">
         <v>1.89</v>
@@ -22536,7 +22542,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22617,7 +22623,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22948,7 +22954,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23154,7 +23160,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23360,7 +23366,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23850,7 +23856,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ108">
         <v>1.06</v>
@@ -24184,7 +24190,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24262,10 +24268,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24390,7 +24396,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24596,7 +24602,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24802,7 +24808,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24883,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -25008,7 +25014,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25420,7 +25426,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25626,7 +25632,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26450,7 +26456,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26737,7 +26743,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ122">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26862,7 +26868,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27068,7 +27074,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27149,7 +27155,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ124">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27274,7 +27280,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27352,7 +27358,7 @@
         <v>1.83</v>
       </c>
       <c r="AP125">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ125">
         <v>1.29</v>
@@ -27480,7 +27486,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27970,7 +27976,7 @@
         <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128">
         <v>1.39</v>
@@ -28098,7 +28104,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28176,7 +28182,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ129">
         <v>1.11</v>
@@ -28794,7 +28800,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ132">
         <v>0.41</v>
@@ -29334,7 +29340,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29540,7 +29546,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29952,7 +29958,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30033,7 +30039,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ138">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.39</v>
@@ -30158,7 +30164,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30445,7 +30451,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30982,7 +30988,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31188,7 +31194,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31475,7 +31481,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR145">
         <v>1.69</v>
@@ -31600,7 +31606,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31806,7 +31812,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32218,7 +32224,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32502,7 +32508,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32630,7 +32636,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32836,7 +32842,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -33042,7 +33048,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33454,7 +33460,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -33944,7 +33950,7 @@
         <v>0.57</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ157">
         <v>1.47</v>
@@ -34278,7 +34284,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34356,7 +34362,7 @@
         <v>2.33</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
         <v>1.88</v>
@@ -34690,7 +34696,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34896,7 +34902,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35102,7 +35108,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35389,7 +35395,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ164">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR164">
         <v>1.54</v>
@@ -35514,7 +35520,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35595,7 +35601,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR165">
         <v>1.48</v>
@@ -35720,7 +35726,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35926,7 +35932,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36007,7 +36013,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.14</v>
@@ -36132,7 +36138,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36750,7 +36756,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36828,7 +36834,7 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36956,7 +36962,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37162,7 +37168,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37240,7 +37246,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ173">
         <v>2.17</v>
@@ -37368,7 +37374,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37780,7 +37786,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38270,7 +38276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP178">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ178">
         <v>0.71</v>
@@ -38398,7 +38404,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38810,7 +38816,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39222,7 +39228,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39303,7 +39309,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ183">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
         <v>1.19</v>
@@ -39715,7 +39721,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ185">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR185">
         <v>1</v>
@@ -40124,7 +40130,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ187">
         <v>1.06</v>
@@ -40458,7 +40464,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40536,7 +40542,7 @@
         <v>0.44</v>
       </c>
       <c r="AP189">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ189">
         <v>0.71</v>
@@ -40745,7 +40751,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR190">
         <v>1.04</v>
@@ -40870,7 +40876,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -40951,7 +40957,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ191">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR191">
         <v>1.6</v>
@@ -41157,7 +41163,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ192">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41488,7 +41494,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -42106,7 +42112,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42184,7 +42190,7 @@
         <v>1.38</v>
       </c>
       <c r="AP197">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ197">
         <v>1.61</v>
@@ -42393,7 +42399,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>1.78</v>
@@ -42518,7 +42524,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42724,7 +42730,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43342,7 +43348,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43754,7 +43760,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44166,7 +44172,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44372,7 +44378,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44656,7 +44662,7 @@
         <v>1.2</v>
       </c>
       <c r="AP209">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ209">
         <v>1.11</v>
@@ -44865,7 +44871,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR210">
         <v>1.04</v>
@@ -44990,7 +44996,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45068,7 +45074,7 @@
         <v>1.91</v>
       </c>
       <c r="AP211">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ211">
         <v>2.17</v>
@@ -45277,7 +45283,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ212">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45480,7 +45486,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ213">
         <v>1.39</v>
@@ -45608,7 +45614,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45689,7 +45695,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ214">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR214">
         <v>1.72</v>
@@ -45814,7 +45820,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46020,7 +46026,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46226,7 +46232,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46304,7 +46310,7 @@
         <v>1.5</v>
       </c>
       <c r="AP217">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ217">
         <v>1.29</v>
@@ -46432,7 +46438,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46844,7 +46850,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47050,7 +47056,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47462,7 +47468,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -48080,7 +48086,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48492,7 +48498,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48698,7 +48704,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49110,7 +49116,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49188,10 +49194,10 @@
         <v>1.64</v>
       </c>
       <c r="AP231">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ231">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49316,7 +49322,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49522,7 +49528,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49600,7 +49606,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ233">
         <v>1.61</v>
@@ -49728,7 +49734,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50221,7 +50227,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ236">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR236">
         <v>1.47</v>
@@ -50346,7 +50352,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50424,7 +50430,7 @@
         <v>0.64</v>
       </c>
       <c r="AP237">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ237">
         <v>0.41</v>
@@ -50758,7 +50764,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51170,7 +51176,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51457,7 +51463,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ242">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR242">
         <v>1.88</v>
@@ -51582,7 +51588,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51660,7 +51666,7 @@
         <v>2.25</v>
       </c>
       <c r="AP243">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ243">
         <v>2</v>
@@ -51994,7 +52000,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52612,7 +52618,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -54260,7 +54266,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54338,7 +54344,7 @@
         <v>2.15</v>
       </c>
       <c r="AP256">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ256">
         <v>2</v>
@@ -54672,7 +54678,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54750,7 +54756,7 @@
         <v>2.08</v>
       </c>
       <c r="AP258">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ258">
         <v>2.17</v>
@@ -54878,7 +54884,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54959,7 +54965,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ259">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR259">
         <v>1.48</v>
@@ -56195,7 +56201,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ265">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR265">
         <v>1.18</v>
@@ -56320,7 +56326,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -56607,7 +56613,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ267">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR267">
         <v>1.79</v>
@@ -57144,7 +57150,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57762,7 +57768,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -58046,7 +58052,7 @@
         <v>0.36</v>
       </c>
       <c r="AP274">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ274">
         <v>0.5</v>
@@ -58174,7 +58180,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58380,7 +58386,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58586,7 +58592,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58792,7 +58798,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58998,7 +59004,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59076,7 +59082,7 @@
         <v>1.15</v>
       </c>
       <c r="AP279">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ279">
         <v>1.47</v>
@@ -59204,7 +59210,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59488,7 +59494,7 @@
         <v>1.23</v>
       </c>
       <c r="AP281">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ281">
         <v>1.11</v>
@@ -59616,7 +59622,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -60028,7 +60034,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60109,7 +60115,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ284">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR284">
         <v>1.17</v>
@@ -60234,7 +60240,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -61139,7 +61145,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ289">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR289">
         <v>1.61</v>
@@ -61345,7 +61351,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ290">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR290">
         <v>1.49</v>
@@ -61470,7 +61476,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61754,7 +61760,7 @@
         <v>0.93</v>
       </c>
       <c r="AP292">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ292">
         <v>0.83</v>
@@ -62912,7 +62918,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63118,7 +63124,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63405,7 +63411,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ300">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR300">
         <v>1.21</v>
@@ -63530,7 +63536,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63608,7 +63614,7 @@
         <v>1.2</v>
       </c>
       <c r="AP301">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ301">
         <v>1.06</v>
@@ -63942,7 +63948,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64148,7 +64154,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64354,7 +64360,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -65050,10 +65056,10 @@
         <v>0.71</v>
       </c>
       <c r="AP308">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ308">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR308">
         <v>0.96</v>
@@ -65384,7 +65390,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65465,7 +65471,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ310">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR310">
         <v>1.59</v>
@@ -65796,7 +65802,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66208,7 +66214,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -66289,7 +66295,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ314">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR314">
         <v>1.85</v>
@@ -66907,7 +66913,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ317">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR317">
         <v>1.46</v>
@@ -67316,7 +67322,7 @@
         <v>1.19</v>
       </c>
       <c r="AP319">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ319">
         <v>1.06</v>
@@ -67522,7 +67528,7 @@
         <v>1.4</v>
       </c>
       <c r="AP320">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -67856,7 +67862,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68474,7 +68480,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -68552,7 +68558,7 @@
         <v>0.44</v>
       </c>
       <c r="AP325">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ325">
         <v>0.5</v>
@@ -69092,7 +69098,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69504,7 +69510,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69791,7 +69797,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ331">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR331">
         <v>1.33</v>
@@ -69994,7 +70000,7 @@
         <v>1.06</v>
       </c>
       <c r="AP332">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ332">
         <v>1</v>
@@ -70122,7 +70128,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -71152,7 +71158,7 @@
         <v>292</v>
       </c>
       <c r="P338" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q338">
         <v>1.73</v>
@@ -71564,7 +71570,7 @@
         <v>92</v>
       </c>
       <c r="P340" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q340">
         <v>3.25</v>
@@ -71645,7 +71651,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ340">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR340">
         <v>1.19</v>
@@ -71770,7 +71776,7 @@
         <v>293</v>
       </c>
       <c r="P341" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q341">
         <v>2.05</v>
@@ -71848,10 +71854,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP341">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ341">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR341">
         <v>1.63</v>
@@ -72388,7 +72394,7 @@
         <v>189</v>
       </c>
       <c r="P344" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q344">
         <v>2.88</v>
@@ -73006,7 +73012,7 @@
         <v>92</v>
       </c>
       <c r="P347" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q347">
         <v>4.75</v>
@@ -73084,7 +73090,7 @@
         <v>1.82</v>
       </c>
       <c r="AP347">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ347">
         <v>1.89</v>
@@ -73212,7 +73218,7 @@
         <v>92</v>
       </c>
       <c r="P348" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q348">
         <v>9.5</v>
@@ -73705,7 +73711,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ350">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR350">
         <v>1.77</v>
@@ -73830,7 +73836,7 @@
         <v>270</v>
       </c>
       <c r="P351" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74193,6 +74199,624 @@
       </c>
       <c r="BP352">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7492499</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>88</v>
+      </c>
+      <c r="H353" t="s">
+        <v>76</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>3</v>
+      </c>
+      <c r="L353">
+        <v>3</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>4</v>
+      </c>
+      <c r="O353" t="s">
+        <v>296</v>
+      </c>
+      <c r="P353" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q353">
+        <v>2.3</v>
+      </c>
+      <c r="R353">
+        <v>2.25</v>
+      </c>
+      <c r="S353">
+        <v>5</v>
+      </c>
+      <c r="T353">
+        <v>1.36</v>
+      </c>
+      <c r="U353">
+        <v>3</v>
+      </c>
+      <c r="V353">
+        <v>2.75</v>
+      </c>
+      <c r="W353">
+        <v>1.4</v>
+      </c>
+      <c r="X353">
+        <v>7</v>
+      </c>
+      <c r="Y353">
+        <v>1.1</v>
+      </c>
+      <c r="Z353">
+        <v>1.78</v>
+      </c>
+      <c r="AA353">
+        <v>3.62</v>
+      </c>
+      <c r="AB353">
+        <v>4.33</v>
+      </c>
+      <c r="AC353">
+        <v>1.05</v>
+      </c>
+      <c r="AD353">
+        <v>9.5</v>
+      </c>
+      <c r="AE353">
+        <v>1.28</v>
+      </c>
+      <c r="AF353">
+        <v>3.5</v>
+      </c>
+      <c r="AG353">
+        <v>1.92</v>
+      </c>
+      <c r="AH353">
+        <v>1.82</v>
+      </c>
+      <c r="AI353">
+        <v>1.91</v>
+      </c>
+      <c r="AJ353">
+        <v>1.91</v>
+      </c>
+      <c r="AK353">
+        <v>1.18</v>
+      </c>
+      <c r="AL353">
+        <v>1.22</v>
+      </c>
+      <c r="AM353">
+        <v>2.05</v>
+      </c>
+      <c r="AN353">
+        <v>1.53</v>
+      </c>
+      <c r="AO353">
+        <v>0.82</v>
+      </c>
+      <c r="AP353">
+        <v>1.61</v>
+      </c>
+      <c r="AQ353">
+        <v>0.78</v>
+      </c>
+      <c r="AR353">
+        <v>1.59</v>
+      </c>
+      <c r="AS353">
+        <v>1</v>
+      </c>
+      <c r="AT353">
+        <v>2.59</v>
+      </c>
+      <c r="AU353">
+        <v>6</v>
+      </c>
+      <c r="AV353">
+        <v>4</v>
+      </c>
+      <c r="AW353">
+        <v>14</v>
+      </c>
+      <c r="AX353">
+        <v>6</v>
+      </c>
+      <c r="AY353">
+        <v>23</v>
+      </c>
+      <c r="AZ353">
+        <v>10</v>
+      </c>
+      <c r="BA353">
+        <v>5</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>6</v>
+      </c>
+      <c r="BD353">
+        <v>1.48</v>
+      </c>
+      <c r="BE353">
+        <v>8.9</v>
+      </c>
+      <c r="BF353">
+        <v>3.34</v>
+      </c>
+      <c r="BG353">
+        <v>1.29</v>
+      </c>
+      <c r="BH353">
+        <v>3.04</v>
+      </c>
+      <c r="BI353">
+        <v>1.7</v>
+      </c>
+      <c r="BJ353">
+        <v>2.05</v>
+      </c>
+      <c r="BK353">
+        <v>1.98</v>
+      </c>
+      <c r="BL353">
+        <v>1.74</v>
+      </c>
+      <c r="BM353">
+        <v>2.57</v>
+      </c>
+      <c r="BN353">
+        <v>1.42</v>
+      </c>
+      <c r="BO353">
+        <v>3.5</v>
+      </c>
+      <c r="BP353">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7492502</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>77</v>
+      </c>
+      <c r="H354" t="s">
+        <v>79</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>2</v>
+      </c>
+      <c r="O354" t="s">
+        <v>114</v>
+      </c>
+      <c r="P354" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q354">
+        <v>3.2</v>
+      </c>
+      <c r="R354">
+        <v>2.05</v>
+      </c>
+      <c r="S354">
+        <v>3.6</v>
+      </c>
+      <c r="T354">
+        <v>1.44</v>
+      </c>
+      <c r="U354">
+        <v>2.63</v>
+      </c>
+      <c r="V354">
+        <v>3.25</v>
+      </c>
+      <c r="W354">
+        <v>1.33</v>
+      </c>
+      <c r="X354">
+        <v>9</v>
+      </c>
+      <c r="Y354">
+        <v>1.07</v>
+      </c>
+      <c r="Z354">
+        <v>2.42</v>
+      </c>
+      <c r="AA354">
+        <v>3.19</v>
+      </c>
+      <c r="AB354">
+        <v>2.9</v>
+      </c>
+      <c r="AC354">
+        <v>1.08</v>
+      </c>
+      <c r="AD354">
+        <v>7.5</v>
+      </c>
+      <c r="AE354">
+        <v>1.4</v>
+      </c>
+      <c r="AF354">
+        <v>2.9</v>
+      </c>
+      <c r="AG354">
+        <v>2.1</v>
+      </c>
+      <c r="AH354">
+        <v>1.67</v>
+      </c>
+      <c r="AI354">
+        <v>1.91</v>
+      </c>
+      <c r="AJ354">
+        <v>1.91</v>
+      </c>
+      <c r="AK354">
+        <v>1.38</v>
+      </c>
+      <c r="AL354">
+        <v>1.3</v>
+      </c>
+      <c r="AM354">
+        <v>1.53</v>
+      </c>
+      <c r="AN354">
+        <v>1.71</v>
+      </c>
+      <c r="AO354">
+        <v>1.53</v>
+      </c>
+      <c r="AP354">
+        <v>1.67</v>
+      </c>
+      <c r="AQ354">
+        <v>1.5</v>
+      </c>
+      <c r="AR354">
+        <v>1.66</v>
+      </c>
+      <c r="AS354">
+        <v>1.36</v>
+      </c>
+      <c r="AT354">
+        <v>3.02</v>
+      </c>
+      <c r="AU354">
+        <v>7</v>
+      </c>
+      <c r="AV354">
+        <v>4</v>
+      </c>
+      <c r="AW354">
+        <v>13</v>
+      </c>
+      <c r="AX354">
+        <v>5</v>
+      </c>
+      <c r="AY354">
+        <v>25</v>
+      </c>
+      <c r="AZ354">
+        <v>12</v>
+      </c>
+      <c r="BA354">
+        <v>3</v>
+      </c>
+      <c r="BB354">
+        <v>3</v>
+      </c>
+      <c r="BC354">
+        <v>6</v>
+      </c>
+      <c r="BD354">
+        <v>1.63</v>
+      </c>
+      <c r="BE354">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF354">
+        <v>2.78</v>
+      </c>
+      <c r="BG354">
+        <v>1.24</v>
+      </c>
+      <c r="BH354">
+        <v>3.34</v>
+      </c>
+      <c r="BI354">
+        <v>1.48</v>
+      </c>
+      <c r="BJ354">
+        <v>2.4</v>
+      </c>
+      <c r="BK354">
+        <v>1.85</v>
+      </c>
+      <c r="BL354">
+        <v>1.85</v>
+      </c>
+      <c r="BM354">
+        <v>2.38</v>
+      </c>
+      <c r="BN354">
+        <v>1.49</v>
+      </c>
+      <c r="BO354">
+        <v>3.14</v>
+      </c>
+      <c r="BP354">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7492500</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45787.65625</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>72</v>
+      </c>
+      <c r="H355" t="s">
+        <v>71</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>3</v>
+      </c>
+      <c r="O355" t="s">
+        <v>297</v>
+      </c>
+      <c r="P355" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q355">
+        <v>2.75</v>
+      </c>
+      <c r="R355">
+        <v>2.1</v>
+      </c>
+      <c r="S355">
+        <v>4</v>
+      </c>
+      <c r="T355">
+        <v>1.4</v>
+      </c>
+      <c r="U355">
+        <v>2.75</v>
+      </c>
+      <c r="V355">
+        <v>3</v>
+      </c>
+      <c r="W355">
+        <v>1.36</v>
+      </c>
+      <c r="X355">
+        <v>8</v>
+      </c>
+      <c r="Y355">
+        <v>1.08</v>
+      </c>
+      <c r="Z355">
+        <v>2.12</v>
+      </c>
+      <c r="AA355">
+        <v>3.4</v>
+      </c>
+      <c r="AB355">
+        <v>3.29</v>
+      </c>
+      <c r="AC355">
+        <v>1.06</v>
+      </c>
+      <c r="AD355">
+        <v>8.5</v>
+      </c>
+      <c r="AE355">
+        <v>1.33</v>
+      </c>
+      <c r="AF355">
+        <v>3.3</v>
+      </c>
+      <c r="AG355">
+        <v>1.95</v>
+      </c>
+      <c r="AH355">
+        <v>1.79</v>
+      </c>
+      <c r="AI355">
+        <v>1.8</v>
+      </c>
+      <c r="AJ355">
+        <v>1.95</v>
+      </c>
+      <c r="AK355">
+        <v>1.3</v>
+      </c>
+      <c r="AL355">
+        <v>1.25</v>
+      </c>
+      <c r="AM355">
+        <v>1.7</v>
+      </c>
+      <c r="AN355">
+        <v>0.59</v>
+      </c>
+      <c r="AO355">
+        <v>0.71</v>
+      </c>
+      <c r="AP355">
+        <v>0.72</v>
+      </c>
+      <c r="AQ355">
+        <v>0.67</v>
+      </c>
+      <c r="AR355">
+        <v>0.99</v>
+      </c>
+      <c r="AS355">
+        <v>1.21</v>
+      </c>
+      <c r="AT355">
+        <v>2.2</v>
+      </c>
+      <c r="AU355">
+        <v>5</v>
+      </c>
+      <c r="AV355">
+        <v>2</v>
+      </c>
+      <c r="AW355">
+        <v>11</v>
+      </c>
+      <c r="AX355">
+        <v>2</v>
+      </c>
+      <c r="AY355">
+        <v>24</v>
+      </c>
+      <c r="AZ355">
+        <v>5</v>
+      </c>
+      <c r="BA355">
+        <v>4</v>
+      </c>
+      <c r="BB355">
+        <v>0</v>
+      </c>
+      <c r="BC355">
+        <v>4</v>
+      </c>
+      <c r="BD355">
+        <v>1.74</v>
+      </c>
+      <c r="BE355">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF355">
+        <v>2.51</v>
+      </c>
+      <c r="BG355">
+        <v>1.21</v>
+      </c>
+      <c r="BH355">
+        <v>3.58</v>
+      </c>
+      <c r="BI355">
+        <v>1.42</v>
+      </c>
+      <c r="BJ355">
+        <v>2.57</v>
+      </c>
+      <c r="BK355">
+        <v>1.7</v>
+      </c>
+      <c r="BL355">
+        <v>2.05</v>
+      </c>
+      <c r="BM355">
+        <v>2.21</v>
+      </c>
+      <c r="BN355">
+        <v>1.56</v>
+      </c>
+      <c r="BO355">
+        <v>2.92</v>
+      </c>
+      <c r="BP355">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="437">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -910,6 +910,9 @@
     <t>['11', '86']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -974,9 +977,6 @@
   </si>
   <si>
     <t>['90+3', '90+5']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['24', '80']</t>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>['76', '77']</t>
+  </si>
+  <si>
+    <t>['52', '90']</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP355"/>
+  <dimension ref="A1:BP357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1945,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2435,7 +2438,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ4">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2560,7 +2563,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2766,7 +2769,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3050,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -3384,7 +3387,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3590,7 +3593,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4080,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.89</v>
@@ -4208,7 +4211,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4414,7 +4417,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4701,7 +4704,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5444,7 +5447,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5856,7 +5859,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5934,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -6062,7 +6065,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6474,7 +6477,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6886,7 +6889,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7092,7 +7095,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7298,7 +7301,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7379,7 +7382,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ28">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7504,7 +7507,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7994,7 +7997,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>1.06</v>
@@ -8122,7 +8125,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8946,7 +8949,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9233,7 +9236,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR37">
         <v>1.46</v>
@@ -9358,7 +9361,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9564,7 +9567,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9770,7 +9773,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10182,7 +10185,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10388,7 +10391,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10466,7 +10469,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
         <v>1.06</v>
@@ -11006,7 +11009,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11212,7 +11215,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -12323,7 +12326,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -12526,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -13971,7 +13974,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ60">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -14586,7 +14589,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ63">
         <v>0.5</v>
@@ -14792,10 +14795,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -15332,7 +15335,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -18294,10 +18297,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ81">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81">
         <v>1.08</v>
@@ -18500,7 +18503,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>0.78</v>
@@ -18915,7 +18918,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -21387,7 +21390,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -22417,7 +22420,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ101">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22620,7 +22623,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -23160,7 +23163,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23444,7 +23447,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ106">
         <v>1.47</v>
@@ -24190,7 +24193,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -26534,7 +26537,7 @@
         <v>2.2</v>
       </c>
       <c r="AP121">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ121">
         <v>1.88</v>
@@ -27567,7 +27570,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126">
         <v>1.11</v>
@@ -28391,7 +28394,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28803,7 +28806,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ132">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -29418,7 +29421,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29958,7 +29961,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -31275,7 +31278,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31684,7 +31687,7 @@
         <v>1.29</v>
       </c>
       <c r="AP146">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -32636,7 +32639,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32920,7 +32923,7 @@
         <v>2</v>
       </c>
       <c r="AP152">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152">
         <v>2</v>
@@ -33335,7 +33338,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ154">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR154">
         <v>1.38</v>
@@ -34568,7 +34571,7 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ160">
         <v>1.61</v>
@@ -36631,7 +36634,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR170">
         <v>1.34</v>
@@ -37168,7 +37171,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37452,7 +37455,7 @@
         <v>1.22</v>
       </c>
       <c r="AP174">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
         <v>1.06</v>
@@ -38279,7 +38282,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ178">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR178">
         <v>1.5</v>
@@ -39100,7 +39103,7 @@
         <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ182">
         <v>1.11</v>
@@ -40336,7 +40339,7 @@
         <v>2</v>
       </c>
       <c r="AP188">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188">
         <v>2.17</v>
@@ -40545,7 +40548,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ189">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR189">
         <v>0.97</v>
@@ -43017,7 +43020,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ201">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR201">
         <v>1.71</v>
@@ -43841,7 +43844,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ205">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR205">
         <v>1.37</v>
@@ -44250,7 +44253,7 @@
         <v>1.5</v>
       </c>
       <c r="AP207">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ207">
         <v>1.89</v>
@@ -45898,7 +45901,7 @@
         <v>0.6</v>
       </c>
       <c r="AP215">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ215">
         <v>1.47</v>
@@ -46725,7 +46728,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ219">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR219">
         <v>1.25</v>
@@ -46931,7 +46934,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ220">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR220">
         <v>1.37</v>
@@ -47134,7 +47137,7 @@
         <v>0.36</v>
       </c>
       <c r="AP221">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ221">
         <v>0.5</v>
@@ -49400,7 +49403,7 @@
         <v>2</v>
       </c>
       <c r="AP232">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ232">
         <v>2.17</v>
@@ -49734,7 +49737,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50352,7 +50355,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50433,7 +50436,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ237">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR237">
         <v>1.52</v>
@@ -52287,7 +52290,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ246">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR246">
         <v>1.18</v>
@@ -52490,7 +52493,7 @@
         <v>1.08</v>
       </c>
       <c r="AP247">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ247">
         <v>0.83</v>
@@ -54550,7 +54553,7 @@
         <v>1.5</v>
       </c>
       <c r="AP257">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ257">
         <v>1.29</v>
@@ -55171,7 +55174,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ260">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR260">
         <v>1.56</v>
@@ -55583,7 +55586,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ262">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR262">
         <v>1.51</v>
@@ -56198,7 +56201,7 @@
         <v>0.67</v>
       </c>
       <c r="AP265">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ265">
         <v>0.67</v>
@@ -58467,7 +58470,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ276">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR276">
         <v>1.74</v>
@@ -58670,7 +58673,7 @@
         <v>1.38</v>
       </c>
       <c r="AP277">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ277">
         <v>1.39</v>
@@ -58798,7 +58801,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -59622,7 +59625,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59703,7 +59706,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ282">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR282">
         <v>1.31</v>
@@ -59906,7 +59909,7 @@
         <v>0.93</v>
       </c>
       <c r="AP283">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ283">
         <v>0.9399999999999999</v>
@@ -62587,7 +62590,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ296">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR296">
         <v>1.43</v>
@@ -63408,7 +63411,7 @@
         <v>0.64</v>
       </c>
       <c r="AP300">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ300">
         <v>0.67</v>
@@ -65880,7 +65883,7 @@
         <v>1.33</v>
       </c>
       <c r="AP312">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ312">
         <v>1.61</v>
@@ -66089,7 +66092,7 @@
         <v>1</v>
       </c>
       <c r="AQ313">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR313">
         <v>1.33</v>
@@ -66501,7 +66504,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ315">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR315">
         <v>1.67</v>
@@ -67116,7 +67119,7 @@
         <v>1.07</v>
       </c>
       <c r="AP318">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ318">
         <v>1</v>
@@ -70827,7 +70830,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ336">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR336">
         <v>1.72</v>
@@ -71239,7 +71242,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ338">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR338">
         <v>1.75</v>
@@ -71442,7 +71445,7 @@
         <v>1.5</v>
       </c>
       <c r="AP339">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ339">
         <v>1.39</v>
@@ -71648,7 +71651,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP340">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ340">
         <v>0.78</v>
@@ -74817,6 +74820,418 @@
       </c>
       <c r="BP355">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7492506</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45788.3125</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>80</v>
+      </c>
+      <c r="H356" t="s">
+        <v>81</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>2</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>136</v>
+      </c>
+      <c r="P356" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q356">
+        <v>2</v>
+      </c>
+      <c r="R356">
+        <v>2.3</v>
+      </c>
+      <c r="S356">
+        <v>6.5</v>
+      </c>
+      <c r="T356">
+        <v>1.36</v>
+      </c>
+      <c r="U356">
+        <v>3</v>
+      </c>
+      <c r="V356">
+        <v>2.63</v>
+      </c>
+      <c r="W356">
+        <v>1.44</v>
+      </c>
+      <c r="X356">
+        <v>7</v>
+      </c>
+      <c r="Y356">
+        <v>1.1</v>
+      </c>
+      <c r="Z356">
+        <v>1.51</v>
+      </c>
+      <c r="AA356">
+        <v>4.1</v>
+      </c>
+      <c r="AB356">
+        <v>6</v>
+      </c>
+      <c r="AC356">
+        <v>1.04</v>
+      </c>
+      <c r="AD356">
+        <v>10</v>
+      </c>
+      <c r="AE356">
+        <v>1.25</v>
+      </c>
+      <c r="AF356">
+        <v>3.7</v>
+      </c>
+      <c r="AG356">
+        <v>1.89</v>
+      </c>
+      <c r="AH356">
+        <v>1.85</v>
+      </c>
+      <c r="AI356">
+        <v>2</v>
+      </c>
+      <c r="AJ356">
+        <v>1.75</v>
+      </c>
+      <c r="AK356">
+        <v>1.11</v>
+      </c>
+      <c r="AL356">
+        <v>1.17</v>
+      </c>
+      <c r="AM356">
+        <v>2.6</v>
+      </c>
+      <c r="AN356">
+        <v>1.41</v>
+      </c>
+      <c r="AO356">
+        <v>0.41</v>
+      </c>
+      <c r="AP356">
+        <v>1.33</v>
+      </c>
+      <c r="AQ356">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR356">
+        <v>1.3</v>
+      </c>
+      <c r="AS356">
+        <v>0.96</v>
+      </c>
+      <c r="AT356">
+        <v>2.26</v>
+      </c>
+      <c r="AU356">
+        <v>6</v>
+      </c>
+      <c r="AV356">
+        <v>3</v>
+      </c>
+      <c r="AW356">
+        <v>16</v>
+      </c>
+      <c r="AX356">
+        <v>3</v>
+      </c>
+      <c r="AY356">
+        <v>25</v>
+      </c>
+      <c r="AZ356">
+        <v>6</v>
+      </c>
+      <c r="BA356">
+        <v>7</v>
+      </c>
+      <c r="BB356">
+        <v>0</v>
+      </c>
+      <c r="BC356">
+        <v>7</v>
+      </c>
+      <c r="BD356">
+        <v>1.38</v>
+      </c>
+      <c r="BE356">
+        <v>9.6</v>
+      </c>
+      <c r="BF356">
+        <v>3.86</v>
+      </c>
+      <c r="BG356">
+        <v>1.27</v>
+      </c>
+      <c r="BH356">
+        <v>3.14</v>
+      </c>
+      <c r="BI356">
+        <v>1.52</v>
+      </c>
+      <c r="BJ356">
+        <v>2.3</v>
+      </c>
+      <c r="BK356">
+        <v>1.85</v>
+      </c>
+      <c r="BL356">
+        <v>1.85</v>
+      </c>
+      <c r="BM356">
+        <v>2.48</v>
+      </c>
+      <c r="BN356">
+        <v>1.45</v>
+      </c>
+      <c r="BO356">
+        <v>3.34</v>
+      </c>
+      <c r="BP356">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7492501</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>75</v>
+      </c>
+      <c r="H357" t="s">
+        <v>78</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357" t="s">
+        <v>298</v>
+      </c>
+      <c r="P357" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q357">
+        <v>3.1</v>
+      </c>
+      <c r="R357">
+        <v>1.95</v>
+      </c>
+      <c r="S357">
+        <v>4</v>
+      </c>
+      <c r="T357">
+        <v>1.53</v>
+      </c>
+      <c r="U357">
+        <v>2.38</v>
+      </c>
+      <c r="V357">
+        <v>3.5</v>
+      </c>
+      <c r="W357">
+        <v>1.29</v>
+      </c>
+      <c r="X357">
+        <v>11</v>
+      </c>
+      <c r="Y357">
+        <v>1.05</v>
+      </c>
+      <c r="Z357">
+        <v>2.24</v>
+      </c>
+      <c r="AA357">
+        <v>2.96</v>
+      </c>
+      <c r="AB357">
+        <v>3.5</v>
+      </c>
+      <c r="AC357">
+        <v>1.09</v>
+      </c>
+      <c r="AD357">
+        <v>7</v>
+      </c>
+      <c r="AE357">
+        <v>1.4</v>
+      </c>
+      <c r="AF357">
+        <v>2.9</v>
+      </c>
+      <c r="AG357">
+        <v>2.25</v>
+      </c>
+      <c r="AH357">
+        <v>1.57</v>
+      </c>
+      <c r="AI357">
+        <v>2.05</v>
+      </c>
+      <c r="AJ357">
+        <v>1.7</v>
+      </c>
+      <c r="AK357">
+        <v>1.25</v>
+      </c>
+      <c r="AL357">
+        <v>1.33</v>
+      </c>
+      <c r="AM357">
+        <v>1.67</v>
+      </c>
+      <c r="AN357">
+        <v>0.88</v>
+      </c>
+      <c r="AO357">
+        <v>0.71</v>
+      </c>
+      <c r="AP357">
+        <v>0.89</v>
+      </c>
+      <c r="AQ357">
+        <v>0.72</v>
+      </c>
+      <c r="AR357">
+        <v>1.18</v>
+      </c>
+      <c r="AS357">
+        <v>1.21</v>
+      </c>
+      <c r="AT357">
+        <v>2.39</v>
+      </c>
+      <c r="AU357">
+        <v>3</v>
+      </c>
+      <c r="AV357">
+        <v>4</v>
+      </c>
+      <c r="AW357">
+        <v>4</v>
+      </c>
+      <c r="AX357">
+        <v>8</v>
+      </c>
+      <c r="AY357">
+        <v>8</v>
+      </c>
+      <c r="AZ357">
+        <v>13</v>
+      </c>
+      <c r="BA357">
+        <v>3</v>
+      </c>
+      <c r="BB357">
+        <v>6</v>
+      </c>
+      <c r="BC357">
+        <v>9</v>
+      </c>
+      <c r="BD357">
+        <v>1.7</v>
+      </c>
+      <c r="BE357">
+        <v>8.5</v>
+      </c>
+      <c r="BF357">
+        <v>2.62</v>
+      </c>
+      <c r="BG357">
+        <v>1.27</v>
+      </c>
+      <c r="BH357">
+        <v>3.14</v>
+      </c>
+      <c r="BI357">
+        <v>1.53</v>
+      </c>
+      <c r="BJ357">
+        <v>2.28</v>
+      </c>
+      <c r="BK357">
+        <v>1.8</v>
+      </c>
+      <c r="BL357">
+        <v>1.91</v>
+      </c>
+      <c r="BM357">
+        <v>2.51</v>
+      </c>
+      <c r="BN357">
+        <v>1.44</v>
+      </c>
+      <c r="BO357">
+        <v>3.34</v>
+      </c>
+      <c r="BP357">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="439">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -913,6 +913,9 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['15', '64']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1189,9 +1192,6 @@
     <t>['71', '76']</t>
   </si>
   <si>
-    <t>['15', '64']</t>
-  </si>
-  <si>
     <t>['27', '40', '78']</t>
   </si>
   <si>
@@ -1325,6 +1325,12 @@
   </si>
   <si>
     <t>['52', '90']</t>
+  </si>
+  <si>
+    <t>['14', '49']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP357"/>
+  <dimension ref="A1:BP359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1945,7 +1951,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2026,7 +2032,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2563,7 +2569,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2769,7 +2775,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3387,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3593,7 +3599,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4211,7 +4217,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4417,7 +4423,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -5113,7 +5119,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
         <v>2.17</v>
@@ -5319,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.39</v>
@@ -5447,7 +5453,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5859,7 +5865,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -6065,7 +6071,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6477,7 +6483,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6889,7 +6895,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7095,7 +7101,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7173,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -7301,7 +7307,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7507,7 +7513,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -8125,7 +8131,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8949,7 +8955,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9233,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ37">
         <v>0.72</v>
@@ -9361,7 +9367,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9567,7 +9573,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9648,7 +9654,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ39">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9773,7 +9779,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10185,7 +10191,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10391,7 +10397,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11009,7 +11015,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11421,7 +11427,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11833,7 +11839,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12039,7 +12045,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12451,7 +12457,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12532,7 +12538,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12657,7 +12663,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12863,7 +12869,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13069,7 +13075,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13147,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ56">
         <v>1.89</v>
@@ -13275,7 +13281,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13971,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
         <v>0.5600000000000001</v>
@@ -14099,7 +14105,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14383,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.06</v>
@@ -14923,7 +14929,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15129,7 +15135,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15335,7 +15341,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -16571,7 +16577,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -17189,7 +17195,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17395,7 +17401,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17601,7 +17607,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17807,7 +17813,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18094,7 +18100,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -18219,7 +18225,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18709,7 +18715,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18915,7 +18921,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
         <v>0.72</v>
@@ -19043,7 +19049,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19661,7 +19667,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19867,7 +19873,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20073,7 +20079,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20279,7 +20285,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20691,7 +20697,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20897,7 +20903,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21103,7 +21109,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21184,7 +21190,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ95">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR95">
         <v>0.91</v>
@@ -21515,7 +21521,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21927,7 +21933,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22545,7 +22551,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22957,7 +22963,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23035,7 +23041,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ104">
         <v>2.17</v>
@@ -23241,7 +23247,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ105">
         <v>1.29</v>
@@ -23369,7 +23375,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -24399,7 +24405,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24605,7 +24611,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24811,7 +24817,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25017,7 +25023,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25429,7 +25435,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25635,7 +25641,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26459,7 +26465,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26540,7 +26546,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ121">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26871,7 +26877,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27077,7 +27083,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27283,7 +27289,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27489,7 +27495,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27567,7 +27573,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27773,7 +27779,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -28107,7 +28113,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -29343,7 +29349,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29549,7 +29555,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29627,7 +29633,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -29961,7 +29967,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30167,7 +30173,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30991,7 +30997,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31197,7 +31203,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31609,7 +31615,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31815,7 +31821,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32099,7 +32105,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148">
         <v>1.89</v>
@@ -32227,7 +32233,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32639,7 +32645,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32845,7 +32851,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -33051,7 +33057,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33463,7 +33469,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -34287,7 +34293,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34368,7 +34374,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34699,7 +34705,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34777,7 +34783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ161">
         <v>1.39</v>
@@ -34905,7 +34911,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35111,7 +35117,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35523,7 +35529,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35729,7 +35735,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35935,7 +35941,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36141,7 +36147,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36759,7 +36765,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36965,7 +36971,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37046,7 +37052,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR172">
         <v>1.46</v>
@@ -37171,7 +37177,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37377,7 +37383,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37661,7 +37667,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ175">
         <v>0.5</v>
@@ -37789,7 +37795,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38407,7 +38413,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38819,7 +38825,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39231,7 +39237,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39721,7 +39727,7 @@
         <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ185">
         <v>0.67</v>
@@ -40467,7 +40473,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40751,7 +40757,7 @@
         <v>2</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ190">
         <v>1.5</v>
@@ -40879,7 +40885,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -41372,7 +41378,7 @@
         <v>1</v>
       </c>
       <c r="AQ193">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR193">
         <v>1.41</v>
@@ -41497,7 +41503,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41781,7 +41787,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ195">
         <v>0.9399999999999999</v>
@@ -42115,7 +42121,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42527,7 +42533,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>1.95</v>
@@ -42733,7 +42739,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43763,7 +43769,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44871,7 +44877,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ210">
         <v>0.78</v>
@@ -45283,7 +45289,7 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ212">
         <v>1.5</v>
@@ -45617,7 +45623,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -46110,7 +46116,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ216">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR216">
         <v>1.3</v>
@@ -46441,7 +46447,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -47471,7 +47477,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -48089,7 +48095,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48376,7 +48382,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ227">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR227">
         <v>1.73</v>
@@ -48994,7 +49000,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ230">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR230">
         <v>1.55</v>
@@ -49737,7 +49743,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49815,7 +49821,7 @@
         <v>1.27</v>
       </c>
       <c r="AP234">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ234">
         <v>1</v>
@@ -50355,7 +50361,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50767,7 +50773,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -50845,7 +50851,7 @@
         <v>1.09</v>
       </c>
       <c r="AP239">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ239">
         <v>1.11</v>
@@ -52621,7 +52627,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -52908,7 +52914,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ249">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR249">
         <v>1.57</v>
@@ -53935,7 +53941,7 @@
         <v>1.55</v>
       </c>
       <c r="AP254">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ254">
         <v>1.61</v>
@@ -54269,7 +54275,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -55995,10 +56001,10 @@
         <v>2.08</v>
       </c>
       <c r="AP264">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ264">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR264">
         <v>1.6</v>
@@ -58801,7 +58807,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -58879,7 +58885,7 @@
         <v>1.38</v>
       </c>
       <c r="AP278">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ278">
         <v>1.29</v>
@@ -59625,7 +59631,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -60243,7 +60249,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60527,7 +60533,7 @@
         <v>1</v>
       </c>
       <c r="AP286">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ286">
         <v>0.83</v>
@@ -61560,7 +61566,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ291">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR291">
         <v>1.86</v>
@@ -63205,7 +63211,7 @@
         <v>1.43</v>
       </c>
       <c r="AP299">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ299">
         <v>1.61</v>
@@ -64238,7 +64244,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ304">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR304">
         <v>1.35</v>
@@ -64853,7 +64859,7 @@
         <v>1.07</v>
       </c>
       <c r="AP307">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ307">
         <v>0.9399999999999999</v>
@@ -65393,7 +65399,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -67737,7 +67743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP321">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ321">
         <v>0.83</v>
@@ -68770,7 +68776,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ326">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR326">
         <v>1.79</v>
@@ -69385,7 +69391,7 @@
         <v>1.06</v>
       </c>
       <c r="AP329">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ329">
         <v>1.11</v>
@@ -71033,7 +71039,7 @@
         <v>1.12</v>
       </c>
       <c r="AP337">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ337">
         <v>1.06</v>
@@ -72063,7 +72069,7 @@
         <v>0.47</v>
       </c>
       <c r="AP342">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ342">
         <v>0.5</v>
@@ -75232,6 +75238,418 @@
       </c>
       <c r="BP357">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7492505</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>84</v>
+      </c>
+      <c r="H358" t="s">
+        <v>82</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>2</v>
+      </c>
+      <c r="N358">
+        <v>2</v>
+      </c>
+      <c r="O358" t="s">
+        <v>92</v>
+      </c>
+      <c r="P358" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q358">
+        <v>6</v>
+      </c>
+      <c r="R358">
+        <v>2.25</v>
+      </c>
+      <c r="S358">
+        <v>2.1</v>
+      </c>
+      <c r="T358">
+        <v>1.36</v>
+      </c>
+      <c r="U358">
+        <v>3</v>
+      </c>
+      <c r="V358">
+        <v>2.75</v>
+      </c>
+      <c r="W358">
+        <v>1.4</v>
+      </c>
+      <c r="X358">
+        <v>7</v>
+      </c>
+      <c r="Y358">
+        <v>1.1</v>
+      </c>
+      <c r="Z358">
+        <v>6.2</v>
+      </c>
+      <c r="AA358">
+        <v>4.1</v>
+      </c>
+      <c r="AB358">
+        <v>1.51</v>
+      </c>
+      <c r="AC358">
+        <v>1.05</v>
+      </c>
+      <c r="AD358">
+        <v>9.5</v>
+      </c>
+      <c r="AE358">
+        <v>1.3</v>
+      </c>
+      <c r="AF358">
+        <v>3.45</v>
+      </c>
+      <c r="AG358">
+        <v>1.98</v>
+      </c>
+      <c r="AH358">
+        <v>1.77</v>
+      </c>
+      <c r="AI358">
+        <v>1.95</v>
+      </c>
+      <c r="AJ358">
+        <v>1.8</v>
+      </c>
+      <c r="AK358">
+        <v>2.38</v>
+      </c>
+      <c r="AL358">
+        <v>1.18</v>
+      </c>
+      <c r="AM358">
+        <v>1.13</v>
+      </c>
+      <c r="AN358">
+        <v>1.47</v>
+      </c>
+      <c r="AO358">
+        <v>1.88</v>
+      </c>
+      <c r="AP358">
+        <v>1.39</v>
+      </c>
+      <c r="AQ358">
+        <v>1.94</v>
+      </c>
+      <c r="AR358">
+        <v>1.21</v>
+      </c>
+      <c r="AS358">
+        <v>1.53</v>
+      </c>
+      <c r="AT358">
+        <v>2.74</v>
+      </c>
+      <c r="AU358">
+        <v>4</v>
+      </c>
+      <c r="AV358">
+        <v>8</v>
+      </c>
+      <c r="AW358">
+        <v>14</v>
+      </c>
+      <c r="AX358">
+        <v>5</v>
+      </c>
+      <c r="AY358">
+        <v>25</v>
+      </c>
+      <c r="AZ358">
+        <v>14</v>
+      </c>
+      <c r="BA358">
+        <v>9</v>
+      </c>
+      <c r="BB358">
+        <v>3</v>
+      </c>
+      <c r="BC358">
+        <v>12</v>
+      </c>
+      <c r="BD358">
+        <v>4.05</v>
+      </c>
+      <c r="BE358">
+        <v>9.5</v>
+      </c>
+      <c r="BF358">
+        <v>1.36</v>
+      </c>
+      <c r="BG358">
+        <v>1.31</v>
+      </c>
+      <c r="BH358">
+        <v>2.92</v>
+      </c>
+      <c r="BI358">
+        <v>1.7</v>
+      </c>
+      <c r="BJ358">
+        <v>2.05</v>
+      </c>
+      <c r="BK358">
+        <v>2.02</v>
+      </c>
+      <c r="BL358">
+        <v>1.71</v>
+      </c>
+      <c r="BM358">
+        <v>2.64</v>
+      </c>
+      <c r="BN358">
+        <v>1.4</v>
+      </c>
+      <c r="BO358">
+        <v>3.58</v>
+      </c>
+      <c r="BP358">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7492504</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45788.65625</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>85</v>
+      </c>
+      <c r="H359" t="s">
+        <v>70</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359" t="s">
+        <v>299</v>
+      </c>
+      <c r="P359" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q359">
+        <v>1.8</v>
+      </c>
+      <c r="R359">
+        <v>2.38</v>
+      </c>
+      <c r="S359">
+        <v>11</v>
+      </c>
+      <c r="T359">
+        <v>1.4</v>
+      </c>
+      <c r="U359">
+        <v>2.75</v>
+      </c>
+      <c r="V359">
+        <v>3</v>
+      </c>
+      <c r="W359">
+        <v>1.36</v>
+      </c>
+      <c r="X359">
+        <v>8</v>
+      </c>
+      <c r="Y359">
+        <v>1.08</v>
+      </c>
+      <c r="Z359">
+        <v>1.34</v>
+      </c>
+      <c r="AA359">
+        <v>4.6</v>
+      </c>
+      <c r="AB359">
+        <v>9.4</v>
+      </c>
+      <c r="AC359">
+        <v>1.05</v>
+      </c>
+      <c r="AD359">
+        <v>9.5</v>
+      </c>
+      <c r="AE359">
+        <v>1.3</v>
+      </c>
+      <c r="AF359">
+        <v>3.35</v>
+      </c>
+      <c r="AG359">
+        <v>1.98</v>
+      </c>
+      <c r="AH359">
+        <v>1.77</v>
+      </c>
+      <c r="AI359">
+        <v>2.63</v>
+      </c>
+      <c r="AJ359">
+        <v>1.44</v>
+      </c>
+      <c r="AK359">
+        <v>1.04</v>
+      </c>
+      <c r="AL359">
+        <v>1.14</v>
+      </c>
+      <c r="AM359">
+        <v>3.45</v>
+      </c>
+      <c r="AN359">
+        <v>2.41</v>
+      </c>
+      <c r="AO359">
+        <v>1</v>
+      </c>
+      <c r="AP359">
+        <v>2.33</v>
+      </c>
+      <c r="AQ359">
+        <v>1</v>
+      </c>
+      <c r="AR359">
+        <v>1.64</v>
+      </c>
+      <c r="AS359">
+        <v>1.02</v>
+      </c>
+      <c r="AT359">
+        <v>2.66</v>
+      </c>
+      <c r="AU359">
+        <v>12</v>
+      </c>
+      <c r="AV359">
+        <v>3</v>
+      </c>
+      <c r="AW359">
+        <v>11</v>
+      </c>
+      <c r="AX359">
+        <v>6</v>
+      </c>
+      <c r="AY359">
+        <v>29</v>
+      </c>
+      <c r="AZ359">
+        <v>9</v>
+      </c>
+      <c r="BA359">
+        <v>8</v>
+      </c>
+      <c r="BB359">
+        <v>0</v>
+      </c>
+      <c r="BC359">
+        <v>8</v>
+      </c>
+      <c r="BD359">
+        <v>1.18</v>
+      </c>
+      <c r="BE359">
+        <v>12.25</v>
+      </c>
+      <c r="BF359">
+        <v>6.35</v>
+      </c>
+      <c r="BG359">
+        <v>1.26</v>
+      </c>
+      <c r="BH359">
+        <v>3.22</v>
+      </c>
+      <c r="BI359">
+        <v>1.5</v>
+      </c>
+      <c r="BJ359">
+        <v>2.35</v>
+      </c>
+      <c r="BK359">
+        <v>1.85</v>
+      </c>
+      <c r="BL359">
+        <v>1.85</v>
+      </c>
+      <c r="BM359">
+        <v>2.42</v>
+      </c>
+      <c r="BN359">
+        <v>1.47</v>
+      </c>
+      <c r="BO359">
+        <v>3.2</v>
+      </c>
+      <c r="BP359">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="441">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['60', '68']</t>
   </si>
   <si>
+    <t>['9', '76']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1695,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP360"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1954,7 +1957,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2572,7 +2575,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2778,7 +2781,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3271,7 +3274,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3396,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3602,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -4220,7 +4223,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4426,7 +4429,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -5456,7 +5459,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5868,7 +5871,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -6074,7 +6077,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6486,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6898,7 +6901,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7104,7 +7107,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7310,7 +7313,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7516,7 +7519,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7803,7 +7806,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR30">
         <v>1.66</v>
@@ -8134,7 +8137,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8833,7 +8836,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8958,7 +8961,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9036,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -9370,7 +9373,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9576,7 +9579,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9782,7 +9785,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10194,7 +10197,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10400,7 +10403,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11018,7 +11021,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11430,7 +11433,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11842,7 +11845,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -12048,7 +12051,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12126,7 +12129,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12460,7 +12463,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12666,7 +12669,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12872,7 +12875,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13078,7 +13081,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13284,7 +13287,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -14108,7 +14111,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14932,7 +14935,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15010,7 +15013,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15138,7 +15141,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15344,7 +15347,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -16043,7 +16046,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ70">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
         <v>0.9399999999999999</v>
@@ -16580,7 +16583,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -17198,7 +17201,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17404,7 +17407,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17610,7 +17613,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17816,7 +17819,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18228,7 +18231,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -19052,7 +19055,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19130,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -19670,7 +19673,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19876,7 +19879,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -20082,7 +20085,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20163,7 +20166,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ90">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR90">
         <v>1.56</v>
@@ -20288,7 +20291,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20700,7 +20703,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20906,7 +20909,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21112,7 +21115,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21396,7 +21399,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21524,7 +21527,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21936,7 +21939,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22554,7 +22557,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22966,7 +22969,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23378,7 +23381,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23459,7 +23462,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ106">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -24408,7 +24411,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24614,7 +24617,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24820,7 +24823,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25026,7 +25029,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25438,7 +25441,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25516,7 +25519,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ116">
         <v>1.11</v>
@@ -25644,7 +25647,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26468,7 +26471,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26880,7 +26883,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27086,7 +27089,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27292,7 +27295,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27498,7 +27501,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27785,7 +27788,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -28116,7 +28119,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -29352,7 +29355,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29558,7 +29561,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29970,7 +29973,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30176,7 +30179,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30666,7 +30669,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ141">
         <v>1.61</v>
@@ -31000,7 +31003,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31206,7 +31209,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31618,7 +31621,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31824,7 +31827,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32236,7 +32239,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32648,7 +32651,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32854,7 +32857,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -33060,7 +33063,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33472,7 +33475,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -33965,7 +33968,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ157">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR157">
         <v>1.44</v>
@@ -34296,7 +34299,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34708,7 +34711,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34914,7 +34917,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -35120,7 +35123,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35532,7 +35535,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35738,7 +35741,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35816,7 +35819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ166">
         <v>0.83</v>
@@ -35944,7 +35947,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36150,7 +36153,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36768,7 +36771,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36974,7 +36977,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37180,7 +37183,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37386,7 +37389,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37798,7 +37801,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38085,7 +38088,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR177">
         <v>1.56</v>
@@ -38416,7 +38419,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38828,7 +38831,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39240,7 +39243,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -40476,7 +40479,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40888,7 +40891,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -41506,7 +41509,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41587,7 +41590,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ194">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.66</v>
@@ -42124,7 +42127,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42408,7 +42411,7 @@
         <v>1.89</v>
       </c>
       <c r="AP198">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ198">
         <v>1.5</v>
@@ -42742,7 +42745,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43360,7 +43363,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43438,7 +43441,7 @@
         <v>2.3</v>
       </c>
       <c r="AP203">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ203">
         <v>2</v>
@@ -43772,7 +43775,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44184,7 +44187,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44390,7 +44393,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -45008,7 +45011,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45626,7 +45629,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45832,7 +45835,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45913,7 +45916,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ215">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR215">
         <v>1.04</v>
@@ -46038,7 +46041,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46244,7 +46247,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46450,7 +46453,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46862,7 +46865,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47068,7 +47071,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47480,7 +47483,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47558,7 +47561,7 @@
         <v>1.18</v>
       </c>
       <c r="AP223">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ223">
         <v>1.06</v>
@@ -48098,7 +48101,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48510,7 +48513,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48716,7 +48719,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49128,7 +49131,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49334,7 +49337,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49540,7 +49543,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49746,7 +49749,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50033,7 +50036,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ235">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR235">
         <v>1.34</v>
@@ -50364,7 +50367,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50776,7 +50779,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -51188,7 +51191,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51472,7 +51475,7 @@
         <v>0.82</v>
       </c>
       <c r="AP242">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ242">
         <v>0.78</v>
@@ -51600,7 +51603,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -52012,7 +52015,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52630,7 +52633,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -52711,7 +52714,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ248">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR248">
         <v>1.44</v>
@@ -54278,7 +54281,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54690,7 +54693,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54896,7 +54899,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55798,7 +55801,7 @@
         <v>0.31</v>
       </c>
       <c r="AP263">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ263">
         <v>0.5</v>
@@ -56338,7 +56341,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -57162,7 +57165,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57780,7 +57783,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -58192,7 +58195,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58398,7 +58401,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58604,7 +58607,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58810,7 +58813,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -59016,7 +59019,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59097,7 +59100,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ279">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR279">
         <v>0.99</v>
@@ -59222,7 +59225,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59634,7 +59637,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -60046,7 +60049,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60252,7 +60255,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -61488,7 +61491,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61566,7 +61569,7 @@
         <v>2</v>
       </c>
       <c r="AP291">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ291">
         <v>1.94</v>
@@ -62393,7 +62396,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ295">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR295">
         <v>1.28</v>
@@ -62930,7 +62933,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63136,7 +63139,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63548,7 +63551,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63960,7 +63963,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64166,7 +64169,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64372,7 +64375,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -65274,7 +65277,7 @@
         <v>1.67</v>
       </c>
       <c r="AP309">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ309">
         <v>1.89</v>
@@ -65402,7 +65405,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65814,7 +65817,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66226,7 +66229,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -66716,7 +66719,7 @@
         <v>1.6</v>
       </c>
       <c r="AP316">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ316">
         <v>1.39</v>
@@ -67543,7 +67546,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ320">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR320">
         <v>1.63</v>
@@ -67874,7 +67877,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -68492,7 +68495,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -69110,7 +69113,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69522,7 +69525,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70140,7 +70143,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -70633,7 +70636,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ335">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR335">
         <v>1.82</v>
@@ -71170,7 +71173,7 @@
         <v>292</v>
       </c>
       <c r="P338" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q338">
         <v>1.73</v>
@@ -71248,7 +71251,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP338">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ338">
         <v>0.72</v>
@@ -71582,7 +71585,7 @@
         <v>92</v>
       </c>
       <c r="P340" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q340">
         <v>3.25</v>
@@ -71788,7 +71791,7 @@
         <v>293</v>
       </c>
       <c r="P341" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q341">
         <v>2.05</v>
@@ -72406,7 +72409,7 @@
         <v>189</v>
       </c>
       <c r="P344" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q344">
         <v>2.88</v>
@@ -73024,7 +73027,7 @@
         <v>92</v>
       </c>
       <c r="P347" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q347">
         <v>4.75</v>
@@ -73230,7 +73233,7 @@
         <v>92</v>
       </c>
       <c r="P348" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q348">
         <v>9.5</v>
@@ -73848,7 +73851,7 @@
         <v>270</v>
       </c>
       <c r="P351" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74878,7 +74881,7 @@
         <v>136</v>
       </c>
       <c r="P356" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q356">
         <v>2</v>
@@ -75290,7 +75293,7 @@
         <v>92</v>
       </c>
       <c r="P358" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -75496,7 +75499,7 @@
         <v>299</v>
       </c>
       <c r="P359" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q359">
         <v>1.8</v>
@@ -75859,6 +75862,212 @@
       </c>
       <c r="BP360">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7492498</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45789.65625</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>89</v>
+      </c>
+      <c r="H361" t="s">
+        <v>86</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>3</v>
+      </c>
+      <c r="O361" t="s">
+        <v>301</v>
+      </c>
+      <c r="P361" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q361">
+        <v>2.5</v>
+      </c>
+      <c r="R361">
+        <v>2.3</v>
+      </c>
+      <c r="S361">
+        <v>4</v>
+      </c>
+      <c r="T361">
+        <v>1.33</v>
+      </c>
+      <c r="U361">
+        <v>3.25</v>
+      </c>
+      <c r="V361">
+        <v>2.63</v>
+      </c>
+      <c r="W361">
+        <v>1.44</v>
+      </c>
+      <c r="X361">
+        <v>6.5</v>
+      </c>
+      <c r="Y361">
+        <v>1.11</v>
+      </c>
+      <c r="Z361">
+        <v>1.86</v>
+      </c>
+      <c r="AA361">
+        <v>3.52</v>
+      </c>
+      <c r="AB361">
+        <v>4</v>
+      </c>
+      <c r="AC361">
+        <v>1.05</v>
+      </c>
+      <c r="AD361">
+        <v>9.5</v>
+      </c>
+      <c r="AE361">
+        <v>1.25</v>
+      </c>
+      <c r="AF361">
+        <v>3.75</v>
+      </c>
+      <c r="AG361">
+        <v>1.8</v>
+      </c>
+      <c r="AH361">
+        <v>1.94</v>
+      </c>
+      <c r="AI361">
+        <v>1.67</v>
+      </c>
+      <c r="AJ361">
+        <v>2.1</v>
+      </c>
+      <c r="AK361">
+        <v>1.28</v>
+      </c>
+      <c r="AL361">
+        <v>1.25</v>
+      </c>
+      <c r="AM361">
+        <v>1.8</v>
+      </c>
+      <c r="AN361">
+        <v>1.71</v>
+      </c>
+      <c r="AO361">
+        <v>1.47</v>
+      </c>
+      <c r="AP361">
+        <v>1.78</v>
+      </c>
+      <c r="AQ361">
+        <v>1.39</v>
+      </c>
+      <c r="AR361">
+        <v>1.81</v>
+      </c>
+      <c r="AS361">
+        <v>1.46</v>
+      </c>
+      <c r="AT361">
+        <v>3.27</v>
+      </c>
+      <c r="AU361">
+        <v>-1</v>
+      </c>
+      <c r="AV361">
+        <v>-1</v>
+      </c>
+      <c r="AW361">
+        <v>-1</v>
+      </c>
+      <c r="AX361">
+        <v>-1</v>
+      </c>
+      <c r="AY361">
+        <v>-1</v>
+      </c>
+      <c r="AZ361">
+        <v>-1</v>
+      </c>
+      <c r="BA361">
+        <v>-1</v>
+      </c>
+      <c r="BB361">
+        <v>-1</v>
+      </c>
+      <c r="BC361">
+        <v>-1</v>
+      </c>
+      <c r="BD361">
+        <v>1.5</v>
+      </c>
+      <c r="BE361">
+        <v>8.5</v>
+      </c>
+      <c r="BF361">
+        <v>3.3</v>
+      </c>
+      <c r="BG361">
+        <v>1.45</v>
+      </c>
+      <c r="BH361">
+        <v>2.48</v>
+      </c>
+      <c r="BI361">
+        <v>1.83</v>
+      </c>
+      <c r="BJ361">
+        <v>1.87</v>
+      </c>
+      <c r="BK361">
+        <v>2.38</v>
+      </c>
+      <c r="BL361">
+        <v>1.49</v>
+      </c>
+      <c r="BM361">
+        <v>3.2</v>
+      </c>
+      <c r="BN361">
+        <v>1.26</v>
+      </c>
+      <c r="BO361">
+        <v>4.6</v>
+      </c>
+      <c r="BP361">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -76004,31 +76004,31 @@
         <v>3.27</v>
       </c>
       <c r="AU361">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV361">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW361">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX361">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY361">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ361">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA361">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB361">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC361">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD361">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="450">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,24 @@
     <t>['9', '76']</t>
   </si>
   <si>
+    <t>['37', '58']</t>
+  </si>
+  <si>
+    <t>['3', '58', '87']</t>
+  </si>
+  <si>
+    <t>['61', '88']</t>
+  </si>
+  <si>
+    <t>['13', '67', '84']</t>
+  </si>
+  <si>
+    <t>['11', '41', '71']</t>
+  </si>
+  <si>
+    <t>['45+2', '79']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -1338,6 +1356,15 @@
   <si>
     <t>['32', '84']</t>
   </si>
+  <si>
+    <t>['47', '63', '89']</t>
+  </si>
+  <si>
+    <t>['49', '51', '59']</t>
+  </si>
+  <si>
+    <t>['61', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1957,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2035,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ2">
         <v>1.94</v>
@@ -2575,7 +2602,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2656,7 +2683,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2781,7 +2808,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2862,7 +2889,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3068,7 +3095,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3271,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ8">
         <v>1.39</v>
@@ -3399,7 +3426,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3480,7 +3507,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3605,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3683,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ10">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3889,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4098,7 +4125,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4223,7 +4250,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4304,7 +4331,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -4429,7 +4456,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4507,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4713,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ15">
         <v>0.72</v>
@@ -4919,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5128,7 +5155,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5334,7 +5361,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5459,7 +5486,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5537,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5743,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ20">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5871,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -6077,7 +6104,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6158,7 +6185,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6361,10 +6388,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ23">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6489,7 +6516,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6570,7 +6597,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6773,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ25">
         <v>0.78</v>
@@ -6901,7 +6928,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6982,7 +7009,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR26">
         <v>1.67</v>
@@ -7107,7 +7134,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7313,7 +7340,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7391,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28">
         <v>0.5600000000000001</v>
@@ -7519,7 +7546,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7597,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7803,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>1.39</v>
@@ -8012,7 +8039,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR31">
         <v>0.95</v>
@@ -8137,7 +8164,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8218,7 +8245,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ32">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8630,7 +8657,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8833,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ35">
         <v>1.39</v>
@@ -8961,7 +8988,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -9373,7 +9400,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9451,10 +9478,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9579,7 +9606,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9657,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ39">
         <v>1.94</v>
@@ -9785,7 +9812,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9866,7 +9893,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -10197,7 +10224,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10275,10 +10302,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10403,7 +10430,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10484,7 +10511,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ43">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10893,10 +10920,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -11021,7 +11048,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11099,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -11305,10 +11332,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ47">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -11433,7 +11460,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11511,10 +11538,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ48">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11717,10 +11744,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11845,7 +11872,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11923,10 +11950,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ50">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -12051,7 +12078,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12132,7 +12159,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ51">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -12463,7 +12490,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12669,7 +12696,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12747,7 +12774,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12875,7 +12902,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12956,7 +12983,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -13081,7 +13108,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13162,7 +13189,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ56">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -13287,7 +13314,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13571,10 +13598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -14111,7 +14138,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14398,7 +14425,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14604,7 +14631,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14935,7 +14962,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -15141,7 +15168,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -15219,10 +15246,10 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -15347,7 +15374,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15425,7 +15452,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
         <v>0.78</v>
@@ -15634,7 +15661,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -16043,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ70">
         <v>1.39</v>
@@ -16249,10 +16276,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16583,7 +16610,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16661,10 +16688,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ73">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16870,7 +16897,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ74">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -17073,10 +17100,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -17201,7 +17228,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17282,7 +17309,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -17407,7 +17434,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17485,7 +17512,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ77">
         <v>1.22</v>
@@ -17613,7 +17640,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17694,7 +17721,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17819,7 +17846,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17897,10 +17924,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -18103,7 +18130,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ80">
         <v>1.94</v>
@@ -18231,7 +18258,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18724,7 +18751,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -19055,7 +19082,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19342,7 +19369,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19673,7 +19700,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19751,10 +19778,10 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -19879,7 +19906,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19957,7 +19984,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -20085,7 +20112,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20163,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90">
         <v>1.39</v>
@@ -20291,7 +20318,7 @@
         <v>92</v>
       </c>
       <c r="P91" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q91">
         <v>3.5</v>
@@ -20369,10 +20396,10 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ91">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20575,7 +20602,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -20703,7 +20730,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20784,7 +20811,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20909,7 +20936,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20990,7 +21017,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -21115,7 +21142,7 @@
         <v>92</v>
       </c>
       <c r="P95" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q95">
         <v>6.5</v>
@@ -21527,7 +21554,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21605,7 +21632,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ97">
         <v>0.67</v>
@@ -21811,7 +21838,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21939,7 +21966,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22020,7 +22047,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ99">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -22223,10 +22250,10 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ100">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22557,7 +22584,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22841,10 +22868,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ103">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -22969,7 +22996,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -23050,7 +23077,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ104">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -23381,7 +23408,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23665,10 +23692,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ107">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23874,7 +23901,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR108">
         <v>0.82</v>
@@ -24411,7 +24438,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24489,10 +24516,10 @@
         <v>0.57</v>
       </c>
       <c r="AP111">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ111">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24617,7 +24644,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24695,10 +24722,10 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR112">
         <v>1.28</v>
@@ -24823,7 +24850,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25029,7 +25056,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25107,10 +25134,10 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ114">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -25313,10 +25340,10 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25441,7 +25468,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25522,7 +25549,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ116">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25647,7 +25674,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25725,10 +25752,10 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ117">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -25931,7 +25958,7 @@
         <v>0.6</v>
       </c>
       <c r="AP118">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
         <v>0.9399999999999999</v>
@@ -26137,10 +26164,10 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ119">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -26343,10 +26370,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -26471,7 +26498,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26883,7 +26910,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26964,7 +26991,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27089,7 +27116,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27167,7 +27194,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ124">
         <v>0.78</v>
@@ -27295,7 +27322,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27501,7 +27528,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27994,7 +28021,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ128">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -28119,7 +28146,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28200,7 +28227,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR129">
         <v>0.88</v>
@@ -28609,7 +28636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -29024,7 +29051,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -29230,7 +29257,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ134">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29355,7 +29382,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29561,7 +29588,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29642,7 +29669,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR136">
         <v>1.14</v>
@@ -29848,7 +29875,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29973,7 +30000,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -30051,7 +30078,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ138">
         <v>1.5</v>
@@ -30179,7 +30206,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30257,10 +30284,10 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ139">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30463,7 +30490,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30672,7 +30699,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ141">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR141">
         <v>1.73</v>
@@ -30875,10 +30902,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ142">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.3</v>
@@ -31003,7 +31030,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31081,10 +31108,10 @@
         <v>1.57</v>
       </c>
       <c r="AP143">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR143">
         <v>1.47</v>
@@ -31209,7 +31236,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31287,7 +31314,7 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ144">
         <v>0.72</v>
@@ -31493,7 +31520,7 @@
         <v>0.83</v>
       </c>
       <c r="AP145">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ145">
         <v>0.78</v>
@@ -31621,7 +31648,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31702,7 +31729,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR146">
         <v>1.08</v>
@@ -31827,7 +31854,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31908,7 +31935,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -32114,7 +32141,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -32239,7 +32266,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32317,10 +32344,10 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ149">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR149">
         <v>1</v>
@@ -32526,7 +32553,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ150">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>0.84</v>
@@ -32651,7 +32678,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32729,10 +32756,10 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ151">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32857,7 +32884,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32938,7 +32965,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR152">
         <v>1.05</v>
@@ -33063,7 +33090,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -33141,10 +33168,10 @@
         <v>0.25</v>
       </c>
       <c r="AP153">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ153">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33347,7 +33374,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ154">
         <v>0.5600000000000001</v>
@@ -33475,7 +33502,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q155">
         <v>2.4</v>
@@ -34299,7 +34326,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34586,7 +34613,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ160">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR160">
         <v>1.12</v>
@@ -34711,7 +34738,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34792,7 +34819,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ161">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR161">
         <v>1.07</v>
@@ -34917,7 +34944,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34995,10 +35022,10 @@
         <v>2.13</v>
       </c>
       <c r="AP162">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR162">
         <v>1.24</v>
@@ -35123,7 +35150,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35201,10 +35228,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ163">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35407,7 +35434,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ164">
         <v>0.67</v>
@@ -35535,7 +35562,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35741,7 +35768,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35822,7 +35849,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ166">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR166">
         <v>1.76</v>
@@ -35947,7 +35974,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -36025,7 +36052,7 @@
         <v>1.86</v>
       </c>
       <c r="AP167">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ167">
         <v>1.5</v>
@@ -36153,7 +36180,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36231,10 +36258,10 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ168">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR168">
         <v>1.6</v>
@@ -36437,10 +36464,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ169">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR169">
         <v>1.57</v>
@@ -36771,7 +36798,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36977,7 +37004,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -37055,7 +37082,7 @@
         <v>2.43</v>
       </c>
       <c r="AP172">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ172">
         <v>1.94</v>
@@ -37183,7 +37210,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37264,7 +37291,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ173">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37389,7 +37416,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37470,7 +37497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ174">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.03</v>
@@ -37676,7 +37703,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ175">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37801,7 +37828,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -37879,7 +37906,7 @@
         <v>1.75</v>
       </c>
       <c r="AP176">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ176">
         <v>1.22</v>
@@ -38419,7 +38446,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38706,7 +38733,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR180">
         <v>1.47</v>
@@ -38831,7 +38858,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38909,10 +38936,10 @@
         <v>2.22</v>
       </c>
       <c r="AP181">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR181">
         <v>1.57</v>
@@ -39118,7 +39145,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ182">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR182">
         <v>1.12</v>
@@ -39243,7 +39270,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39321,7 +39348,7 @@
         <v>0.63</v>
       </c>
       <c r="AP183">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ183">
         <v>0.78</v>
@@ -39527,7 +39554,7 @@
         <v>1.63</v>
       </c>
       <c r="AP184">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ184">
         <v>1</v>
@@ -39939,10 +39966,10 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ186">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR186">
         <v>1.62</v>
@@ -40148,7 +40175,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ187">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR187">
         <v>1.47</v>
@@ -40354,7 +40381,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ188">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR188">
         <v>1.04</v>
@@ -40479,7 +40506,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40891,7 +40918,7 @@
         <v>155</v>
       </c>
       <c r="P191" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q191">
         <v>1.83</v>
@@ -41175,7 +41202,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ192">
         <v>0.67</v>
@@ -41509,7 +41536,7 @@
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q194">
         <v>3.6</v>
@@ -41999,7 +42026,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ196">
         <v>1.22</v>
@@ -42127,7 +42154,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42208,7 +42235,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ197">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR197">
         <v>1.54</v>
@@ -42617,10 +42644,10 @@
         <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ199">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42745,7 +42772,7 @@
         <v>219</v>
       </c>
       <c r="P200" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42823,7 +42850,7 @@
         <v>1.56</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200">
         <v>1</v>
@@ -43235,10 +43262,10 @@
         <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ202">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR202">
         <v>1.44</v>
@@ -43363,7 +43390,7 @@
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43444,7 +43471,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ203">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR203">
         <v>1.78</v>
@@ -43647,10 +43674,10 @@
         <v>1.2</v>
       </c>
       <c r="AP204">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ204">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR204">
         <v>1.51</v>
@@ -43775,7 +43802,7 @@
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43853,7 +43880,7 @@
         <v>0.7</v>
       </c>
       <c r="AP205">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ205">
         <v>0.72</v>
@@ -44062,7 +44089,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ206">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR206">
         <v>1.29</v>
@@ -44187,7 +44214,7 @@
         <v>92</v>
       </c>
       <c r="P207" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -44268,7 +44295,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ207">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR207">
         <v>1.12</v>
@@ -44393,7 +44420,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q208">
         <v>1.62</v>
@@ -44471,10 +44498,10 @@
         <v>1.3</v>
       </c>
       <c r="AP208">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ208">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR208">
         <v>1.57</v>
@@ -44680,7 +44707,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -45011,7 +45038,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45092,7 +45119,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ211">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR211">
         <v>1.53</v>
@@ -45504,7 +45531,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ213">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR213">
         <v>1.04</v>
@@ -45629,7 +45656,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q214">
         <v>1.73</v>
@@ -45835,7 +45862,7 @@
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46041,7 +46068,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -46119,7 +46146,7 @@
         <v>2.56</v>
       </c>
       <c r="AP216">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ216">
         <v>1.94</v>
@@ -46247,7 +46274,7 @@
         <v>165</v>
       </c>
       <c r="P217" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46453,7 +46480,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q218">
         <v>2.88</v>
@@ -46737,7 +46764,7 @@
         <v>0.7</v>
       </c>
       <c r="AP219">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ219">
         <v>0.5600000000000001</v>
@@ -46865,7 +46892,7 @@
         <v>211</v>
       </c>
       <c r="P220" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47071,7 +47098,7 @@
         <v>234</v>
       </c>
       <c r="P221" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47152,7 +47179,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR221">
         <v>1.06</v>
@@ -47355,7 +47382,7 @@
         <v>0.91</v>
       </c>
       <c r="AP222">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ222">
         <v>0.9399999999999999</v>
@@ -47483,7 +47510,7 @@
         <v>189</v>
       </c>
       <c r="P223" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q223">
         <v>1.95</v>
@@ -47564,7 +47591,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ223">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -47770,7 +47797,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ224">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR224">
         <v>1.75</v>
@@ -47973,10 +48000,10 @@
         <v>1.18</v>
       </c>
       <c r="AP225">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ225">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR225">
         <v>1.48</v>
@@ -48101,7 +48128,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q226">
         <v>2.25</v>
@@ -48179,7 +48206,7 @@
         <v>1.4</v>
       </c>
       <c r="AP226">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -48513,7 +48540,7 @@
         <v>165</v>
       </c>
       <c r="P228" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48591,10 +48618,10 @@
         <v>2.36</v>
       </c>
       <c r="AP228">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ228">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR228">
         <v>1.58</v>
@@ -48719,7 +48746,7 @@
         <v>225</v>
       </c>
       <c r="P229" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48797,10 +48824,10 @@
         <v>1.64</v>
       </c>
       <c r="AP229">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ229">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR229">
         <v>1.45</v>
@@ -49003,7 +49030,7 @@
         <v>2.45</v>
       </c>
       <c r="AP230">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ230">
         <v>1.94</v>
@@ -49131,7 +49158,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49337,7 +49364,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -49418,7 +49445,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ232">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49543,7 +49570,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q233">
         <v>5.5</v>
@@ -49624,7 +49651,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ233">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR233">
         <v>0.99</v>
@@ -49749,7 +49776,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50239,7 +50266,7 @@
         <v>0.73</v>
       </c>
       <c r="AP236">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ236">
         <v>0.67</v>
@@ -50367,7 +50394,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q237">
         <v>1.91</v>
@@ -50651,10 +50678,10 @@
         <v>1.55</v>
       </c>
       <c r="AP238">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ238">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR238">
         <v>1.34</v>
@@ -50779,7 +50806,7 @@
         <v>242</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q239">
         <v>1.95</v>
@@ -50860,7 +50887,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ239">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR239">
         <v>1.57</v>
@@ -51063,7 +51090,7 @@
         <v>1.64</v>
       </c>
       <c r="AP240">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ240">
         <v>1.22</v>
@@ -51191,7 +51218,7 @@
         <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51272,7 +51299,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ241">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR241">
         <v>1.74</v>
@@ -51603,7 +51630,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q243">
         <v>3.4</v>
@@ -51684,7 +51711,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ243">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR243">
         <v>1.63</v>
@@ -52015,7 +52042,7 @@
         <v>92</v>
       </c>
       <c r="P245" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52093,10 +52120,10 @@
         <v>0.58</v>
       </c>
       <c r="AP245">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ245">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR245">
         <v>1.56</v>
@@ -52299,7 +52326,7 @@
         <v>0.83</v>
       </c>
       <c r="AP246">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ246">
         <v>0.72</v>
@@ -52508,7 +52535,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ247">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR247">
         <v>1.1</v>
@@ -52633,7 +52660,7 @@
         <v>92</v>
       </c>
       <c r="P248" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -52917,7 +52944,7 @@
         <v>2.25</v>
       </c>
       <c r="AP249">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ249">
         <v>1.94</v>
@@ -53123,10 +53150,10 @@
         <v>0.33</v>
       </c>
       <c r="AP250">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ250">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR250">
         <v>1.32</v>
@@ -53329,10 +53356,10 @@
         <v>1.08</v>
       </c>
       <c r="AP251">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ251">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR251">
         <v>1.3</v>
@@ -53538,7 +53565,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ252">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR252">
         <v>1.39</v>
@@ -53744,7 +53771,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ253">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR253">
         <v>1.35</v>
@@ -53950,7 +53977,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ254">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR254">
         <v>1.15</v>
@@ -54153,7 +54180,7 @@
         <v>1.25</v>
       </c>
       <c r="AP255">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ255">
         <v>1</v>
@@ -54281,7 +54308,7 @@
         <v>250</v>
       </c>
       <c r="P256" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54362,7 +54389,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ256">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR256">
         <v>1.57</v>
@@ -54693,7 +54720,7 @@
         <v>92</v>
       </c>
       <c r="P258" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54774,7 +54801,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ258">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR258">
         <v>0.97</v>
@@ -54899,7 +54926,7 @@
         <v>92</v>
       </c>
       <c r="P259" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54977,7 +55004,7 @@
         <v>1.75</v>
       </c>
       <c r="AP259">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ259">
         <v>1.5</v>
@@ -55183,7 +55210,7 @@
         <v>0.58</v>
       </c>
       <c r="AP260">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ260">
         <v>0.5600000000000001</v>
@@ -55392,7 +55419,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ261">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR261">
         <v>1.8</v>
@@ -55595,7 +55622,7 @@
         <v>0.85</v>
       </c>
       <c r="AP262">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ262">
         <v>0.72</v>
@@ -55804,7 +55831,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ263">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR263">
         <v>1.84</v>
@@ -56341,7 +56368,7 @@
         <v>92</v>
       </c>
       <c r="P266" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q266">
         <v>4.75</v>
@@ -56419,10 +56446,10 @@
         <v>1.08</v>
       </c>
       <c r="AP266">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ266">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR266">
         <v>1.18</v>
@@ -56831,10 +56858,10 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ268">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR268">
         <v>1.35</v>
@@ -57037,10 +57064,10 @@
         <v>0.77</v>
       </c>
       <c r="AP269">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ269">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57165,7 +57192,7 @@
         <v>146</v>
       </c>
       <c r="P270" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q270">
         <v>2.63</v>
@@ -57246,7 +57273,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ270">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR270">
         <v>1.71</v>
@@ -57449,7 +57476,7 @@
         <v>1</v>
       </c>
       <c r="AP271">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ271">
         <v>0.9399999999999999</v>
@@ -57655,7 +57682,7 @@
         <v>1.15</v>
       </c>
       <c r="AP272">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ272">
         <v>1</v>
@@ -57783,7 +57810,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q273">
         <v>3.5</v>
@@ -57864,7 +57891,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ273">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR273">
         <v>1.34</v>
@@ -58070,7 +58097,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ274">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR274">
         <v>1.53</v>
@@ -58195,7 +58222,7 @@
         <v>261</v>
       </c>
       <c r="P275" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -58273,10 +58300,10 @@
         <v>1.31</v>
       </c>
       <c r="AP275">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ275">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR275">
         <v>1.29</v>
@@ -58401,7 +58428,7 @@
         <v>262</v>
       </c>
       <c r="P276" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q276">
         <v>1.5</v>
@@ -58479,7 +58506,7 @@
         <v>0.54</v>
       </c>
       <c r="AP276">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ276">
         <v>0.5600000000000001</v>
@@ -58607,7 +58634,7 @@
         <v>103</v>
       </c>
       <c r="P277" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q277">
         <v>5.5</v>
@@ -58688,7 +58715,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ277">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR277">
         <v>1.23</v>
@@ -58813,7 +58840,7 @@
         <v>263</v>
       </c>
       <c r="P278" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q278">
         <v>2.2</v>
@@ -59019,7 +59046,7 @@
         <v>92</v>
       </c>
       <c r="P279" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -59225,7 +59252,7 @@
         <v>92</v>
       </c>
       <c r="P280" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59303,10 +59330,10 @@
         <v>2.14</v>
       </c>
       <c r="AP280">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ280">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR280">
         <v>1.71</v>
@@ -59512,7 +59539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ281">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR281">
         <v>1.63</v>
@@ -59637,7 +59664,7 @@
         <v>265</v>
       </c>
       <c r="P282" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59715,7 +59742,7 @@
         <v>0.79</v>
       </c>
       <c r="AP282">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ282">
         <v>0.72</v>
@@ -60049,7 +60076,7 @@
         <v>216</v>
       </c>
       <c r="P284" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60127,7 +60154,7 @@
         <v>0.62</v>
       </c>
       <c r="AP284">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ284">
         <v>0.67</v>
@@ -60255,7 +60282,7 @@
         <v>266</v>
       </c>
       <c r="P285" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60336,7 +60363,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ285">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR285">
         <v>1.72</v>
@@ -60542,7 +60569,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ286">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR286">
         <v>1.15</v>
@@ -60748,7 +60775,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ287">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR287">
         <v>1.33</v>
@@ -60954,7 +60981,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ288">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR288">
         <v>1.79</v>
@@ -61157,7 +61184,7 @@
         <v>0.77</v>
       </c>
       <c r="AP289">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ289">
         <v>0.78</v>
@@ -61363,7 +61390,7 @@
         <v>1.85</v>
       </c>
       <c r="AP290">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ290">
         <v>1.5</v>
@@ -61491,7 +61518,7 @@
         <v>92</v>
       </c>
       <c r="P291" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61778,7 +61805,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ292">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR292">
         <v>1.55</v>
@@ -61984,7 +62011,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ293">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR293">
         <v>1.36</v>
@@ -62187,7 +62214,7 @@
         <v>1.14</v>
       </c>
       <c r="AP294">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ294">
         <v>1</v>
@@ -62393,7 +62420,7 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ295">
         <v>1.39</v>
@@ -62599,7 +62626,7 @@
         <v>0.5</v>
       </c>
       <c r="AP296">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ296">
         <v>0.5600000000000001</v>
@@ -62805,10 +62832,10 @@
         <v>2.2</v>
       </c>
       <c r="AP297">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ297">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR297">
         <v>1.47</v>
@@ -62933,7 +62960,7 @@
         <v>273</v>
       </c>
       <c r="P298" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q298">
         <v>1.95</v>
@@ -63011,10 +63038,10 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ298">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR298">
         <v>1.87</v>
@@ -63139,7 +63166,7 @@
         <v>274</v>
       </c>
       <c r="P299" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q299">
         <v>2.6</v>
@@ -63220,7 +63247,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ299">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
         <v>1.7</v>
@@ -63551,7 +63578,7 @@
         <v>94</v>
       </c>
       <c r="P301" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63632,7 +63659,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ301">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR301">
         <v>1.61</v>
@@ -63835,10 +63862,10 @@
         <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ302">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR302">
         <v>1.29</v>
@@ -63963,7 +63990,7 @@
         <v>167</v>
       </c>
       <c r="P303" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64041,10 +64068,10 @@
         <v>0.67</v>
       </c>
       <c r="AP303">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ303">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR303">
         <v>1.2</v>
@@ -64169,7 +64196,7 @@
         <v>275</v>
       </c>
       <c r="P304" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -64375,7 +64402,7 @@
         <v>276</v>
       </c>
       <c r="P305" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q305">
         <v>2.5</v>
@@ -64659,10 +64686,10 @@
         <v>0.4</v>
       </c>
       <c r="AP306">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ306">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR306">
         <v>1.32</v>
@@ -65280,7 +65307,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ309">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR309">
         <v>1.84</v>
@@ -65405,7 +65432,7 @@
         <v>173</v>
       </c>
       <c r="P310" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q310">
         <v>3.2</v>
@@ -65483,7 +65510,7 @@
         <v>1.71</v>
       </c>
       <c r="AP310">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ310">
         <v>1.5</v>
@@ -65692,7 +65719,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ311">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR311">
         <v>1.79</v>
@@ -65817,7 +65844,7 @@
         <v>92</v>
       </c>
       <c r="P312" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65898,7 +65925,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ312">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR312">
         <v>1.27</v>
@@ -66229,7 +66256,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q314">
         <v>1.8</v>
@@ -66307,7 +66334,7 @@
         <v>0.73</v>
       </c>
       <c r="AP314">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ314">
         <v>0.78</v>
@@ -66513,7 +66540,7 @@
         <v>0.73</v>
       </c>
       <c r="AP315">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ315">
         <v>0.72</v>
@@ -66722,7 +66749,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ316">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR316">
         <v>1.82</v>
@@ -66925,7 +66952,7 @@
         <v>0.67</v>
       </c>
       <c r="AP317">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ317">
         <v>0.67</v>
@@ -67340,7 +67367,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ319">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR319">
         <v>1.57</v>
@@ -67752,7 +67779,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ321">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR321">
         <v>1.66</v>
@@ -67877,7 +67904,7 @@
         <v>92</v>
       </c>
       <c r="P322" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q322">
         <v>4.33</v>
@@ -67955,10 +67982,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP322">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ322">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR322">
         <v>1.38</v>
@@ -68161,10 +68188,10 @@
         <v>1.88</v>
       </c>
       <c r="AP323">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ323">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR323">
         <v>1.18</v>
@@ -68367,7 +68394,7 @@
         <v>1.06</v>
       </c>
       <c r="AP324">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ324">
         <v>0.9399999999999999</v>
@@ -68495,7 +68522,7 @@
         <v>285</v>
       </c>
       <c r="P325" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q325">
         <v>3</v>
@@ -68576,7 +68603,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ325">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR325">
         <v>0.95</v>
@@ -68988,7 +69015,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ327">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR327">
         <v>1.7</v>
@@ -69113,7 +69140,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69191,7 +69218,7 @@
         <v>1.27</v>
       </c>
       <c r="AP328">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ328">
         <v>1.22</v>
@@ -69400,7 +69427,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ329">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR329">
         <v>1.16</v>
@@ -69525,7 +69552,7 @@
         <v>92</v>
       </c>
       <c r="P330" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69603,10 +69630,10 @@
         <v>1.75</v>
       </c>
       <c r="AP330">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ330">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR330">
         <v>1.32</v>
@@ -70143,7 +70170,7 @@
         <v>92</v>
       </c>
       <c r="P333" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q333">
         <v>4.75</v>
@@ -70224,7 +70251,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ333">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR333">
         <v>1.33</v>
@@ -70427,10 +70454,10 @@
         <v>0.88</v>
       </c>
       <c r="AP334">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ334">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR334">
         <v>1.45</v>
@@ -70633,7 +70660,7 @@
         <v>1.38</v>
       </c>
       <c r="AP335">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ335">
         <v>1.39</v>
@@ -70839,7 +70866,7 @@
         <v>0.44</v>
       </c>
       <c r="AP336">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ336">
         <v>0.5600000000000001</v>
@@ -71048,7 +71075,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ337">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR337">
         <v>1.67</v>
@@ -71173,7 +71200,7 @@
         <v>292</v>
       </c>
       <c r="P338" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q338">
         <v>1.73</v>
@@ -71460,7 +71487,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ339">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR339">
         <v>1.29</v>
@@ -71585,7 +71612,7 @@
         <v>92</v>
       </c>
       <c r="P340" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q340">
         <v>3.25</v>
@@ -71791,7 +71818,7 @@
         <v>293</v>
       </c>
       <c r="P341" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q341">
         <v>2.05</v>
@@ -72078,7 +72105,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ342">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR342">
         <v>1.17</v>
@@ -72284,7 +72311,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ343">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR343">
         <v>1.31</v>
@@ -72409,7 +72436,7 @@
         <v>189</v>
       </c>
       <c r="P344" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q344">
         <v>2.88</v>
@@ -72487,10 +72514,10 @@
         <v>1</v>
       </c>
       <c r="AP344">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ344">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR344">
         <v>1.41</v>
@@ -72693,10 +72720,10 @@
         <v>1.94</v>
       </c>
       <c r="AP345">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ345">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR345">
         <v>1.41</v>
@@ -72899,7 +72926,7 @@
         <v>1</v>
       </c>
       <c r="AP346">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AQ346">
         <v>0.9399999999999999</v>
@@ -73027,7 +73054,7 @@
         <v>92</v>
       </c>
       <c r="P347" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q347">
         <v>4.75</v>
@@ -73108,7 +73135,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ347">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR347">
         <v>0.98</v>
@@ -73233,7 +73260,7 @@
         <v>92</v>
       </c>
       <c r="P348" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q348">
         <v>9.5</v>
@@ -73311,10 +73338,10 @@
         <v>2.12</v>
       </c>
       <c r="AP348">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ348">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR348">
         <v>1.15</v>
@@ -73517,7 +73544,7 @@
         <v>1.38</v>
       </c>
       <c r="AP349">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ349">
         <v>1.22</v>
@@ -73851,7 +73878,7 @@
         <v>270</v>
       </c>
       <c r="P351" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -73929,10 +73956,10 @@
         <v>1.53</v>
       </c>
       <c r="AP351">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ351">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR351">
         <v>1.31</v>
@@ -74138,7 +74165,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ352">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR352">
         <v>1.67</v>
@@ -74881,7 +74908,7 @@
         <v>136</v>
       </c>
       <c r="P356" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q356">
         <v>2</v>
@@ -75293,7 +75320,7 @@
         <v>92</v>
       </c>
       <c r="P358" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -75499,7 +75526,7 @@
         <v>299</v>
       </c>
       <c r="P359" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q359">
         <v>1.8</v>
@@ -76068,6 +76095,2066 @@
       </c>
       <c r="BP361">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7492510</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45794.65625</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>70</v>
+      </c>
+      <c r="H362" t="s">
+        <v>89</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>2</v>
+      </c>
+      <c r="M362">
+        <v>3</v>
+      </c>
+      <c r="N362">
+        <v>5</v>
+      </c>
+      <c r="O362" t="s">
+        <v>302</v>
+      </c>
+      <c r="P362" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q362">
+        <v>5.5</v>
+      </c>
+      <c r="R362">
+        <v>2.25</v>
+      </c>
+      <c r="S362">
+        <v>2.25</v>
+      </c>
+      <c r="T362">
+        <v>1.36</v>
+      </c>
+      <c r="U362">
+        <v>3</v>
+      </c>
+      <c r="V362">
+        <v>2.75</v>
+      </c>
+      <c r="W362">
+        <v>1.4</v>
+      </c>
+      <c r="X362">
+        <v>7</v>
+      </c>
+      <c r="Y362">
+        <v>1.1</v>
+      </c>
+      <c r="Z362">
+        <v>5.4</v>
+      </c>
+      <c r="AA362">
+        <v>3.85</v>
+      </c>
+      <c r="AB362">
+        <v>1.6</v>
+      </c>
+      <c r="AC362">
+        <v>1.05</v>
+      </c>
+      <c r="AD362">
+        <v>9.5</v>
+      </c>
+      <c r="AE362">
+        <v>1.28</v>
+      </c>
+      <c r="AF362">
+        <v>3.55</v>
+      </c>
+      <c r="AG362">
+        <v>1.85</v>
+      </c>
+      <c r="AH362">
+        <v>1.89</v>
+      </c>
+      <c r="AI362">
+        <v>1.91</v>
+      </c>
+      <c r="AJ362">
+        <v>1.91</v>
+      </c>
+      <c r="AK362">
+        <v>2.15</v>
+      </c>
+      <c r="AL362">
+        <v>1.2</v>
+      </c>
+      <c r="AM362">
+        <v>1.17</v>
+      </c>
+      <c r="AN362">
+        <v>1.22</v>
+      </c>
+      <c r="AO362">
+        <v>2.17</v>
+      </c>
+      <c r="AP362">
+        <v>1.16</v>
+      </c>
+      <c r="AQ362">
+        <v>2.21</v>
+      </c>
+      <c r="AR362">
+        <v>1.32</v>
+      </c>
+      <c r="AS362">
+        <v>1.58</v>
+      </c>
+      <c r="AT362">
+        <v>2.9</v>
+      </c>
+      <c r="AU362">
+        <v>-1</v>
+      </c>
+      <c r="AV362">
+        <v>-1</v>
+      </c>
+      <c r="AW362">
+        <v>-1</v>
+      </c>
+      <c r="AX362">
+        <v>-1</v>
+      </c>
+      <c r="AY362">
+        <v>-1</v>
+      </c>
+      <c r="AZ362">
+        <v>-1</v>
+      </c>
+      <c r="BA362">
+        <v>-1</v>
+      </c>
+      <c r="BB362">
+        <v>-1</v>
+      </c>
+      <c r="BC362">
+        <v>-1</v>
+      </c>
+      <c r="BD362">
+        <v>3.68</v>
+      </c>
+      <c r="BE362">
+        <v>9</v>
+      </c>
+      <c r="BF362">
+        <v>1.42</v>
+      </c>
+      <c r="BG362">
+        <v>1.36</v>
+      </c>
+      <c r="BH362">
+        <v>2.69</v>
+      </c>
+      <c r="BI362">
+        <v>1.69</v>
+      </c>
+      <c r="BJ362">
+        <v>2</v>
+      </c>
+      <c r="BK362">
+        <v>2.19</v>
+      </c>
+      <c r="BL362">
+        <v>1.6</v>
+      </c>
+      <c r="BM362">
+        <v>2.93</v>
+      </c>
+      <c r="BN362">
+        <v>1.33</v>
+      </c>
+      <c r="BO362">
+        <v>4.1</v>
+      </c>
+      <c r="BP362">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7492517</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>86</v>
+      </c>
+      <c r="H363" t="s">
+        <v>73</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+      <c r="K363">
+        <v>2</v>
+      </c>
+      <c r="L363">
+        <v>3</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>4</v>
+      </c>
+      <c r="O363" t="s">
+        <v>303</v>
+      </c>
+      <c r="P363" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q363">
+        <v>2.88</v>
+      </c>
+      <c r="R363">
+        <v>2.3</v>
+      </c>
+      <c r="S363">
+        <v>3.25</v>
+      </c>
+      <c r="T363">
+        <v>1.33</v>
+      </c>
+      <c r="U363">
+        <v>3.25</v>
+      </c>
+      <c r="V363">
+        <v>2.5</v>
+      </c>
+      <c r="W363">
+        <v>1.5</v>
+      </c>
+      <c r="X363">
+        <v>6</v>
+      </c>
+      <c r="Y363">
+        <v>1.13</v>
+      </c>
+      <c r="Z363">
+        <v>1.91</v>
+      </c>
+      <c r="AA363">
+        <v>3.63</v>
+      </c>
+      <c r="AB363">
+        <v>3.7</v>
+      </c>
+      <c r="AC363">
+        <v>1.04</v>
+      </c>
+      <c r="AD363">
+        <v>10</v>
+      </c>
+      <c r="AE363">
+        <v>1.22</v>
+      </c>
+      <c r="AF363">
+        <v>4.2</v>
+      </c>
+      <c r="AG363">
+        <v>1.7</v>
+      </c>
+      <c r="AH363">
+        <v>2.05</v>
+      </c>
+      <c r="AI363">
+        <v>1.62</v>
+      </c>
+      <c r="AJ363">
+        <v>2.2</v>
+      </c>
+      <c r="AK363">
+        <v>1.28</v>
+      </c>
+      <c r="AL363">
+        <v>1.22</v>
+      </c>
+      <c r="AM363">
+        <v>1.8</v>
+      </c>
+      <c r="AN363">
+        <v>2.11</v>
+      </c>
+      <c r="AO363">
+        <v>1.61</v>
+      </c>
+      <c r="AP363">
+        <v>2.16</v>
+      </c>
+      <c r="AQ363">
+        <v>1.53</v>
+      </c>
+      <c r="AR363">
+        <v>1.53</v>
+      </c>
+      <c r="AS363">
+        <v>1.6</v>
+      </c>
+      <c r="AT363">
+        <v>3.13</v>
+      </c>
+      <c r="AU363">
+        <v>-1</v>
+      </c>
+      <c r="AV363">
+        <v>-1</v>
+      </c>
+      <c r="AW363">
+        <v>-1</v>
+      </c>
+      <c r="AX363">
+        <v>-1</v>
+      </c>
+      <c r="AY363">
+        <v>-1</v>
+      </c>
+      <c r="AZ363">
+        <v>-1</v>
+      </c>
+      <c r="BA363">
+        <v>-1</v>
+      </c>
+      <c r="BB363">
+        <v>-1</v>
+      </c>
+      <c r="BC363">
+        <v>-1</v>
+      </c>
+      <c r="BD363">
+        <v>1.72</v>
+      </c>
+      <c r="BE363">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF363">
+        <v>2.56</v>
+      </c>
+      <c r="BG363">
+        <v>1.23</v>
+      </c>
+      <c r="BH363">
+        <v>3.42</v>
+      </c>
+      <c r="BI363">
+        <v>1.46</v>
+      </c>
+      <c r="BJ363">
+        <v>2.45</v>
+      </c>
+      <c r="BK363">
+        <v>1.82</v>
+      </c>
+      <c r="BL363">
+        <v>1.88</v>
+      </c>
+      <c r="BM363">
+        <v>2.32</v>
+      </c>
+      <c r="BN363">
+        <v>1.51</v>
+      </c>
+      <c r="BO363">
+        <v>3.08</v>
+      </c>
+      <c r="BP363">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7492516</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>71</v>
+      </c>
+      <c r="H364" t="s">
+        <v>85</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+      <c r="O364" t="s">
+        <v>92</v>
+      </c>
+      <c r="P364" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q364">
+        <v>6.5</v>
+      </c>
+      <c r="R364">
+        <v>2.3</v>
+      </c>
+      <c r="S364">
+        <v>2.05</v>
+      </c>
+      <c r="T364">
+        <v>1.36</v>
+      </c>
+      <c r="U364">
+        <v>3</v>
+      </c>
+      <c r="V364">
+        <v>2.75</v>
+      </c>
+      <c r="W364">
+        <v>1.4</v>
+      </c>
+      <c r="X364">
+        <v>7</v>
+      </c>
+      <c r="Y364">
+        <v>1.1</v>
+      </c>
+      <c r="Z364">
+        <v>6</v>
+      </c>
+      <c r="AA364">
+        <v>4.1</v>
+      </c>
+      <c r="AB364">
+        <v>1.51</v>
+      </c>
+      <c r="AC364">
+        <v>1.05</v>
+      </c>
+      <c r="AD364">
+        <v>9.5</v>
+      </c>
+      <c r="AE364">
+        <v>1.28</v>
+      </c>
+      <c r="AF364">
+        <v>3.6</v>
+      </c>
+      <c r="AG364">
+        <v>1.87</v>
+      </c>
+      <c r="AH364">
+        <v>1.87</v>
+      </c>
+      <c r="AI364">
+        <v>2</v>
+      </c>
+      <c r="AJ364">
+        <v>1.75</v>
+      </c>
+      <c r="AK364">
+        <v>2.45</v>
+      </c>
+      <c r="AL364">
+        <v>1.18</v>
+      </c>
+      <c r="AM364">
+        <v>1.12</v>
+      </c>
+      <c r="AN364">
+        <v>1.11</v>
+      </c>
+      <c r="AO364">
+        <v>2</v>
+      </c>
+      <c r="AP364">
+        <v>1.11</v>
+      </c>
+      <c r="AQ364">
+        <v>1.95</v>
+      </c>
+      <c r="AR364">
+        <v>1.31</v>
+      </c>
+      <c r="AS364">
+        <v>1.24</v>
+      </c>
+      <c r="AT364">
+        <v>2.55</v>
+      </c>
+      <c r="AU364">
+        <v>-1</v>
+      </c>
+      <c r="AV364">
+        <v>-1</v>
+      </c>
+      <c r="AW364">
+        <v>-1</v>
+      </c>
+      <c r="AX364">
+        <v>-1</v>
+      </c>
+      <c r="AY364">
+        <v>-1</v>
+      </c>
+      <c r="AZ364">
+        <v>-1</v>
+      </c>
+      <c r="BA364">
+        <v>-1</v>
+      </c>
+      <c r="BB364">
+        <v>-1</v>
+      </c>
+      <c r="BC364">
+        <v>-1</v>
+      </c>
+      <c r="BD364">
+        <v>4.1</v>
+      </c>
+      <c r="BE364">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF364">
+        <v>1.35</v>
+      </c>
+      <c r="BG364">
+        <v>1.22</v>
+      </c>
+      <c r="BH364">
+        <v>3.48</v>
+      </c>
+      <c r="BI364">
+        <v>1.45</v>
+      </c>
+      <c r="BJ364">
+        <v>2.48</v>
+      </c>
+      <c r="BK364">
+        <v>1.8</v>
+      </c>
+      <c r="BL364">
+        <v>1.9</v>
+      </c>
+      <c r="BM364">
+        <v>2.28</v>
+      </c>
+      <c r="BN364">
+        <v>1.53</v>
+      </c>
+      <c r="BO364">
+        <v>3.04</v>
+      </c>
+      <c r="BP364">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>7492515</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>81</v>
+      </c>
+      <c r="H365" t="s">
+        <v>72</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>4</v>
+      </c>
+      <c r="O365" t="s">
+        <v>229</v>
+      </c>
+      <c r="P365" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q365">
+        <v>5.5</v>
+      </c>
+      <c r="R365">
+        <v>2.1</v>
+      </c>
+      <c r="S365">
+        <v>2.38</v>
+      </c>
+      <c r="T365">
+        <v>1.44</v>
+      </c>
+      <c r="U365">
+        <v>2.63</v>
+      </c>
+      <c r="V365">
+        <v>3.25</v>
+      </c>
+      <c r="W365">
+        <v>1.33</v>
+      </c>
+      <c r="X365">
+        <v>9</v>
+      </c>
+      <c r="Y365">
+        <v>1.07</v>
+      </c>
+      <c r="Z365">
+        <v>4.2</v>
+      </c>
+      <c r="AA365">
+        <v>3.47</v>
+      </c>
+      <c r="AB365">
+        <v>1.83</v>
+      </c>
+      <c r="AC365">
+        <v>1.07</v>
+      </c>
+      <c r="AD365">
+        <v>8</v>
+      </c>
+      <c r="AE365">
+        <v>1.38</v>
+      </c>
+      <c r="AF365">
+        <v>3</v>
+      </c>
+      <c r="AG365">
+        <v>2.15</v>
+      </c>
+      <c r="AH365">
+        <v>1.65</v>
+      </c>
+      <c r="AI365">
+        <v>2.05</v>
+      </c>
+      <c r="AJ365">
+        <v>1.7</v>
+      </c>
+      <c r="AK365">
+        <v>2</v>
+      </c>
+      <c r="AL365">
+        <v>1.25</v>
+      </c>
+      <c r="AM365">
+        <v>1.18</v>
+      </c>
+      <c r="AN365">
+        <v>0.44</v>
+      </c>
+      <c r="AO365">
+        <v>0.83</v>
+      </c>
+      <c r="AP365">
+        <v>0.42</v>
+      </c>
+      <c r="AQ365">
+        <v>0.95</v>
+      </c>
+      <c r="AR365">
+        <v>1.18</v>
+      </c>
+      <c r="AS365">
+        <v>1.13</v>
+      </c>
+      <c r="AT365">
+        <v>2.31</v>
+      </c>
+      <c r="AU365">
+        <v>-1</v>
+      </c>
+      <c r="AV365">
+        <v>-1</v>
+      </c>
+      <c r="AW365">
+        <v>-1</v>
+      </c>
+      <c r="AX365">
+        <v>-1</v>
+      </c>
+      <c r="AY365">
+        <v>-1</v>
+      </c>
+      <c r="AZ365">
+        <v>-1</v>
+      </c>
+      <c r="BA365">
+        <v>-1</v>
+      </c>
+      <c r="BB365">
+        <v>-1</v>
+      </c>
+      <c r="BC365">
+        <v>-1</v>
+      </c>
+      <c r="BD365">
+        <v>2.68</v>
+      </c>
+      <c r="BE365">
+        <v>8.4</v>
+      </c>
+      <c r="BF365">
+        <v>1.68</v>
+      </c>
+      <c r="BG365">
+        <v>1.3</v>
+      </c>
+      <c r="BH365">
+        <v>2.97</v>
+      </c>
+      <c r="BI365">
+        <v>1.58</v>
+      </c>
+      <c r="BJ365">
+        <v>2.17</v>
+      </c>
+      <c r="BK365">
+        <v>2.02</v>
+      </c>
+      <c r="BL365">
+        <v>1.71</v>
+      </c>
+      <c r="BM365">
+        <v>2.64</v>
+      </c>
+      <c r="BN365">
+        <v>1.4</v>
+      </c>
+      <c r="BO365">
+        <v>3.58</v>
+      </c>
+      <c r="BP365">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>7492513</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F366">
+        <v>37</v>
+      </c>
+      <c r="G366" t="s">
+        <v>79</v>
+      </c>
+      <c r="H366" t="s">
+        <v>80</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366" t="s">
+        <v>304</v>
+      </c>
+      <c r="P366" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q366">
+        <v>1.83</v>
+      </c>
+      <c r="R366">
+        <v>2.38</v>
+      </c>
+      <c r="S366">
+        <v>8</v>
+      </c>
+      <c r="T366">
+        <v>1.36</v>
+      </c>
+      <c r="U366">
+        <v>3</v>
+      </c>
+      <c r="V366">
+        <v>2.75</v>
+      </c>
+      <c r="W366">
+        <v>1.4</v>
+      </c>
+      <c r="X366">
+        <v>7</v>
+      </c>
+      <c r="Y366">
+        <v>1.1</v>
+      </c>
+      <c r="Z366">
+        <v>1.38</v>
+      </c>
+      <c r="AA366">
+        <v>4.5</v>
+      </c>
+      <c r="AB366">
+        <v>8.1</v>
+      </c>
+      <c r="AC366">
+        <v>1.05</v>
+      </c>
+      <c r="AD366">
+        <v>9.5</v>
+      </c>
+      <c r="AE366">
+        <v>1.28</v>
+      </c>
+      <c r="AF366">
+        <v>3.55</v>
+      </c>
+      <c r="AG366">
+        <v>1.91</v>
+      </c>
+      <c r="AH366">
+        <v>1.83</v>
+      </c>
+      <c r="AI366">
+        <v>2.2</v>
+      </c>
+      <c r="AJ366">
+        <v>1.62</v>
+      </c>
+      <c r="AK366">
+        <v>1.07</v>
+      </c>
+      <c r="AL366">
+        <v>1.15</v>
+      </c>
+      <c r="AM366">
+        <v>2.88</v>
+      </c>
+      <c r="AN366">
+        <v>2.06</v>
+      </c>
+      <c r="AO366">
+        <v>1.11</v>
+      </c>
+      <c r="AP366">
+        <v>2.11</v>
+      </c>
+      <c r="AQ366">
+        <v>1.05</v>
+      </c>
+      <c r="AR366">
+        <v>1.7</v>
+      </c>
+      <c r="AS366">
+        <v>1.36</v>
+      </c>
+      <c r="AT366">
+        <v>3.06</v>
+      </c>
+      <c r="AU366">
+        <v>-1</v>
+      </c>
+      <c r="AV366">
+        <v>-1</v>
+      </c>
+      <c r="AW366">
+        <v>-1</v>
+      </c>
+      <c r="AX366">
+        <v>-1</v>
+      </c>
+      <c r="AY366">
+        <v>-1</v>
+      </c>
+      <c r="AZ366">
+        <v>-1</v>
+      </c>
+      <c r="BA366">
+        <v>-1</v>
+      </c>
+      <c r="BB366">
+        <v>-1</v>
+      </c>
+      <c r="BC366">
+        <v>-1</v>
+      </c>
+      <c r="BD366">
+        <v>1.37</v>
+      </c>
+      <c r="BE366">
+        <v>9.9</v>
+      </c>
+      <c r="BF366">
+        <v>3.9</v>
+      </c>
+      <c r="BG366">
+        <v>1.2</v>
+      </c>
+      <c r="BH366">
+        <v>3.68</v>
+      </c>
+      <c r="BI366">
+        <v>1.41</v>
+      </c>
+      <c r="BJ366">
+        <v>2.6</v>
+      </c>
+      <c r="BK366">
+        <v>1.74</v>
+      </c>
+      <c r="BL366">
+        <v>1.98</v>
+      </c>
+      <c r="BM366">
+        <v>2.19</v>
+      </c>
+      <c r="BN366">
+        <v>1.57</v>
+      </c>
+      <c r="BO366">
+        <v>2.88</v>
+      </c>
+      <c r="BP366">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>7492514</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>78</v>
+      </c>
+      <c r="H367" t="s">
+        <v>84</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>1</v>
+      </c>
+      <c r="O367" t="s">
+        <v>128</v>
+      </c>
+      <c r="P367" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q367">
+        <v>2.4</v>
+      </c>
+      <c r="R367">
+        <v>2.1</v>
+      </c>
+      <c r="S367">
+        <v>5</v>
+      </c>
+      <c r="T367">
+        <v>1.44</v>
+      </c>
+      <c r="U367">
+        <v>2.63</v>
+      </c>
+      <c r="V367">
+        <v>3.25</v>
+      </c>
+      <c r="W367">
+        <v>1.33</v>
+      </c>
+      <c r="X367">
+        <v>10</v>
+      </c>
+      <c r="Y367">
+        <v>1.06</v>
+      </c>
+      <c r="Z367">
+        <v>1.84</v>
+      </c>
+      <c r="AA367">
+        <v>3.23</v>
+      </c>
+      <c r="AB367">
+        <v>4.6</v>
+      </c>
+      <c r="AC367">
+        <v>1.08</v>
+      </c>
+      <c r="AD367">
+        <v>7.5</v>
+      </c>
+      <c r="AE367">
+        <v>1.4</v>
+      </c>
+      <c r="AF367">
+        <v>2.88</v>
+      </c>
+      <c r="AG367">
+        <v>2.2</v>
+      </c>
+      <c r="AH367">
+        <v>1.6</v>
+      </c>
+      <c r="AI367">
+        <v>2</v>
+      </c>
+      <c r="AJ367">
+        <v>1.75</v>
+      </c>
+      <c r="AK367">
+        <v>1.18</v>
+      </c>
+      <c r="AL367">
+        <v>1.25</v>
+      </c>
+      <c r="AM367">
+        <v>1.95</v>
+      </c>
+      <c r="AN367">
+        <v>0.83</v>
+      </c>
+      <c r="AO367">
+        <v>1.06</v>
+      </c>
+      <c r="AP367">
+        <v>0.95</v>
+      </c>
+      <c r="AQ367">
+        <v>1</v>
+      </c>
+      <c r="AR367">
+        <v>1.39</v>
+      </c>
+      <c r="AS367">
+        <v>1.1</v>
+      </c>
+      <c r="AT367">
+        <v>2.49</v>
+      </c>
+      <c r="AU367">
+        <v>-1</v>
+      </c>
+      <c r="AV367">
+        <v>-1</v>
+      </c>
+      <c r="AW367">
+        <v>-1</v>
+      </c>
+      <c r="AX367">
+        <v>-1</v>
+      </c>
+      <c r="AY367">
+        <v>-1</v>
+      </c>
+      <c r="AZ367">
+        <v>-1</v>
+      </c>
+      <c r="BA367">
+        <v>-1</v>
+      </c>
+      <c r="BB367">
+        <v>-1</v>
+      </c>
+      <c r="BC367">
+        <v>-1</v>
+      </c>
+      <c r="BD367">
+        <v>1.56</v>
+      </c>
+      <c r="BE367">
+        <v>8.9</v>
+      </c>
+      <c r="BF367">
+        <v>2.99</v>
+      </c>
+      <c r="BG367">
+        <v>1.25</v>
+      </c>
+      <c r="BH367">
+        <v>3.28</v>
+      </c>
+      <c r="BI367">
+        <v>1.49</v>
+      </c>
+      <c r="BJ367">
+        <v>2.38</v>
+      </c>
+      <c r="BK367">
+        <v>1.87</v>
+      </c>
+      <c r="BL367">
+        <v>1.83</v>
+      </c>
+      <c r="BM367">
+        <v>2.4</v>
+      </c>
+      <c r="BN367">
+        <v>1.48</v>
+      </c>
+      <c r="BO367">
+        <v>3.2</v>
+      </c>
+      <c r="BP367">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="368" spans="1:68">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>7492511</v>
+      </c>
+      <c r="C368" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F368">
+        <v>37</v>
+      </c>
+      <c r="G368" t="s">
+        <v>75</v>
+      </c>
+      <c r="H368" t="s">
+        <v>88</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368">
+        <v>2</v>
+      </c>
+      <c r="O368" t="s">
+        <v>292</v>
+      </c>
+      <c r="P368" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q368">
+        <v>4</v>
+      </c>
+      <c r="R368">
+        <v>2.1</v>
+      </c>
+      <c r="S368">
+        <v>2.75</v>
+      </c>
+      <c r="T368">
+        <v>1.4</v>
+      </c>
+      <c r="U368">
+        <v>2.75</v>
+      </c>
+      <c r="V368">
+        <v>3</v>
+      </c>
+      <c r="W368">
+        <v>1.36</v>
+      </c>
+      <c r="X368">
+        <v>8</v>
+      </c>
+      <c r="Y368">
+        <v>1.08</v>
+      </c>
+      <c r="Z368">
+        <v>3.47</v>
+      </c>
+      <c r="AA368">
+        <v>3.29</v>
+      </c>
+      <c r="AB368">
+        <v>2.09</v>
+      </c>
+      <c r="AC368">
+        <v>1.06</v>
+      </c>
+      <c r="AD368">
+        <v>8.5</v>
+      </c>
+      <c r="AE368">
+        <v>1.33</v>
+      </c>
+      <c r="AF368">
+        <v>3.2</v>
+      </c>
+      <c r="AG368">
+        <v>2</v>
+      </c>
+      <c r="AH368">
+        <v>1.75</v>
+      </c>
+      <c r="AI368">
+        <v>1.8</v>
+      </c>
+      <c r="AJ368">
+        <v>1.95</v>
+      </c>
+      <c r="AK368">
+        <v>1.7</v>
+      </c>
+      <c r="AL368">
+        <v>1.28</v>
+      </c>
+      <c r="AM368">
+        <v>1.3</v>
+      </c>
+      <c r="AN368">
+        <v>0.89</v>
+      </c>
+      <c r="AO368">
+        <v>1.06</v>
+      </c>
+      <c r="AP368">
+        <v>0.89</v>
+      </c>
+      <c r="AQ368">
+        <v>1.05</v>
+      </c>
+      <c r="AR368">
+        <v>1.17</v>
+      </c>
+      <c r="AS368">
+        <v>1.37</v>
+      </c>
+      <c r="AT368">
+        <v>2.54</v>
+      </c>
+      <c r="AU368">
+        <v>-1</v>
+      </c>
+      <c r="AV368">
+        <v>-1</v>
+      </c>
+      <c r="AW368">
+        <v>-1</v>
+      </c>
+      <c r="AX368">
+        <v>-1</v>
+      </c>
+      <c r="AY368">
+        <v>-1</v>
+      </c>
+      <c r="AZ368">
+        <v>-1</v>
+      </c>
+      <c r="BA368">
+        <v>-1</v>
+      </c>
+      <c r="BB368">
+        <v>-1</v>
+      </c>
+      <c r="BC368">
+        <v>-1</v>
+      </c>
+      <c r="BD368">
+        <v>2.31</v>
+      </c>
+      <c r="BE368">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF368">
+        <v>1.88</v>
+      </c>
+      <c r="BG368">
+        <v>1.35</v>
+      </c>
+      <c r="BH368">
+        <v>2.84</v>
+      </c>
+      <c r="BI368">
+        <v>1.66</v>
+      </c>
+      <c r="BJ368">
+        <v>2.09</v>
+      </c>
+      <c r="BK368">
+        <v>2.1</v>
+      </c>
+      <c r="BL368">
+        <v>1.62</v>
+      </c>
+      <c r="BM368">
+        <v>2.78</v>
+      </c>
+      <c r="BN368">
+        <v>1.34</v>
+      </c>
+      <c r="BO368">
+        <v>3.9</v>
+      </c>
+      <c r="BP368">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>7492509</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>83</v>
+      </c>
+      <c r="H369" t="s">
+        <v>74</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>1</v>
+      </c>
+      <c r="L369">
+        <v>3</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>5</v>
+      </c>
+      <c r="O369" t="s">
+        <v>305</v>
+      </c>
+      <c r="P369" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q369">
+        <v>3.2</v>
+      </c>
+      <c r="R369">
+        <v>2.05</v>
+      </c>
+      <c r="S369">
+        <v>3.6</v>
+      </c>
+      <c r="T369">
+        <v>1.44</v>
+      </c>
+      <c r="U369">
+        <v>2.63</v>
+      </c>
+      <c r="V369">
+        <v>3.25</v>
+      </c>
+      <c r="W369">
+        <v>1.33</v>
+      </c>
+      <c r="X369">
+        <v>10</v>
+      </c>
+      <c r="Y369">
+        <v>1.06</v>
+      </c>
+      <c r="Z369">
+        <v>2.89</v>
+      </c>
+      <c r="AA369">
+        <v>3.2</v>
+      </c>
+      <c r="AB369">
+        <v>2.43</v>
+      </c>
+      <c r="AC369">
+        <v>1.08</v>
+      </c>
+      <c r="AD369">
+        <v>7.5</v>
+      </c>
+      <c r="AE369">
+        <v>1.4</v>
+      </c>
+      <c r="AF369">
+        <v>2.88</v>
+      </c>
+      <c r="AG369">
+        <v>2.25</v>
+      </c>
+      <c r="AH369">
+        <v>1.6</v>
+      </c>
+      <c r="AI369">
+        <v>1.95</v>
+      </c>
+      <c r="AJ369">
+        <v>1.8</v>
+      </c>
+      <c r="AK369">
+        <v>1.53</v>
+      </c>
+      <c r="AL369">
+        <v>1.3</v>
+      </c>
+      <c r="AM369">
+        <v>1.38</v>
+      </c>
+      <c r="AN369">
+        <v>2.06</v>
+      </c>
+      <c r="AO369">
+        <v>1.39</v>
+      </c>
+      <c r="AP369">
+        <v>2.11</v>
+      </c>
+      <c r="AQ369">
+        <v>1.32</v>
+      </c>
+      <c r="AR369">
+        <v>1.42</v>
+      </c>
+      <c r="AS369">
+        <v>1.34</v>
+      </c>
+      <c r="AT369">
+        <v>2.76</v>
+      </c>
+      <c r="AU369">
+        <v>6</v>
+      </c>
+      <c r="AV369">
+        <v>4</v>
+      </c>
+      <c r="AW369">
+        <v>1</v>
+      </c>
+      <c r="AX369">
+        <v>12</v>
+      </c>
+      <c r="AY369">
+        <v>7</v>
+      </c>
+      <c r="AZ369">
+        <v>20</v>
+      </c>
+      <c r="BA369">
+        <v>2</v>
+      </c>
+      <c r="BB369">
+        <v>4</v>
+      </c>
+      <c r="BC369">
+        <v>6</v>
+      </c>
+      <c r="BD369">
+        <v>2.28</v>
+      </c>
+      <c r="BE369">
+        <v>6.2</v>
+      </c>
+      <c r="BF369">
+        <v>2.05</v>
+      </c>
+      <c r="BG369">
+        <v>1.46</v>
+      </c>
+      <c r="BH369">
+        <v>2.45</v>
+      </c>
+      <c r="BI369">
+        <v>1.85</v>
+      </c>
+      <c r="BJ369">
+        <v>1.85</v>
+      </c>
+      <c r="BK369">
+        <v>2.4</v>
+      </c>
+      <c r="BL369">
+        <v>1.48</v>
+      </c>
+      <c r="BM369">
+        <v>3.28</v>
+      </c>
+      <c r="BN369">
+        <v>1.25</v>
+      </c>
+      <c r="BO369">
+        <v>4.75</v>
+      </c>
+      <c r="BP369">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>7492508</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>76</v>
+      </c>
+      <c r="H370" t="s">
+        <v>87</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <v>3</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>3</v>
+      </c>
+      <c r="O370" t="s">
+        <v>306</v>
+      </c>
+      <c r="P370" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q370">
+        <v>3.2</v>
+      </c>
+      <c r="R370">
+        <v>2.1</v>
+      </c>
+      <c r="S370">
+        <v>3.5</v>
+      </c>
+      <c r="T370">
+        <v>1.44</v>
+      </c>
+      <c r="U370">
+        <v>2.63</v>
+      </c>
+      <c r="V370">
+        <v>3.25</v>
+      </c>
+      <c r="W370">
+        <v>1.33</v>
+      </c>
+      <c r="X370">
+        <v>9</v>
+      </c>
+      <c r="Y370">
+        <v>1.07</v>
+      </c>
+      <c r="Z370">
+        <v>2.51</v>
+      </c>
+      <c r="AA370">
+        <v>2.98</v>
+      </c>
+      <c r="AB370">
+        <v>2.97</v>
+      </c>
+      <c r="AC370">
+        <v>1.08</v>
+      </c>
+      <c r="AD370">
+        <v>7.5</v>
+      </c>
+      <c r="AE370">
+        <v>1.38</v>
+      </c>
+      <c r="AF370">
+        <v>3</v>
+      </c>
+      <c r="AG370">
+        <v>2.15</v>
+      </c>
+      <c r="AH370">
+        <v>1.61</v>
+      </c>
+      <c r="AI370">
+        <v>1.8</v>
+      </c>
+      <c r="AJ370">
+        <v>1.95</v>
+      </c>
+      <c r="AK370">
+        <v>1.4</v>
+      </c>
+      <c r="AL370">
+        <v>1.33</v>
+      </c>
+      <c r="AM370">
+        <v>1.48</v>
+      </c>
+      <c r="AN370">
+        <v>1.06</v>
+      </c>
+      <c r="AO370">
+        <v>0.5</v>
+      </c>
+      <c r="AP370">
+        <v>1.16</v>
+      </c>
+      <c r="AQ370">
+        <v>0.47</v>
+      </c>
+      <c r="AR370">
+        <v>1.38</v>
+      </c>
+      <c r="AS370">
+        <v>1.05</v>
+      </c>
+      <c r="AT370">
+        <v>2.43</v>
+      </c>
+      <c r="AU370">
+        <v>6</v>
+      </c>
+      <c r="AV370">
+        <v>2</v>
+      </c>
+      <c r="AW370">
+        <v>14</v>
+      </c>
+      <c r="AX370">
+        <v>9</v>
+      </c>
+      <c r="AY370">
+        <v>25</v>
+      </c>
+      <c r="AZ370">
+        <v>11</v>
+      </c>
+      <c r="BA370">
+        <v>8</v>
+      </c>
+      <c r="BB370">
+        <v>8</v>
+      </c>
+      <c r="BC370">
+        <v>16</v>
+      </c>
+      <c r="BD370">
+        <v>1.76</v>
+      </c>
+      <c r="BE370">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF370">
+        <v>2.47</v>
+      </c>
+      <c r="BG370">
+        <v>1.22</v>
+      </c>
+      <c r="BH370">
+        <v>3.5</v>
+      </c>
+      <c r="BI370">
+        <v>1.43</v>
+      </c>
+      <c r="BJ370">
+        <v>2.54</v>
+      </c>
+      <c r="BK370">
+        <v>1.77</v>
+      </c>
+      <c r="BL370">
+        <v>1.94</v>
+      </c>
+      <c r="BM370">
+        <v>2.23</v>
+      </c>
+      <c r="BN370">
+        <v>1.55</v>
+      </c>
+      <c r="BO370">
+        <v>2.97</v>
+      </c>
+      <c r="BP370">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>7492512</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45795.65625</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>82</v>
+      </c>
+      <c r="H371" t="s">
+        <v>77</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371">
+        <v>2</v>
+      </c>
+      <c r="N371">
+        <v>4</v>
+      </c>
+      <c r="O371" t="s">
+        <v>307</v>
+      </c>
+      <c r="P371" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q371">
+        <v>2.1</v>
+      </c>
+      <c r="R371">
+        <v>2.38</v>
+      </c>
+      <c r="S371">
+        <v>5</v>
+      </c>
+      <c r="T371">
+        <v>1.33</v>
+      </c>
+      <c r="U371">
+        <v>3.25</v>
+      </c>
+      <c r="V371">
+        <v>2.5</v>
+      </c>
+      <c r="W371">
+        <v>1.5</v>
+      </c>
+      <c r="X371">
+        <v>6.5</v>
+      </c>
+      <c r="Y371">
+        <v>1.11</v>
+      </c>
+      <c r="Z371">
+        <v>1.68</v>
+      </c>
+      <c r="AA371">
+        <v>3.95</v>
+      </c>
+      <c r="AB371">
+        <v>4.5</v>
+      </c>
+      <c r="AC371">
+        <v>1.04</v>
+      </c>
+      <c r="AD371">
+        <v>10</v>
+      </c>
+      <c r="AE371">
+        <v>1.22</v>
+      </c>
+      <c r="AF371">
+        <v>4</v>
+      </c>
+      <c r="AG371">
+        <v>1.75</v>
+      </c>
+      <c r="AH371">
+        <v>2</v>
+      </c>
+      <c r="AI371">
+        <v>1.75</v>
+      </c>
+      <c r="AJ371">
+        <v>2</v>
+      </c>
+      <c r="AK371">
+        <v>1.17</v>
+      </c>
+      <c r="AL371">
+        <v>1.18</v>
+      </c>
+      <c r="AM371">
+        <v>2.25</v>
+      </c>
+      <c r="AN371">
+        <v>2.33</v>
+      </c>
+      <c r="AO371">
+        <v>1.89</v>
+      </c>
+      <c r="AP371">
+        <v>2.26</v>
+      </c>
+      <c r="AQ371">
+        <v>1.84</v>
+      </c>
+      <c r="AR371">
+        <v>1.79</v>
+      </c>
+      <c r="AS371">
+        <v>1.52</v>
+      </c>
+      <c r="AT371">
+        <v>3.31</v>
+      </c>
+      <c r="AU371">
+        <v>-1</v>
+      </c>
+      <c r="AV371">
+        <v>-1</v>
+      </c>
+      <c r="AW371">
+        <v>-1</v>
+      </c>
+      <c r="AX371">
+        <v>-1</v>
+      </c>
+      <c r="AY371">
+        <v>-1</v>
+      </c>
+      <c r="AZ371">
+        <v>-1</v>
+      </c>
+      <c r="BA371">
+        <v>-1</v>
+      </c>
+      <c r="BB371">
+        <v>-1</v>
+      </c>
+      <c r="BC371">
+        <v>-1</v>
+      </c>
+      <c r="BD371">
+        <v>1.57</v>
+      </c>
+      <c r="BE371">
+        <v>9.1</v>
+      </c>
+      <c r="BF371">
+        <v>2.94</v>
+      </c>
+      <c r="BG371">
+        <v>1.22</v>
+      </c>
+      <c r="BH371">
+        <v>3.5</v>
+      </c>
+      <c r="BI371">
+        <v>1.44</v>
+      </c>
+      <c r="BJ371">
+        <v>2.51</v>
+      </c>
+      <c r="BK371">
+        <v>1.78</v>
+      </c>
+      <c r="BL371">
+        <v>1.93</v>
+      </c>
+      <c r="BM371">
+        <v>2.25</v>
+      </c>
+      <c r="BN371">
+        <v>1.54</v>
+      </c>
+      <c r="BO371">
+        <v>2.97</v>
+      </c>
+      <c r="BP371">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie A_20242025.xlsx
@@ -76237,31 +76237,31 @@
         <v>2.9</v>
       </c>
       <c r="AU362">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV362">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW362">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX362">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY362">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ362">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA362">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB362">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC362">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD362">
         <v>3.68</v>
@@ -76443,31 +76443,31 @@
         <v>3.13</v>
       </c>
       <c r="AU363">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW363">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX363">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY363">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ363">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB363">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC363">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD363">
         <v>1.72</v>
@@ -76649,31 +76649,31 @@
         <v>2.55</v>
       </c>
       <c r="AU364">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV364">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW364">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX364">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY364">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ364">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA364">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB364">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC364">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD364">
         <v>4.1</v>
@@ -76855,31 +76855,31 @@
         <v>2.31</v>
       </c>
       <c r="AU365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW365">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY365">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ365">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA365">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB365">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC365">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD365">
         <v>2.68</v>
@@ -77061,31 +77061,31 @@
         <v>3.06</v>
       </c>
       <c r="AU366">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV366">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW366">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AX366">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY366">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AZ366">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA366">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB366">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC366">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD366">
         <v>1.37</v>
@@ -77267,31 +77267,31 @@
         <v>2.49</v>
       </c>
       <c r="AU367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW367">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX367">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY367">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ367">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA367">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB367">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC367">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD367">
         <v>1.56</v>
@@ -77473,31 +77473,31 @@
         <v>2.54</v>
       </c>
       <c r="AU368">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV368">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW368">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX368">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY368">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ368">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA368">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB368">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC368">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD368">
         <v>2.31</v>
@@ -78091,31 +78091,31 @@
         <v>3.31</v>
       </c>
       <c r="AU371">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV371">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW371">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX371">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY371">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ371">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA371">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB371">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC371">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD371">
         <v>1.57</v>
